--- a/output.xlsx
+++ b/output.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <sheets>
-    <sheet name="Cases" sheetId="1" r:id="rId4"/>
+    <sheet name="cases" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -67,18 +67,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="4.189887640449439"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="51.489887640449446"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="21.789887640449443"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="74.58988764044945"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.08988764044944"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="27135.689887640452"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.289887640449439"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="36418.58988764045"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.08988764044944"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="36418.58988764045"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="36418.58988764045"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="54340.88988764046"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -882,6 +882,6780 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t> 26.03.2021
+                   </t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>MANU/GJ/0343/2021</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t> Solingaben Himrajbhai Machhar
+                                         </t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t> State of Gujarat
+</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>COULD NOT FIND CASE NOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t> 25.11.2014
+                         </t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>MANU/KA/2750/2014</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t> Fortis Hospital Ltd.
+                                       </t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t> The Principal Secretary and Appellate Authority
+</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>Law of medicine - Cancellation of license - Transplantation - Present appeal
+filed against order whereby Appropriate Authority had violated provisions of
+Act in conducting transplantation of pancreas and cancelled license granted to
+Petitioner-hospital for transplantation of human organs - Whether license
+granted to Petitioner-hospital for transplantation of human organs was rightly
+cancelled - Held, order passed by Appropriate Authority could not be regarded
+as one without authority of law having been made illegally exercising power
+of review - Registration was not made for pancreas which was evident from
+certificate  issued   -   Therefore,   hospital  could    not   had   conducted
+transplantation of pancreas - Hence, it had to be held that hospital did not
+had registration or permission for transplantation of pancreas - Merely
+because one of members did not sign proceedings sheet and that another
+member was allegedly not present, entire proceedings culminating in order
+passed by Appropriate Authority could not be regarded as nullity nor could it
+be declared as void - Impugned order was sustainable and required no
+interference - Appeal dismissed. [paras 47, 49 and 51]
+                                     </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t> 03.11.2015
+                                </t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>MANU/UP/1846/2015</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t> "A"
+                                      </t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t> State of U.P. and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>Criminal - Rape victim - Compensation - Sections 357 and 357A of Code of
+Criminal Procedure, 1973, Rule 7 of Protection of Children from Sexual
+Offences Rules, 2012, Protection of Children from Sexual Offences Act, 2012
+and Article 226 of Constitution of India - Present petition filed wherein
+Petitioner/minor rape victim had prayed for termination of her pregnancy -
+However, Petitioner had given birth to child - Whether prayer for grant
+compensation to Petitioner was acceptable in light of Section 357A of Code
+read with Victim Compensation Scheme, framed thereunder - Held, right of
+Victim to be compensated for sufferings of Offence is also recognized under
+Code - Section 357A(3) provides that if Trial Court is satisfied that
+compensation awarded under Section 357 is not adequate for such
+rehabilitation - Or where cases end in acquittal or discharge and victim has to
+be rehabilitated - It may make recommendation for compensation - Rule 7 of
+Rules framed under Act also provides for grant of compensation to victims on
+recommendation of Special Courts - Power to grant compensation to victim for
+violation of fundamental rights under Article 226 of Constitution is well
+recognized and independent of provisions of Sections 357 and 357A of Code -
+Statutory right of compensation available to Petitioner and she may avail of
+same - Petition disposed off. [32],[34],[42],[44] and[46]
+Criminal - Minor mother - Capacity to give - Adoption - Whether minor mother
+has capacity to give her child in adoption - Held, child may be given in
+adoption by father or mother, with consent of other, where taking of such
+consent is possible - Petitioner was natural guardian of her child - Newly born
+child is child in need of care and protection and falls within expression
+Surrendered or orphan child - Necessary directions for her rehabilitation
+including adoption were required to be issued to competent authority - Valid
+legal system is available to allow girl child to be given in adoption - Direction
+to Child Welfare Committee to take over cause of adoption of child born -
+Petition disposed off. [63],[66],[68],[71] and[84]
+Criminal - Property of Accused - Inheritance therein - Whether child has any
+newly born child would be governed by her Personal Law - For that purpose of
+she would be treated as illegitimate child of her biological father - If newly
+born child is given in adoption, she will not have any rights of inheritance in
+     08-08-2022 (Page 1 of 33) www.manupatra.com       OP Jindal Global Universityproperty of her biological father - Even if child is not taken in adoption by any
+one, no directions of Court would be required - She would inherit property of
+her biological father by operation of personal law by which she is governed -
+Any direction to inherit property of her father would be fraught with grave
+consequences in event father starts claiming some special reproach privileges
+over minor like rights of visitation or custody - Petition disposed off. [73]
+                                         </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t> 10.02.2010
+                      </t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>MANU/SC/0098/2010</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t> Kusum Sharma and Ors.
+                                      </t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t> Batra Hospital and Medical Research Centre and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>Consumer Protection Act, 1986 - Sections 2 (1) (g) and 21--Deficiency in
+service -- Medical negligence--Husband of appellant No. 1 died of "pyrogenic
+meningitis" in respondent hospital--Complaint for medical negligence --
+Principles stated--Appellants have failed to make out any case of medical
+negligence against respondents -- National Commission justified in dismissing
+complaint of appellants.
+While deciding whether the medical professional is guilty of medical
+negligence following well known principles must be kept in viewÂ :
+(I) Negligence is the breach of a duty exercised by omission to do something
+which a reasonable man, guided by those considerations which ordinarily
+regulate the conduct of human affairs, would do, or doing something which a
+prudent and reasonable man would not do.
+(II) Negligence is an essential ingredient of the offence. The negligence to be
+established by the prosecution must be culpable or gross and not the
+negligence merely based upon an error of judgment.
+(III) The medical professional is expected to bring a reasonable degree of
+skill and knowledge and must exercise a reasonable degree of care. Neither
+the very highest nor a very low degree of care and competence judged in the
+light of the particular circumstances of each case is what the law requires.
+(IV) A medical practitioner would be liable only where his conduct fell below
+that of the standards of a reasonably competent practitioner in his field.
+(V) In the realm of diagnosis and treatment there is scope for genuine
+     08-08-2022 (Page 1 of 21) www.manupatra.com        OP Jindal Global Universitydifference of opinion and one professional doctor is clearly not negligent
+merely because his conclusion differs from that of other professional doctor.
+(VI) The medical professional is often called upon to adopt a procedure which
+involves higher element of risk, but which he honestly believes as providing
+greater chances of success for the patient rather than a procedure involving
+lesser risk but higher chances of failure. Just because a professional looking
+to the gravity of illness has taken higher element of risk to redeem the
+patient out of his/her suffering which did not yield the desired result may not
+amount to negligence.
+(VII) Negligence cannot be attributed to a doctor so long as he performs his
+duties with reasonable skill and competence. Merely because the doctor
+chooses one course of action in preference to the other one available, he
+would not be liable if the course of action chosen by him was acceptable to
+the medical profession.
+(VIII) It would not be conducive to the efficiency of the medical profession if
+no Doctor could administer medicine without a halter round his neck.
+(IX) It is our bounden duty and obligation of the civil society to ensure that
+the medical professionals are not unnecessarily harassed or humiliated so
+that   they  can   perform   their   professional  duties   without   fear  and
+apprehension.
+(X) The medical practitioners at times also have to be saved from such a class
+of complainants who use criminal process as a tool for pressurizing the
+medical professionals / hospitals particularly private hospitals or clinics for
+extracting uncalled for compensation. Such malicious proceedings deserve to
+be discarded against the medical practitioners.
+(XI) The medical professionals are entitled to get protection so long as they
+perform their duties with reasonable skill and competence and in the interest
+of the patients. The interest and welfare of the patients have to be paramount
+for the medical professionals.
+As long as the doctors have performed their duties and exercised an ordinary
+degree of professional skill and competence, they cannot be held guilty of
+medical negligence. It is imperative that the doctors must be able to perform
+their professional duties with free mind.
+Ratio Decidendi:
+"Doctors performing their duties and exercise an ordinary degree of
+professional skill and competence cannot be held guilty of negligence."
+Case Category:
+THE CONSUMER PROTECTION ACT, 1986ECTION - APPEALS UNDER SECTION 23 OF
+                                   </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t> 01.10.2012
+                          </t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>MANU/DE/4865/2012</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t> Pawan Anand and Ors.
+                                           </t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t> Director General of Health Services and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>COULD NOT FIND CASE NOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t> 29.03.2016
+                   </t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>MANU/KE/0487/2016</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t> High Court Legal Aid Committee
+                                        </t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t> State of Kerala and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>Miscellaneous - Confinement of patients - Validity of practice - Present
+application filed against practise of confining in nude, mentally challenged
+with suicidal tendencies, in Mental Health Centres (MHCs) - Whether direction
+could be issued as prayed in present petition - Held, confinement in cells that
+too nude, would only result in inner torments assuming ominous form driving
+them to sure death at their own hands - As for violent patients being confined
+in nude, it was directed that clothes be provided of suitable material, which
+would make it impossible for patients to use it to snuff out their own life -
+Suggestions were made of providing sleeveless shirts and short knickers of
+rough cloth, double stitched, or of very light texture, so as to ensure that they
+were not torn and used as props to aid suicide - Directions Superintendents of
+MHCs in State should ensure that none of patients, even those showing acute
+suicidal tendencies, when placed in seclusion, should be so placed nude,
+unless very acute situation warrants same - Application disposed off. [19]
+and[20]
+                                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t> 22.04.2019
+                         </t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>MANU/TN/1403/2019</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t> Arunkumar and Ors.
+                                       </t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t> The Inspector General of Registration and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>Family - Gender - Validity of marriage - Present writ petition relates to
+validity of marriage solemnized between male and transwoman, both
+professing Hindu religion - Whether marriage solemnized between male and
+transwoman, both professing Hindu religion, is valid marriage - Held, person
+who is in third category entitled to remain beyond duality of male/female -
+Entitled to opt to identify oneself as male or female - Entirely choice of
+individual concerned - Fundamental rights of second petitioner infringed by
+denial to register subject marriage - Orders impugned in this writ petition
+stand quashed - Third respondent directed to register marriage solemnized
+between petitioners - Marriage solemnized between male and transwoman,
+both professing Hindu religion, is valid marriage - Petition allowed. [25]
+                                     </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t> 25.04.2003
+                          </t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>MANU/DE/1571/2003</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t> Shobha and Ors.
+                                       </t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t> Govt. of Nct of Delhi and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>Civil - Tubectomy Operation - Damages - Present writ petitions have been
+filed claiming damages for seer negligence on part of respondent as petitioner
+had undergone tubectomy operation and was assured that it was a successful
+operation and she will not bear any more children but in vain - Whether
+respondents were negligent in performing their job which led to birth of
+unwanted child? - Held, there was not any negligence on part of petitioner as
+there was no undue delay in approaching hospital authorities - Petitioner and
+her husband being poor and are not able to maintain so many children should
+not be a reason to deprive fifth child because of financial crunch of petitioner
+and her husband - Proper upbringing of this child and giving her adequate
+education would become responsibility of State in these circumstances as
+because of respondents negligence this child is born - Keeping in view
+economic    and   social  background     of  petitioner   and   other   relevant
+sum of certain amount which is worked out as respondent shall pay a sum of
+certain amount per year for maintenance of this child till she attains age of
+five years - On attaining age of five years, respondent shall admit her in a
+Government school - She would be provided free education- She would also
+be provided two sets each of summer and winter uniform every two years - In
+addition respondent shall pay a amount to meet her needs for food and proper
+upbringing - Writ petition is allowed in aforesaid terms
+                                   </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t> 24.11.2017
+                           </t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>MANU/KE/1894/2017</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t> Moideen E.M.
+                                      </t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t> State of Kerala and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>Transplantation of Human Organs and Tissues Act, 1994 (Central Act 42 of
+1994) - Donees seeking permission of the court to take out a paper
+publication seeking kidney from willing altruistic donors--Publication cannot
+be permitted as it may lead to financial arrangements between the donor and
+the donee.
+Petitioners are persons who are affected by renal complaints and need kidney
+transplantation. They seek permission of court to take out publication in print
+media seeking a Kidney from willing altruistic donors. High Court had granted
+permission to take out such publication on a case to case basis. Government
+contended that though the publication may not have an indication explicitly;
+it could lead to a payment arrangement, which is prohibited by law. It was
+also pointed out that once publication is permitted there is no safeguard in
+place to prohibit commercial dealings in human organs and tissues. On a
+detailed  examination    of  the   procedure   involved  for  making    kidney
+transplantation and after hearing all the stakeholders, the learned Single
+Judge held that publication cannot be permitted as it may lead to financial
+arrangements between the donor and the donee. Petitioners were directed to
+seeking organ donation from unrelated persons. Disposing of the writd of
+petitions;
+Held:
+This Court is of the opinion that any publication permitted could lead to
+negotiations and merely because        there   is no explicit   offer in   the
+advertisements, it cannot be inferred that there would not be any passing of
+     08-08-2022 (Page 1 of 8)  www.manupatra.com       OP Jindal Global Universityconsideration or an arrangement negotiated. Truly altruistic motives will also
+not be directed against an individual and life of one is as precious of yet
+another. [18]
+                                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t> 26.12.2017
+                          </t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>MANU/JK/0464/2017</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t> Shyam Kumar Gupta
+                                         </t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t> State and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t>COULD NOT FIND CASE NOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t> 19.09.2014
+                     </t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>MANU/MH/1743/2014</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t> Shivanand Vassudev Salgaocar
+                                           </t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t> Dattaraj Vassudev Salgaoncar
+</t>
+        </is>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>COULD NOT FIND CASE NOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>MANU/SCOR/23722/2017
+                         IN THE SUPREME COURT OF INDIA
+                           WRIT PETITION C NO.431 OF 2017
+                              Date of Order: 03.07.2017
+                   </t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>MANU/SCOR/23722/2017</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t> Sarmishtha Chakrabortty &amp; Anr. .
+                                          </t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t> Union Of India Secretary &amp; Ors. .
+                                        ORDER
+The petitioners, the husband and wife, have moved this petition under Article 32 of the
+Constitution with manifold prayers. In the course of hearing, Mr. Colin Gonsalves,
+learned senior counsel appearing for the petitioners, has restricted his argument to
+prayer (g) which pertains to issue of direction for constituting a medical board to assess
+the pregnancy of the 1 st petitioner and direct for termination of the pregnancy.
+When the matter was listed on 21.6.2017, the Court took note of the prayer for
+appointment of a panel of doctors at a Government hospital in Kolkata to examine the
+state of health of the mother and accordingly directed the matter to be listed on
+23.6.2017.
+When the matter was listed on 23.6.2017, this Court had passed the following order :-
+In pursuance of the previous order of this Court Å“dated 21.06.2017,learned standing
+counsel appearing on behalf of the State of West Bengal has placed on the record his
+instructions indicating that a team of senior Doctors may be constituted to evaluate the
+mental and physical health of the first petitioner and the state of health of the foetus. At
+this stage, the pregnancy is in its 25th week.
+ 2 The court has been apprised of the medical reports produced on record by the
+petitioners, including the opinion of Doctor Devi Shetty, which is annexed to the paper
+book. We accordingly constitute a Medical Board consisting of the following Doctors to
+examine the first petitioner and her foetus at the Institute of Post Graduate Medical
+Education &amp; Research (SSKM Hospital) situatedat 244 A.J.C. Bose Road, Kolkata -700
+Hospital Prof (Dr.) Suchandra I.P.G.M.E.R. (SSKMMukherjee Hospital) Prof (Dr.) Utpal
+I.P.G.M.E.R.   (SSKMD as Hospital) Prof (Dr.) Subhas I.P.G.M.E.R.        (SSKMChandra
+Biswas Hospital) Prof (Dr.) Acchyut I.P.G.M.E.R. (SSKMSarkar Hospital) Prof (Dr.)
+Sujitesh I.P.G.M.E.R. (SSKMSaha Hospital) Prof (Dr.) Santanu I.P.G.M.E.R. (SSKM
+Datta Hospital) We request the Medical Board to examine the first petitioner and to
+submit its evaluation report of the first petitioner and the foetus to this court on
+29.06.2017 in a sealed cover. A copy shall also be furnished to the Standing counsel for
+the State of West Bengal in sealed cover.
+List on 29th June, 2017.Â In pursuance of the aforesaid order, a Medical Board was
+constituted and a report was submitted before this Court on 29.6.2017. Thereafter, the
+matter was directd to be listed today.
+It is submitted by Mr. Colin Gonsalves, learned senior counsel appearing for the
+petitioners that the medical report clearly stipulates the condition of the 1st petitioner
+and if the report is appositely appreciated, the direction, as prayed for, deserves to be
+      08-08-2022 (Page 1 of 5)    www.manupatra.com           OP Jindal Global Universitygranted. We think it appropriate to reproduce the observations and opinion of various
+members of the Medical Board. The report of the Medical Board reads as under :-
+Å“Observation of Dr. Utpalendu Das, Professor &amp; H.O.D. of Radiology, IPGMER-SSKM
+Hospital, Kolkata- As per the available medical records including anomaly scan dated
+25/05/2017 at gestational age of 20 weeks 5 days reveals single life intrauterine fetus
+with normal fetal anatomy and grown except cardiac anomally with suggestion of
+Tetralogy of Fallot: Fetal Echocardiography done on 6th June, 2017 reveals - Tetralogy
+of Fallot Large perimembranous VSD with inlet extension(bidirectional flow) Aorta from
+LV overriding the VSDPulmonary atresia Duct/MAPCA dependent pulmonary circulation
+Good Veticular Function Opinion of Dr. Saroj Mondal, Asst. Professor ofthe Department
+of Cardiology, IPGMER-SSKMHospita, Kolkata regarding continuation of pregnancy of
+Mrs. Sarmistha Chakrabortty, who is carrying 20 weeks 5 days as on 25.05.2017 of
+pregnancy with normal fetal growth having fetal cardiac malformation detected by fetal
+echo cardiography on 6th June, 2017 in the form of Tetralogy of Fallot Large
+perimembranous VSD with inlet extension (bidirectional flow) Aorta from LV overriding
+the VSD Pulmonary atresia Duct/MAPCA dependent pulmonary circulation Good Veticular
+Function As the fetus has complex cardiac anomaly and if pregnancy continued mother
+will need delivery in a highly equipped centre with facility of neonatal cardiac
+intervention an d surgical facility and will need multiple staged cardiac surgical
+operation and each occasion, it will have high morbidity and mortality risk.
+This case, I already discussed with Dr. Acchyut Sarkar, Associate Professor of the
+Department of Cardiology, IPGMER-SSKM Hospital, Kolkata who isappointed as Pediatic
+Cardiologist of this Medical Board.
+Impression of Dr. Santanu Dutta, Associate Professor of the Department of C.T.V.S.,
+IPGMER-SS KM Hospital, Kolkata " As per the medicalreports available, the fetal
+echocardiography shows Fetal complex congenital cyanotic heart disease.
+Impression: Pulmonary Artesia with Hypoplastic PAS, large VSD and collaterals arising
+from aorta.
+It is evident from the report tha the neonate needs complex cardiac corrective surgery
+surgeries.tage after birth. But there is high mortality at every step of this type of staged
+Opinion of Dr. Sujitesh Saha, Associate Professor of the Department of Paed. Surgery,
+IPGMER-SSKM Hospital, KolkataAs per the medical reports and fetal echo cardiogram
+done on 6th June, 2017, the fetus is having tetralogy of Fallot, Pulmonary atresia and
+large VSD, Multiple Collaterals arising from aorta to support the pulmonary circulation.
+As per records, there is no other fetal congenital malformation detected.
+On examination fetal growth parameters are normal. After birth multiple staged cardiac
+corrective surgery will be required which will be associated with high mortality and
+morbidity at every stage.
+Opinion of Dr. Suchandra Mukherjee, Professor &amp; HOD of Neonatology, IPGMER-SSKM
+Hospital, Kolkata Pet the fetal echo-cardigraphy report dated 6th June, 2017, the fetus s
+having tetralogy of Fallot. Pulmonary atresia and large VSD, Multiple Collaterals arising
+from aorta to support the pulmonary circulation. No ther fetal congenital malformation
+2017 and fetal growth parameter was found to be normal. of gestation on 25 th May
+In view of the cardiac malformation, the baby, after birth will require intensive cardiac
+      08-08-2022 (Page 2 of 5)     www.manupatra.com          OP Jindal Global Universitymonitoring and staged management through the surgical procedures which will have
+high risk of morbidity and mortality depending upon the postnatal course.
+Finally in pursuance of the Notice of the Director, IPGMER, Kolkata vide Memo N.
+Inst./5445 dated 23rd June, 2017, a medical board has been convened at 10.00 am on
+27th June, 2017 in the Office Chamber of Dr. S.C. Biswas, Professor of the Department
+of Gynae &amp; Obst, IPGMER-SSKM Hospital, in presence of all members of the constituted
+Medical Board by the Hon'ble Supreme Court, India. However, Associate Professor Dr.
+Acchyut Sarkar, Department of Cardiology was absent. He deputed Dr. Saroj Mondal,
+Kolkata The patient, 1st Petitioner of the case Mrs.iologist, IPGMER-SSKM Hospital,
+Sarmisth Chakrabortty, 33 years old, w/o Mr.
+Anirban Chakrabortty was examined by the Board Members and all the members
+expressed their views. Two Gynaecologists, (1) Professor Subhash Chandra Biswas &amp;
+(2) Professor Arati Biswas, on good faith examined the patient physically and observed
+the following findings: Her L.M.P.-27.12.2016 E.D.D.-4.10.2017 &amp; she is G2Po+1+0+0
+Previous pregnancy- she had sudden bleeding P/V &amp; pain abdomen at approximately
+seven and half months and delivered in Appolo Hospital, Kolkata, a still born baby
+vaginally (as per previous records) in 2015.
+On examination- She is conscious and co-operative with profound mental agony.
+Her Vitals-stable Per abdominal examination reveals
+1. Fundal height of gravid uterus- 24 weeks+ (approx 26 weeks) (Corresponding to
+period of amennaorhoea)
+2. Liqour-adequate (as per period of gestation)
+3. Fetal parts-Palpable
+4. F.H.S.+ &amp; Regular Patient, herself spontaneously expressed her wish not to continue
+this pregnancy in view of the detected fetal cardiac anomalies so far. On reviewing of
+the available records of the patient i.e. U.S.G., Fetal Echo-Cardiography including the
+prescription of the attending Obstetrician in Apollo Hospital, Kolkata, the other members
+of the Board (Radiologist, Cardiologist, Neonatologist, Pediatric Surgeon and Cardiac
+Surgeon) have opined that Å“the fetus has been 7 detected to have cardiac
+malformation in the form of Tetralogy of Fallot, Large perimembranous VSD with inlet
+extension (bidirectional flow), Aorta from LV overriding the VSD, Pulmonary Atresia,
+Duct / MAPCA dependent pulmonary circulation andGood Ventricular function. The
+child, if born alive, need complex cardiac corrective surgery stage by stage after birth.
+But there is high mortality and borbidity at every step of this staged surgeriesÂ. The
+cardiac anomaly has been confirmed by serial investigations.
+In view of the above facts and opinion, we, the two Gynaecologists, in good faith like to
+opine that the patient is at the threat of severe mentl injury, if the pregnancy is
+continued.
+Therefore, if the patient wants termination of this pregnancy, she may be allowed with
+prior informed consent of inherent risk of her health for procedural inventions, because
+there is additional risk of termination of the pregnancy once it is beyond 20 weeks as
+the present case is. However, this is a special case and conclusion has been drawn on
+      08-08-2022 (Page 3 of 5)     www.manupatra.com          OP Jindal Global Universityits individual merits.Â On a perusal of the aforesaid report, it is clear as crystal that the
+Medical Board is of the view that it is a case for termination of pregnancy, as a special
+case. As the last paragraph would show, the Board has mentioned that the patient is at
+the threat of severe mental injury, if the pregnancy is continued. It has also opined that
+the child, if born alive, needs complex cardiac corrective surgery stage by stage after
+birth. But there is high mortality and borbidity at every step of this staged surgeries.
+Mr. Gonsalves, learned senior counsel has drawn our attention to two orders, one
+passed in Meera Santosh Pal &amp; Ors. vs. Union ofIndia &amp; Ors. [WP (C) No. 17 of 2017
+decided on 16.1.2017], wherein this Court, after considering the report of the Medical
+Board, has held thus :- Å“Upon evaluation of petitioner no.1, the aforesaid Medical
+Board has concluded that her current pregnancy is of about 24 weeks. The condition of
+the fetus is not compatible with extra-uterine life. In other words, the fetus would not
+be able to survive outside the uterus.
+Importantly, it is reported that the continuation of pregnancy can gravely endanger the
+physical and mental health of petitioner no.1 and the risk of her termination of
+pregnancy is within acceptable limits with institutional back up.Â Learned senior
+counsel has also drawn our attention to another order passed in Mrs. X &amp; Ors. vs. Union
+of India &amp; Ors. [WP (C)No.81 of 2017 decided on 7.3.2017] wherein this Court had
+allowed the termination of pregnancy. The Court had taken the Medical report into
+consideration which was to the following effect : Å“There is thus a clear diagnosis of
+the condition of the single live fetus which is said to have bialateral renal agenesis
+wheich means the fetus has no kidneys and anhydramnios which means that there is an
+absence of amniotic fluid in the womb. Further, there is a clear observation that there is
+a risk of intrauterine fetal death, i.e. death within womb and there is no chance of a
+long term post natal survival.
+What is important is that there is no curative treatment available at present for bilateral
+renal agenesis.
+The Medical Board has opined that thecondition of the fetus is incompatible with extra-
+uterine life, i.e. outside the womb because prolonged absence of amniotic fluid results
+in pulmonary hypoplasia leading to severe 4 respiratory insufficiency at birth.
+From the point of view of the petitioner the report has observed risk to the mother since
+continuation of pregnancy can endanger her physical and mental health.
+Mr. A.K. Panda, learned senior counsel appearing for the Union of India has drawn our
+attention to two other orders, one passed in Savita Sachin Patil &amp; Ors. vs. Union of
+India and Ors. [WP (C)No.121 of 2017 decided on 28.02.2017] and another in Sheetal
+Shankar Salvi &amp; Anr. vs. Union of India &amp; Ors. [W.P. No.174 of 2017 decided on
+27.3.2017]. In the case of Savita Sachin Patil, theCourt declined to grant permission by
+holding, thus : Å“As regards the prognosis, the said medical report clearly does not and
+possibly cannot, observe that this particular fetus will have severe mental and physical
+challenges. It states that the Å“baby is likely to have mental and physical challenges.Â
+In the earlier part of the said medical report, there is no observation made by the
+aforestated Medical Board that every baby with Down Syndromehas low intelligence,
+but it was observed that Å“intelligence among people with Down Syndrome is variable
+and a large proportion may have an intelligence Quotient of less than 50 (severe mental
+retardation)Â.
+In any case, it is not possible to discern the danger to the life of petitioner no.1 in case
+she is not allowed to terminate her pregnancy.
+      08-08-2022 (Page 4 of 5)     www.manupatra.com           OP Jindal Global UniversityIn the facts and circumstances of the case, it is not possible for us to grant permission
+to petitioner no.1 to terminate the life of the fetus.
+In view of the above, as it presently advised, we decline the prayer (a) of the
+petitioners for directing the respondents to allow Petitioner No.1 to undergo medical
+termination of the pregnancy.Â In Sheetal Shankar Salvi, after perusing the report, the
+Court observed that there is no danger to mother's life and the liklihood that the baby
+may be born alive and survive for variable period of time, and, therefore, it would not
+be appropriate to allow the petitioner No.1 to undergo medical termination of her
+pregnancy.
+The orders which have been referred to by Mr. Panda, in our considered opinion, rest on
+their own facts. Frankly speaking, cases of this nature have to rest on their own facts
+because it shall depend upon the nature of the report of the Medical Board and also the
+requisite consent as engrafted under the Medical Termination of Pregnancy Act, 1971.
+In the instant case, as the report of the Medical Board, whichwe have produced, in
+entirety, clearly reveals that the mother shall suffer mental injury if the pregnancy is
+continued and there will be multiple problems if the child is born alive. That apart, the
+Medical Board has categorically arrived at a conclusion thatthe in a special case of this
+nature, the pregnancy should be allowed to be terminated after 20 weeks.
+In the case of Suchita Srivastava &amp; Anr. vs. Chandigarh Administration [(2009) 9 SCC
+1), the Court has expressed the view that the right of a woman to have reproductive
+choice is an insegregable part of her personal liberty, as envisaged under Article 21 of
+the Constitution. She has a sacrosanct right to have her bodily integrity. The case at
+hand, as we find, unless the pregnancy is allowed to be terminated, the life of the
+mother as well as that of the baby to be born will be in great danger. Such a situation
+cannot be countenanced in Court.
+Regard being had to the aforesaid and keeping in view the report of the Medical Board,
+we are inclined to allow the prayer and direct medical termination of pregnancy of the
+1st petitioner at the IPGMER-SSKM Hospital.The termination procedure to be carried
+out forthwith by the competent authorities of the IPGMER-SSKM Kolkata. For the sake of
+clarity, we may hasten to add that Mr. Gonsalves, upon obtaining instructions, has
+agreed for the said hospital. When we say, 'carried out forthwith' it depends when the
+1st petitioner and her husband go to the hospital, it shall be conducted without any
+delay.
+Accordingly, the Writ Petition is disposed of.
+                      © Manupatra Information Solutions Pvt. Ltd.
+      08-08-2022 (Page 5 of 5)     www.manupatra.com           OP Jindal Global University</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>COULD NOT FIND CASE NOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t> 10.11.2021
+                                </t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>MANU/KE/3520/2021</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t> John Jose
+                                         </t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t> Union of India and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>COULD NOT FIND CASE NOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t> 30.05.2016
+                    </t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>MANU/PH/0915/2016</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t> R (name withheld) and Ors.
+                                       </t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t> State of Haryana and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>Civil - Termination of pregnancy - Medical Termination Of Pregnancy Act,
+1971 - Writ Petition filed for direction to Respondent No. 7 to terminate
+pregnancy of child in womb of Petitioner No. 1/ minor girl who was an alleged
+victim of rape - Whether prayer for termination of pregnancy of child in womb
+of minor girl could be allow - Held, Article 6(1) of International Covenant on
+Civil and Political Rights prohibits arbitrary deprivation of life - Right of
+mother was to be balanced with right of unborn - Alleged pregnancy was
+result of a crime of rape - Minor and her legal guardian have expressed in an
+unequivocal desire to get pregnancy terminated - In medical report it was
+mentioned that there was a possibility of harm to patient due to social and
+emotional consequences of continuation of pregnancy - Medical Board
+determined bone age of Petitioner No. 1 to be 18 to 20 years - On anvil of
+settled position of law, best interests parameters and social circumstances
+that may be faced by rape victim, doctors should be guided by interest of
+victim alone - Court had given liberty to doctors to go ahead with termination
+of pregnancy if it was not harmful to victim - Considering opinion of Medical
+Board, Court could not pass order to terminate pregnancy of Petitioner No. 1 -
+Director of AIIMS was directed to constitute medical board to explore
+possibility of termination of pregnancy - Prayer of Petitioners for termination
+of pregnancy of Petitioner No. 1 was not granted - Directions issued in
+interest of victim as regards care and attention to be given to her during her
+pregnancy and other procedure, carried out by medical expert - Writ Petition
+disposed of.[33.4][36][3][41][43][45]
+                                   </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t> 01.10.2015
+                      </t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>MANU/TN/4364/2015</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t> New India Assurance Co. Ltd.
+                                          </t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t> Shakuntha and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>COULD NOT FIND CASE NOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 1 of 21)                    MANU/DE/1262/2004                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 2 of 21)                    MANU/DE/1262/2004                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 3 of 21)                    MANU/DE/1262/2004                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 4 of 21)                    MANU/DE/1262/2004                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 5 of 21)                    MANU/DE/1262/2004                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 6 of 21)                    MANU/DE/1262/2004                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 7 of 21)                    MANU/DE/1262/2004                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 8 of 21)                    MANU/DE/1262/2004                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 9 of 21)                    MANU/DE/1262/2004                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 10 of 21)                    MANU/DE/1262/2004                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 11 of 21)                    MANU/DE/1262/2004                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 12 of 21)                    MANU/DE/1262/2004                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 13 of 21)                    MANU/DE/1262/2004                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 14 of 21)                    MANU/DE/1262/2004                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 15 of 21)                    MANU/DE/1262/2004                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 16 of 21)                    MANU/DE/1262/2004                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 17 of 21)                    MANU/DE/1262/2004                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 18 of 21)                    MANU/DE/1262/2004                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 19 of 21)                    MANU/DE/1262/2004                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 20 of 21)                    MANU/DE/1262/2004                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 21 of 21)                    MANU/DE/1262/2004                          OP Jindal Global University</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>2022-08-08</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 1 of 21)                    MANU/DE/1262/2004                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 2 of 21)                    MANU/DE/1262/2004                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 3 of 21)                    MANU/DE/1262/2004                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 4 of 21)                    MANU/DE/1262/2004                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 5 of 21)                    MANU/DE/1262/2004                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 6 of 21)                    MANU/DE/1262/2004                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 7 of 21)                    MANU/DE/1262/2004                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 8 of 21)                    MANU/DE/1262/2004                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 9 of 21)                    MANU/DE/1262/2004                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 10 of 21)                    MANU/DE/1262/2004                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 11 of 21)                    MANU/DE/1262/2004                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 12 of 21)                    MANU/DE/1262/2004                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 13 of 21)                    MANU/DE/1262/2004                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 14 of 21)                    MANU/DE/1262/2004                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 15 of 21)                    MANU/DE/1262/2004                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 16 of 21)                    MANU/DE/1262/2004                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 17 of 21)                    MANU/DE/1262/2004                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 18 of 21)                    MANU/DE/1262/2004                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 19 of 21)                    MANU/DE/1262/2004                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 20 of 21)                    MANU/DE/1262/2004                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 21 of 21)                    MANU/DE/1262/2004                          OP Jindal Global University</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 1 of 21)                    MANU/DE/1262/2004                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 2 of 21)                    MANU/DE/1262/2004                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 3 of 21)                    MANU/DE/1262/2004                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 4 of 21)                    MANU/DE/1262/2004                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 5 of 21)                    MANU/DE/1262/2004                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 6 of 21)                    MANU/DE/1262/2004                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 7 of 21)                    MANU/DE/1262/2004                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 8 of 21)                    MANU/DE/1262/2004                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 9 of 21)                    MANU/DE/1262/2004                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 10 of 21)                    MANU/DE/1262/2004                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 11 of 21)                    MANU/DE/1262/2004                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 12 of 21)                    MANU/DE/1262/2004                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 13 of 21)                    MANU/DE/1262/2004                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 14 of 21)                    MANU/DE/1262/2004                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 15 of 21)                    MANU/DE/1262/2004                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 16 of 21)                    MANU/DE/1262/2004                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 17 of 21)                    MANU/DE/1262/2004                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 18 of 21)                    MANU/DE/1262/2004                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 19 of 21)                    MANU/DE/1262/2004                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 20 of 21)                    MANU/DE/1262/2004                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 21 of 21)                    MANU/DE/1262/2004                          OP Jindal Global University</t>
+        </is>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t>COULD NOT FIND CASE NOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t> 07.05.2020
+                           </t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>MANU/GJ/0772/2020</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t> Shahida Khatoon
+                                        </t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t> State of Gujarat
+</t>
+        </is>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>Civil - Termination of pregnancy - Writ Petition filed for direction permitting
+Petitioner to get her pregnancy terminated - Whether Petitioner made out
+case for grant of permission to get her pregnancy terminated - Held, victim
+aged about 14 years was residing with her sister and she was legal guardian
+and complainant - There was consent of caretaker of victim - Caretaker of
+victim has given consent for termination of pregnancy of victim - Considering
+consent of caretaker and age of victim of rape case pregnancy of victim was
+ordered to be terminated with due care - Petition allowed. [6], [8], [12]
+                                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t> 03.07.2017
+                   </t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>MANU/SC/0813/2017</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t> Sarmishtha Chakrabortty and Ors.
+                                           </t>
+        </is>
+      </c>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t> Union of India (UOI) Secretary and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F24" s="0" t="inlineStr">
+        <is>
+          <t>COULD NOT FIND CASE NOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t> 14.05.2009
+                 </t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>MANU/SC/0803/2009</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>Nizam Institute of Medical Sciences
+                                       </t>
+        </is>
+      </c>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t>Prasanth S. Dhananka and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t>(1) Consumer Protection Act, 1986 - Sections 2 (1) (g), 21 and 23--Deficiency
+in service--Medical negligence -- Attending doctors seriously remiss in
+conducting operation on complainant on account of this negligence paraplegia
+had set in complainant.
+(2) Consumer Protection Act, 1986 - Sections 2 (1) (g), 21 and 23--Deficiency
+in service--Medical negligence--On account of serious remiss and negligence
+in conducting operation on complainant--Complainant had to suffer paraplegia
+--Complainant is highly qualified--And employed as I.T. Engineer--Considering
+all facts and circumstances amount of Rs. one crore with 6% interest awarded
+to complainant--Appeal of N.I.M.S. dismissed--Appeal of complainant allowed
+with costs of Rs. 50,000.
+Ratio Decidendi:
+"Consent given by the Complainant for the excision biopsy cannot, by
+inference, be taken as an implied consent for a surgery save in exceptional
+cases."
+"In a case involving medical negligence, once the initial burden has been
+discharged by the Complainant by making out a case of negligence on the part
+of the hospital or the doctor concerned, the onus then shifts on to the
+hospital or to the attending doctors."
+Case Category:
+MATTERS RELATING TO CONSUMER PROTECTION - APPEALS UNDER SECTION 23 OF
+THE CONSUMER PROTECTION ACT, 1986
+                                   </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t> 21.12.2021
+                         </t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>MANU/KA/5803/2021</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t> C.M. Ravi
+                                       </t>
+        </is>
+      </c>
+      <c r="E26" s="0" t="inlineStr">
+        <is>
+          <t> XYZ
+</t>
+        </is>
+      </c>
+      <c r="F26" s="0" t="inlineStr">
+        <is>
+          <t>Criminal - Quashing of proceedings - Section 37 of Human Immuno Deficiency
+Virus and Acquired Immune Deficiency Syndrome (Prevention and Control)
+Act, 2017 - Petitions filed for quashingof criminal proceedings initiating under
+Section 37 of Act - Whether prosecution against Petitioners was abuse of
+processes of law - Held,it was not necessary that a sanction to prosecute
+Petitioners should have been obtained by Respondent to prosecute them -
+Primafacie materials were available against Petitioners - It was not a fit case
+for quashing of criminal proceedings - Petitions dismissed. [27],[29]
+                                     </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t> 30.09.2015
+                               </t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>MANU/TN/3153/2015</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t> P. Arumugam
+                                          </t>
+        </is>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t> The State of Tamil Nadu and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F27" s="0" t="inlineStr">
+        <is>
+          <t>COULD NOT FIND CASE NOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t> 07.08.2009
+                       </t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>MANU/SC/1416/2009</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t> Malay Kumar Ganguly
+                                      </t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t> Sukumar Mukherjee and Ors.
+                     [Alongwith civil Appeal No. 1727 of 2007]
+</t>
+        </is>
+      </c>
+      <c r="F28" s="0" t="inlineStr">
+        <is>
+          <t>Civil - Deficiency in Medical Service - Section 2 of Consumer Protection Act,
+1986 - Complaint against deficiency in medical service - Dr. Mukherjee
+instead of referring patient to a dermatologist, prescribed non permissible
+dose of "Depomedrol". - The effect of immunosuppression caused due to the
+use of steroids has affected the immunity of the patient and Dr. Mukherjee
+has failed to take note of the said consequences - After taking over the
+treatment of the patient and detecting TEN, Dr. Halder ought to have
+necessarily verified the previous prescription that has been given to the
+patient - Dr. Halder did not take any remedial measures against the excessive
+amount     of   'depomedrol' and   by   prescribing  a  quick   acting  steroid
+'Prednisolone' at 40mg, which is an excessive dose, that was added more fuel
+to the fire - 'Vital-signs' of a patient such as temperature, pulse, intake-
+output and blood pressure were not monitored and failure to ensure that
+these factors are monitored regularly is an act of negligence - Dr. Abani Roy
+Chowdhury failed to provide any supportive therapy or advise for providing IV
+fluids or other supplements that is a necessity for the patient who was
+critically ill - Respondents liable for medical negligence.
+Interpretation - Criminal Negligence - The jurisprudential concept of
+negligence differs in civil and criminal law - For negligence to amount to an
+offence the element of mens rea must be shown to exist - To prosecute a
+medical professional for negligence under criminal law it must be shown that
+the accused did something or failed to do something which in the given facts
+and circumstances no medical professional in his ordinary senses and
+prudence would have done or failed to do.
+Ratio Decidendi:
+     08-08-2022 (Page 1 of 54) www.manupatra.com        OP Jindal Global UniversityFor criminal prosecution of a medical professional for negligence, it must be
+shown that the accused did something or failed to do something which in the
+given facts and circumstances no medical professional in his ordinary senses
+and prudence would have done or failed to do.
+                                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t> 02.05.2022
+                           </t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>MANU/SC/0566/2022</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t> Jacob Puliyel
+                                     </t>
+        </is>
+      </c>
+      <c r="E29" s="0" t="inlineStr">
+        <is>
+          <t> Union of India (UOI) and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F29" s="0" t="inlineStr">
+        <is>
+          <t>Civil - Vaccination - Trial data - Release - Article 21 of the Constitution of
+India, 1950 - The Petitioner has filed present Writ Petition in public interest
+seeking to direct the Respondents to release the entire segregated trial data
+for each of the phases of trials that have been undertaken with respect to the
+vaccines being administered in India; and direct the Respondent No. 2 to
+disclose the detailed minutes of the meetings of the Subject Expert
+Committee and the NTGAI with regard to the vaccines as directed by the 59th
+Parliamentary Standing Committee Report and the members who constituted
+the committee for the purpose of each approval meeting - Whether Union of
+India is directed to ensure that key findings and results of the relevant
+phases of clinical trials of vaccines already approved by the regulatory
+authorities for administration to children, be made public?
+Facts:
+In the Writ Petition, the Petitioner highlighted the adverse consequences of
+emergency approval of vaccines in India, the need for transparency in
+publishing segregated clinical trial data of vaccines, the need for disclosure of
+clinical data, lack of transparency in regulatory approvals, minutes and
+constitution of the expert bodies, imperfect evaluation of Adverse Events
+Following Immunisation (AEFIs) and vaccine mandates in the absence of
+informed consent being unconstitutional. The Petitioner further stated in the
+Writ Petition that coercive vaccination would result in interfering with the
+principle of informed self-determination of individuals, protected by Article 21
+of the Constitution of India. The Petitioner was a member of the National
+Technical Advisory Group on Immunization (NTAGI) and was advising the
+Government of India on vaccines. He has filed this Writ Petition in public
+interest seeking to direct the Respondents to release the entire segregated
+trial data for each of the phases of trials that have been undertaken with
+respect to the vaccines being administered in India; and direct the
+Respondent No. 2 to disclose the detailed minutes of the meetings of the
+directed by the 59th Parliamentary Standing Committee Report and thes
+members who constituted the committee for the purpose of each approval
+meeting; and direct the Respondent No. 2 to disclose the reasoned decision of
+     08-08-2022 (Page 1 of 42) www.manupatra.com       OP Jindal Global Universitythe DCGI granting approval or rejecting an application for emergency use
+authorization of vaccines and the documents and reports submitted to the
+DCGI in support of such application; and direct the Respondents to disclose
+the post vaccination data regarding adverse events, vaccines who got infected
+with Covid, those who needed hospitalization and those who died after such
+infection post vaccination and direct the Respondents to widely publicize the
+data collection of such adverse event through the advertisement of toll free
+telephone numbers where such complaints can be registered; and declare that
+vaccine mandates, in any manner whatsoever, even by way of making it a
+precondition for accessing any benefits or services, is a violation of rights of
+citizens and unconstitutional
+Held, while disposing of the petition
+1. In light of the virulent mutations of the COVID-19 virus and advice of
+experts from the WHO as well as common findings of several studies on this
+subject, the vaccination drive that is being undertaken by the Government of
+India in the interest of public health cannot be faulted with.[40]
+2. With regard to judicial review of policy decisions based on expert opinion is
+concerned, there is no doubt that wide latitude is provided to the executive in
+such matters and the Court does not have the expertise to appreciate and
+decide on merits of scientific issues on the basis of divergent medical opinion.
+question can be held to be beyond the pale of unreasonableness and manifestn
+arbitrariness and to be in furtherance of the right to life of all persons,
+bearing in mind the material on record. With respect to the infringement of
+bodily integrity and personal autonomy of an individual considered in the light
+of vaccines and other public health measures introduced to deal with the
+COVID-19 pandemic, we are of the opinion that bodily integrity is protected
+under Article 21 of the Constitution and no individual can be forced to be
+vaccinated. Further, personal autonomy of an individual, which is a
+recognised facet of the protections guaranteed under Article 21, encompasses
+the right to refuse to undergo any medical treatment in the sphere of
+individual health. However, in the interest of protection of communitarian
+health, the Government is entitled to regulate issues of public health concern
+by imposing certain limitations on individual rights, which are open to
+scrutiny by constitutional courts to assess whether such invasion into an
+individual's right to personal autonomy and right to access means of
+livelihood meets the threefold requirement as laid down in Justice K.S.
+Puttaswamy and Ors. v. Union of India (UOI) and Ors., i.e., (i) legality, which
+presupposes the existence of law; (ii) need, defined in terms of a legitimate
+State aim; and (iii) proportionality, which ensures a rational nexus between
+the objects and the means adopted to achieve them. On the basis of
+substantial material filed before this Court reflecting the near-unanimous
+views of experts on the benefits of vaccination in addressing severe disease
+from the infection, reduction in oxygen requirement, hospital and ICU
+admissions, mortality and stopping new variants from emerging, this Court is
+satisfied that the current vaccination policy of the Union of India is informed
+by relevant considerations and cannot be said to be unreasonable or
+manifestly arbitrary. Information relating to adverse effects following
+immunisation is crucial for creating awareness around vaccines and their
+     08-08-2022 (Page 2 of 42) www.manupatra.com       OP Jindal Global Universityefficacy, apart from being instrumental in further scientific studies around the
+pandemic. Recognising the imperative need for collection of requisite data of
+adverse events and wider participation in terms of reporting, the Union of
+India is directed to facilitate reporting of suspected adverse events by
+individuals and private doctors on an accessible virtual platform. These
+reports shall be made publicly accessible, without compromising on protecting
+the confidentiality of the persons reporting, with all necessary steps to create
+awareness of the existence of such a platform and of the information required
+to navigate the platform to be undertaken by the Union of India at the
+earliest. On paediatric vaccination, the decision taken by the Union of India to
+vaccinate children in this country is in tune with global scientific consensus
+and expert bodies like the WHO, the UNICEF and the CDC and it is beyond the
+scope of review for this Court to second-guess expert opinion, on the basis of
+which the Government has drawn up its policy. Keeping in line with the WHO
+Statement on Clinical Trials and the extant statutory regime, the Union of
+India is directed to ensure that key findings and results of the relevant
+phases of clinical trials of vaccines already approved by the regulatory
+authorities for administration to children, be made public at the earliest. [89]
+3. Writ Petition disposed of. [91]
+                                    </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t> 17.09.2013
+                        </t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>MANU/KA/1777/2013</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t> Fortis Hospital Limited
+                                       </t>
+        </is>
+      </c>
+      <c r="E30" s="0" t="inlineStr">
+        <is>
+          <t> State of Karnataka and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F30" s="0" t="inlineStr">
+        <is>
+          <t>Law of Medicine - Transplantation - Appellant registration certificate for
+transplantation of kidney, liver and homograft was cancelled - Single judge
+set aside order of cancellation and remanded back matter to appropriate
+authority with direction that Appellant should not perform any transplant
+until adjudication - Hence, present appeal - Whether, Appellant entitled to
+carry pancreas organ transplantation - Held, effect of setting aside order of
+cancellation was that certificate of registration would be in force - Appellant
+had legal right and such legal right could not be taken away by manner
+known to law - Single judge without any reason, proceeded to hold that
+Appellant should not perform any transplantation until authority decided
+matter afresh - Giving reason is essential attribute of judicial disposal of
+matter before court - Setting aside of impugned order by itself did not gave
+right   to  Appellant    to  carry   out   human     organs    transplantation   -
+Transplantation had to be done in terms of certificate issued - Appellant not
+entitled to carry on pancreas organ transplantation as no such express
+permission was granted under certificate - Appeal partly allowed.
+                                   </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 1 of 22)                    MANU/DE/0450/2003                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 2 of 22)                    MANU/DE/0450/2003                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 3 of 22)                    MANU/DE/0450/2003                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 4 of 22)                    MANU/DE/0450/2003                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 5 of 22)                    MANU/DE/0450/2003                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 6 of 22)                    MANU/DE/0450/2003                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 7 of 22)                    MANU/DE/0450/2003                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 8 of 22)                    MANU/DE/0450/2003                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 9 of 22)                    MANU/DE/0450/2003                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 10 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 11 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 12 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 13 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 14 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 15 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 16 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 17 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 18 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 19 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 20 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 21 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 22 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>2022-08-08</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 1 of 22)                    MANU/DE/0450/2003                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 2 of 22)                    MANU/DE/0450/2003                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 3 of 22)                    MANU/DE/0450/2003                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 4 of 22)                    MANU/DE/0450/2003                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 5 of 22)                    MANU/DE/0450/2003                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 6 of 22)                    MANU/DE/0450/2003                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 7 of 22)                    MANU/DE/0450/2003                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 8 of 22)                    MANU/DE/0450/2003                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 9 of 22)                    MANU/DE/0450/2003                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 10 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 11 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 12 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 13 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 14 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 15 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 16 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 17 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 18 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 19 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 20 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 21 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 22 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University</t>
+        </is>
+      </c>
+      <c r="E31" s="0" t="inlineStr">
+        <is>
+          <t>                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 1 of 22)                    MANU/DE/0450/2003                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 2 of 22)                    MANU/DE/0450/2003                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 3 of 22)                    MANU/DE/0450/2003                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 4 of 22)                    MANU/DE/0450/2003                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 5 of 22)                    MANU/DE/0450/2003                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 6 of 22)                    MANU/DE/0450/2003                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 7 of 22)                    MANU/DE/0450/2003                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 8 of 22)                    MANU/DE/0450/2003                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 9 of 22)                    MANU/DE/0450/2003                           OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 10 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 11 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 12 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 13 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 14 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 15 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 16 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 17 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 18 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 19 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 20 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 21 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University                                                                                   Source : Indian Law Reports Delhi
+2022-08-08 (Page 22 of 22)                    MANU/DE/0450/2003                          OP Jindal Global University</t>
+        </is>
+      </c>
+      <c r="F31" s="0" t="inlineStr">
+        <is>
+          <t>COULD NOT FIND CASE NOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t> 06.04.2018
+                       </t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>MANU/DE/1324/2018</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t> Huma Qamar and Ors.
+                                      </t>
+        </is>
+      </c>
+      <c r="E32" s="0" t="inlineStr">
+        <is>
+          <t> Authorization Committee, Sir Ganga Ram Hospital and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F32" s="0" t="inlineStr">
+        <is>
+          <t>Transplantation of Human Organs and Tissues Act, 1994
+Section 3, 9(3) - Transplantation of Human Organs and Tissue Rules, 2014--
+Rule 31(4)(d)--Constitution of Authorization Committee--Notification issued
+by the Central Government--Authorities have failed to apply their minds to
+relevant factors with regard to organ transplantation--Offer of petitioner no. 2
+to donate her kidney to petitioner no. 1 was not propelled by love and
+affection--Appellate Authority had taken into account irrelevant factors--
+Reference was made that the petitioners belonged to different communities--
+Declining the request for transplantation of organ could mean denying a
+lifeline to a patient--Court overturned the orders, on the ground that they had
+declined the request for organ transplantation on a mere suspicion that
+money had changed hands--Report submitted by the SSP or the DM--
+Authorization Committee and the Appellate Authority were to simply rely on
+the report of the SSP or DM--They would be failing in their duty to discharge
+the obligation placed upon them by the statute--Such an interpretation would
+be in the teeth of provisions. [16] and [18]
+Transplantation of Human Organs and Tissue Rules, 2014
+Rule 22 - Organ transplant--Independent consent--Physical and mental
+evaluation--Scope of--Physical evaluation of the petitioner no. 2 was carried
+the treating doctor--There is no documentation--Evaluation done on ther of
+direction of the Court revealed that the petitioner no. 1 case falls in "medium
+risk" category There are several loose ends which needed to be tied up by the
+Appellate Authority to come to a definitive conclusion--Probability of rejection
+of the organ by petitioner no. 1's body would have to be balanced against long
+and medium term physiological changes that would be brought about post-
+surgery in petitioner no. 2's body--Appellate Authority would have to look into
+these aspects--Order of the Appellate Authority is set aside--Appeal is
+remanded to the Appellate Authority for a re-examination, [20.1] and [21]
+     08-08-2022 (Page 1 of 10) www.manupatra.com       OP Jindal Global University                                       </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t> 26.09.2019
+                    </t>
+        </is>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>MANU/KE/5968/2019</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t> Maniyamma Vasudevan Nair
+                                       </t>
+        </is>
+      </c>
+      <c r="E33" s="0" t="inlineStr">
+        <is>
+          <t> Pushpagiri Hospital and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F33" s="0" t="inlineStr">
+        <is>
+          <t>Torts - Damages for medical negligence--Negligence is failure to exercise
+reasonable care and attention expected from a skilled professional--Mere
+error in identifying the disease or lack of high skill will not amount to
+negligence.
+Gynaecologist on the ground that though the plaintiff's abdomen was opened, and
+the Doctor did not take any steps to surgically remove or repair any internal
+organ and closed the incision which lead to recurrence of severe pain.
+Plaintiff alleged that the Doctor acted negligently as a result of which she
+was not in a position to take up employment. Plaintiff claimed    ' 1,00,000 as
+damages. On the other hand, defendants contended that Hysterectomy
+operation was not done as plaintiff's internal organs were in such a position
+that the operation could not be done. Trial Court dismissed the suit and
+appeal was taken. The learned Single Judge held that Negligence is failure to
+exercise reasonable care and attention expected from a skilled professional
+and mere error in identifying the disease or lack of high skill may not amount
+to negligence. On facts, the Court held that there is no reason to reverse the
+decision of trial Court and;
+Held:
+In order to fasten liability on a medical practitioner, the court has to ascertain
+whether there was intentional act or omission or failure on his/her side in
+administering treatment to one's patient. If only there was breach or failure
+to follow the practice acceptable on the part of medical professional and
+reasonable care, attention and requisite skill expected from an expert, were
+not provided to save a patient from acute emergency, negligence can be
+attributed against a doctor. A doctor who is treating a patient may only think
+to relieve him/her from the sufferings and the well being of the patient will
+be the sole aim of the doctor and normally with all care and skill the doctors
+     08-08-2022 (Page 1 of 12)  www.manupatra.com        OP Jindal Global Universitywill try their level best to save the patient. Normally, a doctor will be taking
+the effort and risk even in cases where hard and risk factors are involved with
+the ultimate aim to save the patient and he/she will be satisfied only if the
+best treatment is provided to the patient. But, unfortunately an error or
+wrong judgment may happen in rare cases. It is well-settled that a mere error
+or a mistake in identifying the disease or lack of high skill may not amount to
+negligence. Negligence is a failure to exercise appropriate care and attention
+expected to be exercised in the circumstances. Failure to attend or to give
+prompt treatment in case of emergency, administration of drug by way of
+injection, without test dose or adequate precautions, when there is possibility
+of drug allergy or sensitivity, will amount to negligence. If requisite skill,
+reasonable attention and reasonable care are provided to a patient, a doctor
+can not be said to be negligent in his activities. But mistake or error of
+Judgment does not necessarily establish negligence. [21]
+                                     </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t> 23.09.2011
+                           </t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>MANU/DE/3722/2011</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t> Rohit Shekhar
+                                      </t>
+        </is>
+      </c>
+      <c r="E34" s="0" t="inlineStr">
+        <is>
+          <t> Narayan Dutt Tiwari and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F34" s="0" t="inlineStr">
+        <is>
+          <t>Family - Blood Sample - Medical Examination Of - Jurisdiction - Article 21 of
+Constitution of India,1950,Section 75(e) and order XXVI, Rule 10A of Code of
+Civil Procedure,1908 (CPC) - Whether Court may direct Plaintiff or any other
+authority or officer not to pressurize, coerce, compel or force Petitioner in any
+manner to involuntarily provide blood and/or tissue sample for analysis and
+direct that till prayer was finally considered by this Court, order of Registrar
+directing applicant to deliver blood sample might kindly be deferred or kept in
+abeyance - Held, no specific legislation on medical examinations existed in
+India on these issues in civil jurisdiction - It was noteworthy that no
+precedent involving a civil action by an adult seeking declaration of his
+parentage in civil Court was available - It would be appropriate to collate
+principles laid down by Supreme Court as well as High Courts in several
+judicial pronouncements noticed - A matrimonial Court and civil Court had
+implicit and inherent power to order a person to submit himself for medical
+examination - Court under Section 75(e) of CPC and order XXVI, Rule 10A of
+CPC had requisite power to issue a direction to hold a scientific, technical or
+expert investigation - Passing of an order for medical examination would not
+be in violation of right to personal liberty under Article 21 of Constitution -
+Direction for medical examination could be issued suo motto by Court or upon
+an application filed by a party and principles of natural justice would require
+to be complied with - Court would examine that proportionality of legitimate
+may adversely impact best interest of child and that they justify restrictions
+on privacy and personal autonomy concerns of person directed to be subjected
+to medical examination - Court should not exercise such power as matter of
+course or in order to have a roving inquiry - Such power would be exercised if
+applicant had a strong prima facie case and there was sufficient material
+before Court - Qualifications of person making report details of identity of
+person tested - Circumstances in which and description of sample was taken
+from each person to whom report related and manner in which person was
+separately identified from each person to whom test related - Guidelines
+     08-08-2022 (Page 1 of 55) www.manupatra.com        OP Jindal Global Universitywould guide consideration of application for medical examination before a
+civil Court and matrimonial Court - Defendant No. 1 cannot be physically
+compelled or be physically confined for submitting a blood sample for DNA
+profiling to implement judgment and it was further held that refusal by
+Defendant No. 1 to submit blood sample was wilful, malafide, unreasonable
+and unjustified - Such refusal was taken on record - Court would construe
+weight to be attached to and impact of this refusal by Defendant No. 1 while
+evaluating evidence produced by parties, which then may be treated as
+corroborative evidence leading to presumption that result of DNA profiling of
+Defendant No. 1's blood sample would have supported Plaintiff's claim -
+Application disposed of accordingly
+                                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t> 11.05.2022
+                              </t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>MANU/DE/1679/2022</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t> Azhar Rasheed
+                                          </t>
+        </is>
+      </c>
+      <c r="E35" s="0" t="inlineStr">
+        <is>
+          <t> State NCT of Delhi and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F35" s="0" t="inlineStr">
+        <is>
+          <t>COULD NOT FIND CASE NOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t> 19.09.2019
+                             </t>
+        </is>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>MANU/KE/4086/2019</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t> Ivan and Ors.
+                                        </t>
+        </is>
+      </c>
+      <c r="E36" s="0" t="inlineStr">
+        <is>
+          <t> State of Kerala
+</t>
+        </is>
+      </c>
+      <c r="F36" s="0" t="inlineStr">
+        <is>
+          <t>Criminal - Conviction - Sections 34, 201, 302 of Indian Penal Code, 1860
+(IPC) - Trial Court convicted and sentenced 1st and 2nd Appellant under
+Sections 302, 201 read with section 34 of IPC - Hence present appeal -
+Whether conviction and sentence imposed by the Trial Court against 1st and
+2nd Appellants are liable to be set aside - Held, if various tests relating to
+circumstantial evidence are applied, it is clear that the chain of circumstances
+has been broken - Appellants could not be held responsible for the death of
+the deceased - Thus, conviction and sentence imposed by the Trial Court
+against 1st and 2nd Appellants are liable to be set aside, hence acquitted -
+Appeal allowed. [37]
+                                    </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t> 22.12.2016
+                            </t>
+        </is>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>MANU/RH/1218/2016</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t> T.C. Sadasukhi
+                                        </t>
+        </is>
+      </c>
+      <c r="E37" s="0" t="inlineStr">
+        <is>
+          <t> Medical Council of India and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F37" s="0" t="inlineStr">
+        <is>
+          <t>Service - Medical negligence - Writ Petition filed against direction to striking
+off Petitioner's name from register of registered medical practitioners in State
+for a period of eighteen months - Whether striking off Petitioner's name from
+register of registered medical practitioners in State was in contravention of
+Clause 7.16 of Regulations - Held, nothing substantial appeared to have been
+done by MCI on request for transfer of complaint to itself -MCI appears to
+have morphed complainant's then infructuous application for transfer of
+matter from RMC to MCI which ought to have been rendered infructuous with
+passing of order by RMC, treated it as appeal - It could not have been done by
+MCI -Impugned order holding Petitioner guilty of medical negligence and
+striking off his name from register of MCI for eighteen months did not reflect
+any consideration of report prepared by Committee - MCI exonerated
+Petitioner of allegation in a meeting - Writ Petition allowed. [13],[14],[17]
+and[18]
+                                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t> 01.04.2016
+                       </t>
+        </is>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>MANU/UP/1132/2016</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t> Deeksha Dwivedi and Ors.
+                                          </t>
+        </is>
+      </c>
+      <c r="E38" s="0" t="inlineStr">
+        <is>
+          <t> Union of India and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F38" s="0" t="inlineStr">
+        <is>
+          <t>COULD NOT FIND CASE NOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t> 06.02.2019
+                           </t>
+        </is>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>MANU/DE/0399/2019</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t> Krishan Lal Kumar
+                                         </t>
+        </is>
+      </c>
+      <c r="E39" s="0" t="inlineStr">
+        <is>
+          <t> Medical Council of India and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F39" s="0" t="inlineStr">
+        <is>
+          <t>COULD NOT FIND CASE NOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t> 16.01.2008
+                           </t>
+        </is>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>MANU/SC/0430/2008</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t> Samira Kohli
+                                     </t>
+        </is>
+      </c>
+      <c r="E40" s="0" t="inlineStr">
+        <is>
+          <t> Prabha Manchanda and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F40" s="0" t="inlineStr">
+        <is>
+          <t>(1) Consumer Protection Act, 1986 - Sections 2 (1) (g) and 21-Deficiency in
+service-Medical negligence-Appellant unmarried woman of 44 years suffering
+from prolonged menstrual bleeding-When appellant unconscious due to
+anesthesia, doctor assisting respondent obtained consent of her mother for
+performing   hysterectomy-Thereafter    respondent    performed    abdominal
+hysterectomy (removal of uterus) and bilateral salpingo-oopherectomy
+(removal of ovaries and fallopian tubes)-Appellant complained that on
+account of removal of her reproductive organs without her consent-She had
+suffered premature menopause necessitating a prolonged medical treatment
+and hormone replacement therapy (H.R.T.)-Whether appellant entitled to any
+damages?-Held "yes"-No consent by appellant for performing hysterectomy
+invasion and interference with appellant's body-It amounted to tortious act of
+assault and battery-Hence, deficiency in service-But there are several
+mitigating circumstances-Respondent did surgery in interest of appellant-
+Consent of appellant's mother gave her authority-Respondent acted in excess
+of consent but in good faith-If respondent already received bill amount or any
+part thereof from appellant-She shall refund same to appellant with 10%
+interest-Respondent also to pay Rs. 25,000 as compensation with 10%
+interest to appellant.
+(2) Medical treatment - Consent of patient-Whether removal of uterus and
+ovaries of patient without her consent can be justified on ground of general
+consent given by patient?-Held, "no"-It cannot be said that when surgeon
+showed adequate care and caution in performing surgery, consent for removal
+of organ not necessary.
+(3) Medical treatment - Consent of patient for surgery-When patient
+     08-08-2022 (Page 1 of 27)www.manupatra.com       OP Jindal Global Universitycompetent adult-No question of someone else giving consent on his/her
+behalf.
+(4) Medical treatment - Consent of patient-Consent form referring to
+diagnostic and operative laparoscopy, laparotomy if needed-It refers to
+consent for definite laparoscopy with contingent laparotomy if needed-It does
+not amount to consent for OH-BSO surgery removing uterus and ovaries.
+Ratio Decidendi:
+"Performance of AH-BSO surgery was an unauthorized invasion and
+assault and battery and therefore a deficiency in service."ious act of
+Case Category:
+MATTERS RELATING TO CONSUMER PROTECTION
+                                    </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t> 13.09.2013
+                              </t>
+        </is>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>MANU/SC/0937/2013</t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t> P.B. Desai
+                                       </t>
+        </is>
+      </c>
+      <c r="E41" s="0" t="inlineStr">
+        <is>
+          <t> State of Maharashtra and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F41" s="0" t="inlineStr">
+        <is>
+          <t>Indian Penal Code, 1860 - Section 338 read with Section 109--Causing
+grievous hurt by act endangering life or personal safety of others and
+abetment--Conviction and sentence--Sustainability--Patient suffering from
+metastatic breast cancer--Acute chronic cancer condition was cause of
+patient's death--It cannot be said that advice of appellant for taking surgical
+procedure was act of wanton negligence--Negligent conduct in nature of
+omission of appellant is not so gross as to entail liability on appellant under
+Section 338--Crime as mentioned in Section 338 requires proof that appellant
+caused patient's condition to acute stage--Though conduct of appellant
+(doctor) constituted not only professional misconduct for which adequate
+penalty meted out to him by Medical Council, and negligence on his part also
+amounts to actionable wrong in tort--It does not transcend into criminal
+liability and in no case makes him liable for offence under Section 338 as
+ingredients of that provision not satisfied--Merely on basis of negligence, it
+could not be held that ingredients of Section 338 stood proved as it could not
+amount to "act" of causing "grievous hurt" that too "rationally and
+negligently" thereby endangering life of patient--Within realm of civil liability,
+appellant breached well essence of "duty"' to patient--Impugned judgments
+of courts below set aside.
+Questions that falls for determination is as to whether the alleged role of the
+appellant amounts to "doing any act" and whether it was so rash or negligent
+as to endanger the life of the patient.
+Merely on the basis of negligence, it could not be held that ingredients of
+Section 338 of I.P.C. stood proved as it could not amount to an "act" of
+causing "grievous hurt", that too "rationally and negligently" thereby
+endangering the life of the patient.
+     08-08-2022 (Page 1 of 23)  www.manupatra.com        OP Jindal Global UniversityNo doubt, in the present case the appellant not only possesses requisite skills
+but also an expert in this line. However, having advised the operation, he
+failed to take care of the patient. Thereafter, at various stages, as observed by
+the courts below, he was held to be negligent by the Maharashtra Medical
+Council and thus found to be guilty of committing professional misconduct.
+Thus, it was the appellant's "duty" to act contractually, professionally as well
+as morally and such an omission can be treated as an "act". Undoubtedly,
+within the realm of civil liability, the appellant has breached the well essence
+of "duty" to the patient.
+The appellant's omission in not rendering complete and undivided legally
+owed duty to patient and not performing the procedure himself has not made
+any difference. It was not the cause of the patient's death which was
+undoubtedly because of the acute chronic cancer condition. In such a
+scenario, it is enough to keep off the clutches of criminal law.
+The negligent conduct in the nature of omission of the appellant is not so
+gross as to entail criminal liability on the appellant under Section 338 of the
+I.P.C. It is to be kept in mind that the crime as mentioned in Section 338,
+I.P.C. requires proof that the appellant caused the patient's condition to the
+acute stage.
+For the reasons stated the Supreme Court has no option but to conclude that
+though the conduct of the appellant constituted not only professional
+misconduct for which adequate penalty has been meted out to him by the
+Medical Council, and the negligence on his part also amounts to actionable
+wrong in tort, it does not transcend into the criminal liability and in no case
+makes him liable for offence under Section 338, I.P.C. as the ingredients of
+that provision have not been satisfied.
+Ratio Decidendi:
+"Where negligence is an essential ingredient of offence, negligence to be
+established by prosecution must be culpable or gross and not negligence
+merely based upon an error of judgment."
+                                   </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t> 08.04.2016
+               </t>
+        </is>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>MANU/DE/0942/2016</t>
+        </is>
+      </c>
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t> The State Govt. of NCT of Delhi and Ors.
+                                         </t>
+        </is>
+      </c>
+      <c r="E42" s="0" t="inlineStr">
+        <is>
+          <t> Tanjeer Alam and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F42" s="0" t="inlineStr">
+        <is>
+          <t>COULD NOT FIND CASE NOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t> 03.04.2014
+                       </t>
+        </is>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>MANU/KA/0385/2014</t>
+        </is>
+      </c>
+      <c r="D43" s="0" t="inlineStr">
+        <is>
+          <t> Ramcharan Thiagarajan
+                                        </t>
+        </is>
+      </c>
+      <c r="E43" s="0" t="inlineStr">
+        <is>
+          <t> Medical Council of India, Karnataka Medical Council and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F43" s="0" t="inlineStr">
+        <is>
+          <t>Civil - Striking of name - Unreasoned order - Present petition filed against
+order whereby Respondent-Medical Council of India, strike name of Petitioner
+from Indian Medical Register as well as from Register of State Medical Council
+- Whether Respondent rightly strike name of Petitioner - Held, settled law
+that administrative authority exercising judicial or quasi-judicial functions
+must record reasons for its decision - Karnataka Medical Council (KMC) had
+held enquiry and held that there was no case made out indicating negligence
+or violation of Code of Medical Ethics - In view of settled position that
+impugned order was not sustainable as it did not disclosed reasons that
+weighed on collective wisdom of Council, in reversing concurrent findings of
+lower authorities -
+                                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t> 13.08.2007
+                  </t>
+        </is>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>MANU/GJ/1365/2007</t>
+        </is>
+      </c>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t> Santokben Sharmanbhai Jadeja
+                                      </t>
+        </is>
+      </c>
+      <c r="E44" s="0" t="inlineStr">
+        <is>
+          <t> State of Gujarat
+</t>
+        </is>
+      </c>
+      <c r="F44" s="0" t="inlineStr">
+        <is>
+          <t>Constitution - Narco Analysis Test and Brain Mapping Test - Testimonial
+compulsion - Violation of rights of accused - Article 20(3), 21 and 227 of the
+Constitution of India - Application of the prosecution granted by JMFC and
+confirmed by Sessions Court for taking the Petitioner for Narco Analysis Test
+as well as Brain Mapping Test - Hence, the present Petition under Article 227
+- Whether conducting/performing of the aforesaid test would amount to
+testimonial compulsion and thereby violate the constitutional protection
+guaranteed to the accused under Article 20(3) or not - Held, when after
+exhausting all the possible alternatives to find out the truth and nab the
+criminal/accused and when it is found by the prosecuting agency that there is
+no further headway in the investigation then these two tests could be
+resorted to - Merely conducting/performing of a Narco Analysis Test and Brain
+Mapping Test on the accused, the protection guaranteed under Article 20(3) is
+not violated - If at any stage when the prosecuting agency is likely to use
+such statement as evidence and if it is inculpating and incriminating the
+person making it, then bar of Article 20(3) would be attracted - Hence, no
+error or illegality committed by the Magistrate in allowing the application of
+the prosecuting agency for conducting of the Narco Analysis Test and Brain
+Mapping Test upon the accused - Petition dismissed
+Criminal - Conducting of Narco Analysis Test and Brain Mapping Test -
+Consent of accused - Whether before conducting/performing aforesaid two
+conducting/performing of the aforesaid tests is a part of investigation and for
+the investigation by the Investigating Agency the consent of the accused is
+not required - Further, no provision under the Criminal Procedure Code to
+have the consent of the accused before or during the investigation - Hence,
+contention of Petitioner as to obtaining consent before performing the tests
+rejected - Petition dismissed
+Ratio Decidendi:
+"The protection guaranteed under Article 20(3) could not be said to have
+     08-08-2022 (Page 1 of 22) www.manupatra.com        OP Jindal Global Universityviolated on merely conducting/performing of a Narco Analysis Test and Brain
+Mapping Test on the accused."
+"The bar under Article 20(3) comes into play if at any stage the prosecuting
+agency is using the statement given as part of the test as evidence and if it is
+inculpating and incriminating the person making it."
+"Conducting/performing of the aforesaid tests is a part of investigation and
+for the investigation by the Investigating Agency the consent of the accused
+is not required."
+                                     JUDGMENT
+M.R. Shah, J.
+1. By way of this petition under Article 227 of the Constitution of India, the petitioner -
+original accused No. 1 - Santokben Sharmanbhai Jadeja has prayed for an appropriate
+order to quash and set aside the order dated 13.6.2007 passed by the learned JMFC,
+Junagadh passed below application Mark - 8 granting Narco Analysis Test and Brain
+Mapping Test of the petitioner. The petitioner has also prayed for an appropriate order
+to quash and set aside the order dated 30.6.2007 passed by the learned Additional
+Sessions Judge &amp; Presiding Officer, 4th Fast Track Court, Junagadh passed in Criminal
+Revision Application No. 89 of 2007 in dismissing the same and confirming the order
+passed by the learned JMFC, Junagadh granting Narco Analysis Test and Brain Mapping
+Test of the petitioner.
+2. At the outset, it is to be noted that against the State so many cases involving serious
+offences such as Saurabuddin encounter case and others are pending in which the
+question with regard to Narco Analysis Test and Brain Mapping Test of the concerned
+accused are pending at different stages i.e. either at the stage of proceedings before the
+learned Magistrate or revisional stage before the learned Sessions Court or before this
+Court and considering timely requirement of such tests at the stage of investigation,
+considering the above, this Court has considered present petition on merits. The
+proceedings before the different trial Courts/revisional Courts hence, this petition is
+considered on merits.
+It was also brought to the notice of the Court that one proceeding is pending before the
+Hon'ble Supreme Court and the case is referred to the Larger Bench, and considering
+the same an opportunity was given to the petitioner to move an appropriate application
+before the Hon'ble Supreme Court for transfer of the proceedings and twice this Court
+granted time to the petitioner to move such an application for transfer in view of the
+pending proceedings before the Hon'ble Supreme Court and in fact on 19.7.2007 at the
+request of the learned Counsel appearing for the petitioner, this petition was adjourned
+to 1st August, 2007 as the statement was made that the petitioner proposes to move an
+appropriate application before the Hon'ble Supreme Court for transfer of this
+proceedings in view of the pendency of some other proceedings raising similar
+controversy before the Hon'ble Supreme Court. This Court also recorded the statement
+of the learned Counsel appearing for the petitioner that if an appropriate order is not
+obtained from the Hon'ble Supreme Court, they will proceed further with the present
+petition. That thereafter, present petition came up for hearing on 1st August, 2007,
+which was adjourned to 6th August, 2007 and Shri N.D. Nanavati, learned Senior
+Advocate appearing for the petitioner has submitted that the petitioner does not propose
+     08-08-2022 (Page 2 of 22)    www.manupatra.com          OP Jindal Global Universityto move an appropriate application before the Hon'ble Supreme Court for transfer of the
+present proceedings and he would like to submit on merits and that is how, this Court
+has heard the learned advocates appearing on behalf of the respective parties on merits
+and is deciding the present petition on merits.
+3. Before dealing with the present petition on merits and the contentions on behalf of
+the rival parties with regard to need of Narco Analysis Test and/or Brain Mapping Test,
+few facts are necessary for the determination of the present petition to appreciate the
+prayer of the Investigating Officer for conducting the Narco Analysis Test and/or Brain
+Mapping Test of the petitioner.
+4. An FIR is registered at Junagadh Taluka Police Station on 13.5.2007 given by one
+Jyotiben Dilipbhai Pipariya against two accused persons named Mohan Amir Gohil and
+Mahesh alias Bhaddo Mulji Chauhan for the offence punishable under Sections 302, 394,
+376 and others of Indian Penal Code and as stated above, the said FIR is registered on
+13.5.2007 being CR No. I - 69 of 2007. It appears that inspite of the best efforts made
+by the Investigating Agency and the State, those two named accused persons could not
+be arrested and they are absconding. At this stage it is required to be noted that there is
+a hue and cry in the public with regard to the aforesaid incident and the offence
+committed by the accused persons and agitation has taken place on large scale by the
+public raised alleging inter alia the inaction on the part of the State and the
+Investigating Agency in not able to arrest the accused persons of the aforesaid FIR.
+During the course of the investigation of the CR I 69 of 2007 and on the basis of the
+statement given by the sister of the accused of CR I 69 of 2007 - Mohan Hamir that the
+said accused persons have contacted and met the petitioner and both of them requested
+the petitioner to give shelter and accordingly said two persons accused are under her
+shelter and therefore the FIR is registered on 8.6.2007 at Junagadh B Division Police
+Station against the petitioner and four other unknown persons for the offence under
+Sections 212, 506(2) and 114 of the Indian Penal Code and the said complaint is given
+by the Police Inspector, Crime Branch, Junagadh alleging inter alia that the petitioner
+has committed offence of harboring and sheltering as well as of criminal intimidation
+and abetment. That the petitioner came to be arrested and Investigating Officer has
+produced the petitioner before the learned JMFC, Junagadh and an application seeking
+police remand for the period of 4 days was submitted which was objected by the
+petitioner, however, considering the seriousness of the offence alleged, the learned
+Magistrate by an order dated 10.6.2007 granted police remand of the petitioner upto
+11.00 A.M. Of 13.6.2007. The said order was challenged by the petitioner before this
+Court by way of Special Criminal Application No. 1101 of 2007 and the same was
+withdrawn as having become infructuous. On expiry of the period of remand on
+13.6.2007, an application for further remand for a period of 3 days was given by the
+Investigating Officer however, the learned Magistrate by order dated 13.6.2007 rejected
+the said application seeking further remand. The petitioner submitted an application for
+bail and simultaneously the prosecuting agency gave an application on 11.6.2007 for
+taking the petitioner for performing the Brain Mapping Test as well as Narco Analysis
+Test. The said application was at Mark - 8. The said application came to be objected by
+the petitioner on the ground which will be referred to hereinafter. The learned JMFC,
+performing the Narco Analysis Test as well as the Brain Mapping Test vide order dated
+13.6.2007. Being aggrieved by the said order, the petitioner gave an application for
+staying the operation of the said order vide Exh.16 so as to enable the petitioner to
+challenge the said order before the Revisional Court and the learned JMFC, Junagadh
+stayed the operation of the order upto 26.6.2007. Against the order granting Narco
+Analysis Test and Brain Mapping Test, the petitioner preferred Criminal Revision
+      08-08-2022 (Page 3 of 22)    www.manupatra.com           OP Jindal Global UniversityApplication No. 2007 in the Court of learned District &amp; Sessions Judge, Junagadh on
+18.6.2007. In the meantime, the learned JMFC passed an order to adjourn the hearing
+of the bail application of the petitioner till the petitioner undertakes Narco Analysis Test
+and Brain Mapping Test. The petitioner being aggrieved by the said order in deferring
+the hearing of the bail application till the petitioner undertakes Narco Analysis Test and
+Brain Mapping Test preferred Special Criminal Application No. 1132 of 2007 before this
+Court and by order dated 29.6.2007 this Court directed the learned JMFC to decide and
+dispose of the bail application with certain observations. Thereafter the said application
+was heard by the learned JMFC and the learned JMFC allowed the said bail application
+and released the petitioner on bail. That thereafter the aforesaid Criminal Revision
+Application No. 89 of 2007 filed by the petitioner filed against the order of granting
+Narco Analysis Test and Brain Mapping Test came to be heard by the learned Sessions
+Judge who by his judgment and order dated 30.6.2007 dismissed the said Criminal
+Revision Application and confirmed the order passed by the learned JMFC granting
+application of the prosecution for taking the petitioner for performing Narco Analysis
+Test and Brain Mapping Test. Against the order of rejection of the Criminal Revision
+Application as well as the order passed by the learned JMFC, Junagadh granting
+application of the prosecution for taking the petitioner for performing Narco Analysis
+Test as well as Brain Mapping Test the petitioner-original accused has preferred present
+Special Criminal Application under Article 227 of the Constitution of India.
+5. Shri N.D. Nanavati, learned Senior Advocate appearing for the petitioner has assailed
+the order passed by the learned JMFC, Junagadh confirmed by the learned Additional
+Sessions Judge, Junagadh in granting the application of the prosecution for taking the
+petitioner for Narco Analysis Test as well as Brain Mapping Test on the following
+grounds:
+    (i) The learned Magistrate has committed serious and grave error in giving
+    direction to the accused for undertaking Narco Analysis Test as well as Brain
+    Mapping Test as the same violates the protection guaranteed under Article
+    20(3) of the Constitution of India as the order containing the direction given is
+    nothing but to compel the accused to give evidence against herself which is
+    prohibited under Article 20(3) of the Constitution of India.
+    (ii) The test involve injection of certain solution in the body of the witness and
+    therefore, without the consent of the petitioner nothing can be injected in the
+    body of the petitioner.
+    (iii) The petitioner cannot be compelled to give statement which is self-
+    incriminating and as such, such test is not considered as reliable and the drugs
+    sought to be administered to the petitioner _ original accused is dangerous to
+    the health of the petitioner.
+    (iv) The petitioner is charged only for the offence under Sections 212 and
+    506(2) of the Indian Penal Code which are trivial in nature and for which Narco
+    Analysis Test and/or Brain Mapping Test are not required, more particularly,
+    when the FIR is lodged after a long period and the informant is Police Inspector
+    of Criminal Branch.
+6 . Shri N.D. Nanavati, learned Senior Advocate appearing for the petitioner has
+vehemently submitted that in the criminal jurisprudence accepted in India, a person
+facing an investigation is constitutionally conferred with the right viz. right to remain
+silent, leaving it for the Investigating Agency to investigate the factual allegations
+      08-08-2022 (Page 4 of 22)    www.manupatra.com           OP Jindal Global Universityresorting to only those methods which are specifically permitted under various statutory
+provisions. It is submitted by him that the accused cannot be compelled to be a witness
+against himself/herself by conducting such Narco Analysis Test and the same would
+offend the constitutional protection guarantee under Article 20(3) of the Constitution of
+India. Shri Nanavati, learned Senior Advocate has submitted that there are no statutory
+provisions in the Criminal Procedure Code or any statutory remedies by which the
+Investigating Agency can compel the accused to undergo any test including Narco
+Analysis Test. It is further submitted by him that in the year 2002 the Law Commission
+of India considered in detail the provisions of Article 20(3) of the Constitution of India
+in the context of right of silence given to the accused and has considered whether there
+is any need or desirability or constitutional permissibility to amend the Criminal
+Procedure Code so as to temper with the right conferred upon the accused against self-
+incrimination and the Law Commission of India has filed its Report before the Central
+Government and the Law Commission has examined the history behind conferment of
+such a right upon an accused and also examined the pari materia provisions in United
+Kingdom, Australia, USA, Canada, China and India and after a detailed and a careful
+consideration, the Law Commission of India found that no amendment in Criminal
+Procedure Code is necessary and any changes in law relating to silence of the accused,
+if made, will be ultra-virus to Articles 20(3) and 21 of the Constitution of India. Shri
+Nanavati, learned Senior Advocate has also further submitted that the question of such
+test, which results into the accused being compelled to incriminate himself fell for
+consideration by the National Human Rights Commission in the context of Polygraph
+test and the said Commission considered the question of permissibility of a lesser
+submitted that in the case of Polygraph test, the National Human Rights Commissionnd it is
+prohibited commission of such a test without express and informed consent of the
+accused. It is submitted that the Commission has laid down guidelines relating to the
+said test on an accused in context of the constitutional guarantee embodied in part-III
+of the Constitution of India in general and Article 20(3) of the Constitution in particular.
+It is submitted that the said guidelines are sent to all the States. Therefore, it is
+submitted that in light of the above, granting of application for Narco Analysis Test and
+Brain Mapping Test of the petitioner would be against the protection and guarantee
+conferred by Article 20(3) of the Constitution of India and the same has also no
+statutory force. Shri Nanavati, learned Senior Advocate appearing for the petitioner has
+relied upon the decision of this Court in case of Najabhai Ranchhod and Anr. v. State of
+Gujarat reported in MANU/GJ/0100/1971. He has also relied upon one another decision
+of this Court in case of Haribhai Chanabhai Vora and Ors. v. Keshubhai Haribhai Vora
+reported in MANU/GJ/0773/2004. In the said case the question was with regard to
+conducting of D.N.A. Test. Shri Nanavati, learned Senior Advocatehas taken the Court
+to the Law Commission's Report as well as the guidelines issued by the National Human
+Rights Commission referred to hereinabove.
+7. It is also further submitted by Shri Nanavati, learned Senior Advocate that police
+remand was given and the petitioner was in police remand and the petitioner has
+cooperated and nothing incriminating has been found against the petitioner. It is also
+further submitted that the petitioner is changed only for the offences under Sections
+212 and 506(2) of the Indian Penal Code and thus, looking to the offences as alleged,
+such a drastic measure of injecting foreign chemical against the will of the petitioner is
+not required. It is submitted that when the allegations are only under Section 202 of
+harboring only the aforesaid two tests are not called for. It is submitted that the nature
+of offences alleged is a relevant consideration for which such a drastic test is not
+required. It is also further submitted by him that the method adopted in the commission
+of crime by one or more accused is also relevant consideration like Telegi's case. It is
+      08-08-2022 (Page 5 of 22)    www.manupatra.com           OP Jindal Global Universityalso further submitted by him that even if all the allegations levelled against the
+petitioner are considered as gospel truth then also it is not a case for Narco Analysis
+Test. It is also further submitted by him that identical question/controversy is pending
+before the Hon'ble Supreme Court and the matter is referred to Larger Bench and
+therefore, this Court should wait and/or should not pronounce any judgment in the
+present case till the controversy is resolved by the Hon'ble Supreme Court and/or the
+matter is decided by the Hon'ble Supreme Court. It is submitted by him that before the
+Revisional Court the petitioner has specifically made out a ground with regard to
+pendency of the proceedings before the Hon'ble Supreme Court but the Revisional Court
+has not deal with the same at all. It is submitted by him that at least the learned
+Revisional Court was expected to deal with and consider the same. It is submitted by
+him that whenever the contention is raised and the submission is made, the Court is
+bound to consider the same and dealt with the same and the Court cannot just ignore
+the same and/or do not deal with the same. By making the aforesaid submissions, Shri
+Nanavati, learned Senior Advocate has requested to quash and set aside the orders
+passed by both the Courts below and reject the application of the prosecuting agency
+for Narco Analysis Test and Brain Mapping Test of the petitioner.
+8. Shri K.B. Trivedi, learned Advocate General was called by the Court to assist the
+Court and he has submitted that at least four High Courts in the country have
+considered the permissibility of the Narco Analysis Test and Brain Mapping Test on the
+accused persons and have also considered the submissions and the contentions raised
+on behalf of the accused persons with regard to the protection guaranteed under
+Articles 20(3) &amp; 21 of the Constitution of India and all the four High Courts have
+elaborately considered all the aspects on the point and have permitted the Narco
+Analysis Test and Brain Mapping Test upon the accused persons. He has submitted that
+the Division Bench of the Bombay High Court in case of Ramchandra Reddy v. State of
+Maharashtra reported in 2004 ALL MR (Cri) 1704   ; The Karnataka High Court in case of
+Smt. Selvi and Ors. v. State by Koramangala Police Station decided on 10th September,
+2007 in Criminal Petition No. 1964 of 2004; the Bombay High Court in case of Arun
+Gulab Gavali v. State of Maharashtra reported in MANU/MH/1477/2005; the Madras
+High Court in case of Dinesh Dalmia v. State reported in MANU/TN/8154/2006; and the
+Andhra Pradesh High Court in case of K. Venkateshwara Rao, S/o K. Vijaya Simha,
+Hydrabad v. State of A.P. Decided on 30th August, 2007 in Criminal Revision
+Application No. 1402 of 2006 have taken a view that by performing/conducting the
+Narco Analysis Test/Brain Mapping Test on the accused person, at the stage of
+investigation do not violate the constitutional protection guaranteed under Article 20(3)
+and 21 of the Constitution of India. It is also further submitted that in all the aforesaid
+cases, the Courts have also considered the need of such scientific tests by observing
+that it is a need for the day for such a scientific tests. Learned Advocate General has
+also drawn the attention of the Court to the relevant materials in favour of conducting of
+the Narco Analysis Test inclusive of the guidelines issued by the National Human Rights
+Commission and the Report of the Law Commission. He has also taken the Court to the
+order passed by this Court in Special Criminal Application No. 1200 of 2003 dated
+16.12.2007 in case of Malav A. Bhatt v. State of Gujarat as well as the judgment of the
+Hon'ble Supreme Court in case of Jitubhai Babubhai Patal v. State of Gujarat reported in
+2005 (10) SCC 545and the news report dated 17.7.2007 extracting from the web-site
+of Ind. Law Communications Private Ltd. Pointing out that the Hon'ble Karnataka High
+Court has allowed one petition against the Narco Analysis Test. Shri Trivedi has
+submitted that the aforesaid submissions are only to be construed as his own opinion
+with a view to assist the Hon'ble Court and may not be construed as opinion and/or
+policy of the State.
+     08-08-2022 (Page 6 of 22)    www.manupatra.com          OP Jindal Global University9. Shri R.C. Kodekar, learned APP appearing on behalf of the State has opposed the
+present petition. It is submitted that considering the provisions of the Criminal
+Procedure Code, more particularly, Sections 156 to 159, the Investigating Agency of the
+State has statutory right to investigate the case and Narco Analysis Test and the Brain
+Mapping Test and other tests are scientific tests, which are now the part of the
+investigation process and therefore, merely because, the petitioner does not give the
+consent for the said tests, the Investigating Officer should not be restrained from
+conducting such tests which is necessary for the purpose of finding out the truth and to
+nab the accused. It is also further submitted that as there were hue and cry made
+against the third degree during the investigation such a scientific test is required to be
+performed on the accused. It is ultimately for the Investigating Officer and/or the
+prosecuting agency to consider the nature of test required for further investigation. It is
+also further submitted by him that as held by the Hon'ble Supreme Court in various
+decisions, Investigating Agency is the master of the investigation and nobody can
+interfere with the same inclusive of the Magistrate till the appropriate report is
+submitted after investigation as required and contemplated under the provisions of the
+Criminal Procedure Code i.e. Sections 169 and/or 173. It is also further submitted by
+him that when after exploring all the options such a custodial interrogation of the
+petitioner, etc. when the Investigating Officer is still in dark and is not able to reach to
+the accused persons and find out the truth, and the petitioner is not telling the truth for
+investigation in the right direction, Brain Mapping Test and Narco Analysis Test of the
+petitioner is required and therefore it is requested to dismiss the present application. It
+is submitted by him that it is not that straight away the prosecuting agency applied for
+no alternative, for further investigation in a right direction, application was given for
+Narco Analysis Test and Brain Mapping Test of the petitioner. Meeting with the
+submission on behalf of the petitioner that the petitioner is charged only for the
+offences under Sections 212 and 506(2) of the Indian Penal Code and for which such
+tests are not called for, it is submitted that even as per the learned Counsel appearing
+on behalf of the petitioner the nature of the offences alleged is a relevant consideration
+and in the present case what is required to be considered is not an allegation with
+regard to Section 212 of the Indian Penal Code but further allegations are also required
+to be considered. It is submitted by him that the allegations against the petitioner are
+that the petitioner has committed offence of harboring and sheltering the two accused
+persons who are involved in the serious offence under Sections 302, 394 and 376 and
+others of Indian Penal Code. It is submitted that a girl was murdered by the accused
+after committing rape upon her and the said accused persons are absconding and the
+allegations against the petitioner are that she has harbored and sheltered those two
+accused persons. It is submitted by Shri Kodekar that if the Narco Analysis Test and the
+Brain Mapping Test are allowed to be performed/conducted upon the petitioner, in that
+case, the Investigating Agency might get some clue which can be helpful to the
+Investigating Officer/Investigating Agency to further investigate the case and help the
+Investigating Officer/Investigating Agency to find out those accused persons. Therefore,
+it is submitted that the allegations against the petitioner for the offence under Section
+212 of the Indian Penal Code are required to be considered in light of the offence
+committed by those persons to whom the petitioner has given shelter and harbor. It is
+also further submitted by him that four different High Courts in the country have
+considered all the submissions which are made on behalf of the petitioner and have
+permitted the Narco Analysis Test and Brain Mapping Test upon the accused persons by
+observing that it does not violate the protection guaranteed under Articles 20(3) and 21
+of the Constitution of India. It is also further submitted by him that it is not required to
+be considered at this stage whether the statement of the accused persons which would
+      08-08-2022 (Page 7 of 22)    www.manupatra.com           OP Jindal Global Universitybe recorded during the course of the Narco Analysis Test can be used against the
+petitioner. According to him, that stage has not come and what is evidentiary value of
+the statement made during the Narco Analysis Test that is required to be considered
+only at the time of trial and/or at the time when the same is likely to be used against
+the accused. It is submitted by him that as stated above the requirement of Narco
+Analysis Test and Brain Mapping Test is only for further investigation of a serious crime.
+Under the circumstances, it is requested to dismiss the present application.
+10. Heard the learned advocates appearing on behalf of the respective parties.
+behalf of the rival parties, it is required to be considered that what are the Brain
+Mapping Test and Narco Analysis Test and the safeguards taken during the aforesaid
+tests. At the outset, it is to be noted that what are the aforesaid tests and what are the
+safeguards taken at the time of performing/conducting of the aforesaid tests are already
+considered by the Bombay High Court, Karnataka High Court and Andhra Pradesh High
+Court. The learned Counsel appearing on behalf of the State and the learned Advocate
+General have also produced on record certain materials what are the aforesaid tests and
+which measures/safeguards are undertaken while conducting/performing the aforesaid
+tests and considering the above, it is found as under:
+    NARCO ANALYSIS TEST:
+        The Narco Analysis Test is conducted by administrating 3 gms of
+        Sodium Pentathol or Sodium Amytal dissolved in 3000 ml of distilled
+        water depending upon the person's sex, age, health and physical
+        condition and this mixture is administered intravenously along with
+        10% of dextrose over a period of 3 hours with the help of an
+        anaesthetist. The rate of administration is controlled to drive the
+        accused slowly into a hyponotic trance. The effect of the bio-molecules
+        on the bio-activity of an individual is evident as the drug depresses the
+        central nervous system, lowers blood pressure and slows the heart
+        rate, putting the subject into a hypnotic trance resulting in a lack of
+        in the presence of the doctors. The revelations made during this stagecy
+        are recorded both in video cassettes. The report prepared by the
+        experts is what is used in the process of collecting evidence. Under the
+        influence of the drug the subject talks freely and is purportedly
+        deprived of his self-control and will power to manipulate his answers.
+        The underlying theory is that a person is able to lie by using his
+        imagination. In the Narco Analysis Test, the subject's imagination is
+        neutralized and reasoning faculty affect by making him semi-conscious.
+        The subject is not in a position to speak up on his own but can answer
+        specific and simple questions. In this state it becomes difficult for him
+        to lie and his answers would be restricted to facts he is already aware
+        of. His answers are spontaneous as a semi-conscious person is unable
+        to manipulate his answer. Injected in continuous small dosages it has a
+        hypnotizing effect on a person whop responds loquaciously when
+        questioned. The ECG and blood pressure are monitored continuously
+        throughout the testing procedure. The entire conduct of the procedure
+        is video graphed. The questions are designed carefully and are
+        repeatedly persistently in order to reduce the ambiguities during drug
+        interrogation. After the Narco examination is over the suspect is made
+      08-08-2022 (Page 8 of 22)    www.manupatra.com           OP Jindal Global University        to relax for 2 - 3 hours.
+    WHAT IS BRAIN MAPPING TEST:
+        The Brain Mapping Test is also known as P-300 test. In this test of
+        Brain Mapping the suspect is first interviewed and interrogated to find
+        out whether he is concealing any information. The activation of brain
+        for the associated memory is carried out by presenting list of words to
+        the subjects. There are three types of words in the list used for Brain
+        Mapping test, Part-I consisted of neutral words, which have no direct
+        related to the case and suspects to elicit concealed information, which
+        all suspects have had opportunity to come to know during the course of
+        events related to the case. Part-III consists of target, which are not part
+        of the first two parts. The words in this part are based on confidential
+        findings which suspect does not know. The recording of this test is
+        done by acquiring the response through 32 channel EEG-ERP Neuro
+        Scan cording system. It is carried out by asking the suspect to sit down
+        and close his eyes. The 32 channel electrodes are placed over the scalp
+        directly. While conducting this test twice by presenting each word in
+        three parts randomly. The suspect is instructed to relax and listen to
+        the words presented in the auditory mode. This test does not expect
+        any oral response from the witness. The conclusion drawn by the
+        experts after the conduct of the test to indicate the possession of the
+        knowledge about the relevant subject which is helpful in the
+        investigation and collection of evidence. After the administration of the
+        test, what comes out is that, the person undergoing the test has the
+        knowledge of the crime about which he was questioned (brain
+        mapping). In the said test there is no way to find out what the lie is or
+        what is the information stored in the brain of the person concerned. It
+        can be called the information received of taken out from the witness.
+12. Need for narco analysis test and brain mapping test and the advantages of the
+aforesaid tests:
+    The field of criminology has expanded rapidly during the last few years and the
+    demand for supplemental methods of detecting deception and improving the
+    efficiency of interrogation have increased concomitantly. The Investigating
+    Agency has statutory right to investigate the crime and to find out the truth and
+    to reach to the accused. Narco Analysis Test for criminal interrogation is
+    valuable technique which would profoundly affect both the innocent and the
+    guilty and thereby hasten the cause of justice. The Investigating Agency cannot
+    be prevented to interrogate the case at the stage of investigation relating to
+    crime in which he is shown as accused. If the aforesaid two tests are permitted,
+    it would assist the Investigating Agency in finding out the truth and find out the
+    real culprit of the commission of an offence. When the Investigating Agency is
+    absolutely in dark and after all efforts and exhausting all the alternatives still
+    there is no further headway in the investigation, the aforesaid two tests would
+    help the Investigating Agency to further investigate the crime and during the
+    course of the aforesaid two tests and/or after completion, the Investigating
+    Agency may get some clue and may be able to further investigate the crime and
+    reach to the real accused/culprit who has committed offence. Accusations are
+    made against the Investigating Officer using third degree methods to extract
+      08-08-2022 (Page 9 of 22)    www.manupatra.com           OP Jindal Global University    information from the accused and therefore there is a need to have such
+    scientific tests. The scientific tests like polygraph test; P-300 test are like taking
+    MRI or CT Scan and when the accused are not coming forward with the truth,
+    the scientific tests are resorted to by the Investigating Agency to find out the
+    truth and to have a further clue in the matter to further investigate the crime.
+    Such scientific tests are prayed only as a last resort after exploring all the
+    alternatives and when the Investigating Agency is not in a position to reach the
+    accused and find out the truth. If the nature of the offence alleged to have been
+    committed by the accused coupled with the circumstances under which it is
+    committed affords reasonable grounds for believing that an examination of the
+    person will afford evidence as to the commission of the offence then such tests
+    are necessary. It is a right of the Police Officer under the provisions of the
+    Criminal Procedure Code to investigate the crime and collection of the evidence
+    by the Police Officer is permissible under the law. Conducting of Narco Analysis
+    Test and Brain Mapping Test on the accused are in process of collection of such
+    evidence by the Investigating Agency. Section 161 of the Criminal Procedure
+    Code enables the police to examine the accused also during the investigation. It
+    is the duty of every person to furnish information regarding offence and it is the
+    duty of every citizen/person to assist the State in detection of crime and
+    bringing the criminals to justice. It is a statutory duty of every witness/person,
+    who has knowledge of the commission of the crime to assist the State in giving
+    evidence. The investigation of the crime on the scientific line is to help the
+    Investigating Agency so as to enable collection of evidence to prove the guilt or
+    requires modern scientific methods of crime detection, lest the public goty
+    unprotected.
+1 3 . Now, considering above, what is required to be considered is whether
+conducting/performing of the Narco Analysis Test and Brain Mapping Test upon the
+accused infringe the constitutional protection guaranteed under Articles 20(3) &amp; 21 of
+the Constitution of India or may tantamount to testimonial compulsion and/or would
+amount to compulsive testimony.
+14. Identical question came to be considered by the Division Bench of the Bombay High
+Court in case of Ramchandra Ram Reddy (supra) and after considering the entire
+scheme and provisions of Article 20(3) and Article 21 of the Constitution of India and
+the nature of the tests and the use of the said tests, the Division Bench of the Bombay
+High Court has held that so far as Brain Mapping Test - P300 test is concerned,
+protection given by Article 20(3) cannot be made applicable as there will not a
+statement during such test and the same cannot said to be incriminatory in nature. So
+far as conducting/performing of the Narco Analysis Test is concerned, it is held by the
+Division Bench of the Bombay High Court in the said decision that the statement which
+is recorded during the course of the Narco Analysis Test unless it is shown to be
+incriminating the person making it, it does give rise to the protection under Article
+20(3) of the Constitution of India and as and when the Investigating Agency uses such
+statement as evidence, the said contention is required to be considered. The relevant
+observations of the Division Bench in the said decision are as under:
+    Para - 20 : We have therefore no hesitation in holding that Brain Mapping/P-
+    300 or Lie Detector/Polygraph tests can be administered to any accused or a
+    witness. There is no statement coming out of the involuntary tests, and the
+    conclusions which come out of such tests are not statements, the conclusions
+    are not proved in any manner to be even likely to be incriminating to the maker
+     08-08-2022 (Page 10 of 22)    www.manupatra.com           OP Jindal Global Universityof it, the expert can very well depose as an expert in relation to the tests in
+court that the Brain Mapping of the accused or the witness discloses existence
+of knowledge about a crime in the brain of those persons undergoing the tests.
+What that information is nobody is going to say or anybody can say and
+therefore there is no question that even the statement coming via expert is
+incriminatory. The protection given by Article 20(3) gives protection from
+compulsory testimony, it therefore cannot apply to these two tests. We
+therefore reject all the contentions in relation to these two tests.
+Para - 21 : That takes under Section to the third test which is called as Narco
+Analysis (Truth Serum Test). We stated above that in this test the person to
+whom it is administered does make a statement as stated above. It undoubtedly
+is a statement. The question which falls for consideration therefore, is whether
+such statement can be forcibly taken from the accused by requiring him to
+undergo the Truth Serum Test against his will. It will be seen that such
+statement will attract the bar of Article 20(3) only if it is inculpating or
+only after the test is administered and not before. In our opinion therefore,d
+there is no reason to prevent administration of this test also because there are
+enough protections available under the Indian Evidence Act, under Criminal
+Procedure Code and under the Constitution (Article 20(3), to prevent inclusion
+of any incriminating statement if one comes out after administration of the test.
+Para - 22 : We have to look at this aspect of holding test in a vary broad
+prospective. The protection or the cover granted by the fundamental right
+appearing in Clause (3) of the Constitution is complete and invariable. The
+question is what is sought to be provided by guaranteeing such right and it is
+undisputed that what is sought to be protected is the protection of human rights
+and dignities. It is also to be considered in the light of other equally important
+provisions of the Constitution. Article 51(A) which has been added to the
+Constitution by subsequent amendment provides via Clause (1) which says that
+it shall be the duty and the duty cannot be properly done by the State, if
+unnecessarily large protection is spelt out from other provisions like Article
+20(3). Prevention of crime is a sole prerogative of the State and the punishment
+of the crime if proved is also the duty of the State. Feters on these duties can
+be put only in extreme cases where the protection of fundamental rights weigh
+more than the fundamental duty casts on the State. However we need not
+further dialate on this aspect for the reason that in our opinion administration
+of these tests against the will of the person to whom it is sought to be
+administered does not violate the guarantee of Article 20(3) as in the first two
+cases it is not a statement and that is not incriminatory in any manner. It is the
+last case where it is a statement and unless it is shown to be incriminating to a
+person making it, it does not give rise to the protection under Article 20(3). The
+petitions are premature in relation to the third test. In so far as the first two
+tests are concerned as aforesaid these tests do not violate any protection.
+Para - 23 : It will be seen that in our opinion the first two tests do not result in
+any incriminating material, they do not result in any statement containing such
+material and, therefore, does not in any way violate Article 20(3). In so far as
+the third test is concerned enough protection exists, recourse to which can be
+taken if and when the investigating agency seeks to introduce such statement
+as evidence. We need not therefore consider the contention in relation to the
+time when the right or protection given by Article 20(3) starts. In our opinion,
+ 08-08-2022 (Page 11 of 22)     www.manupatra.com           OP Jindal Global University    we also need not consider several judgments cited at the bar which relate to
+    scope and extent of Article 20(3). The judgment in MANU/SC/0018/1954,
+    Sharma's case the Supreme Court laid down what is the extent of guarantee
+    under Article 20(3). It was then explained by 11 Judges Bench in Kathi Kalu's
+    case what exactly is the protection. The law has been ultimately crystalised by
+    the Supreme Court in the case of Nandini Satpathy. In all these cases, what
+    came up for consideration, was obviously a statement made by the witness
+    which obviously was incriminating and therefore the scope was accordingly
+    considered by the Supreme Court of India. In the present case we have came to
+    the conclusion that it is not a statement in relation to the first two tests and in
+    relation to the third test it is a statement entry of which in evidence is
+    adequately protected by various provisions of law and therefore we need not
+    consider this and other cases stated at bar.
+15. The aforesaid controversy is also considered by the Karnataka High Court in case of
+Smt. Selvi and Ors. (supra) and the Karnataka High Court has also considered the need
+considered the submissions made on behalf of the accused that to appear for has also
+undergoing Narco Analysis Test would violate his fundamental rights under Article 20(3)
+of the Constitution of India and would compel the accused to give evidence against
+himself, which is prohibited under Article 20(3) of the Constitution of India and after
+elaborately considering various provisions of the Constitution of India as well as the
+Criminal Procedure Code and considering what are the aforesaid tests and what
+safeguards are taken, the Karnataka High Court has permitted to conduct/perform the
+Narco Analysis Test and Brain Mapping Test on the accused. The relevant observations
+of the Karnataka High Court in the said decision are as under:
+    It was vehemently argued for the accused that the learned Magistrate
+    committed a serious and grave error in giving directions to the accused to
+    appear for undergoing Narco-analysis Test as the same violates their
+    fundamental right guaranteed under Article 20(3) of the Constitution. According
+    to him, the order containing the directions given is nothing but compelling the
+    accused to give evidence against themselves, which is prohibited under said
+    Article 20(3) of the Constitution.
+    Para - 7 : The term narco-analysis was introduced in 1936 for the use of
+    narcotics to induce a trance like state wherein the person is subjected to
+    various queries. The material (literature) produced shows that in the Narco-
+    analysis Test conducted under medical supervision, an accused will be injected
+    with Sodium Pentathol or Sodium Amytal and thereafter the accused will be
+    expert doctors. But, this will be only after carrying out a detailed medical
+    examination of the accused. If accused is found medically fit to undergo the
+    procedure, then only it will be done, otherwise not. After finding an accused
+    medically fit to undergo the test, the accused will be administered small doses
+    of intravenous infusion of sodium pentathol.
+    Para - 8 : Sodium Pentathol is the most commonly used drug as an induction
+    agent for general anesthesia routinely contemplated in most of the surgeries
+    and the psychiatrists routinely use sodium pentathol in the diagnosis of mental
+    illness and/or to evaluate the psychological realities. Under the influence of the
+    drug, the patient talks freely and is purportedly deprived of his self-control and
+    will power to manipulate his answers. This is because, few drugs are known to
+     08-08-2022 (Page 12 of 22)    www.manupatra.com          OP Jindal Global Universityrelax individual's defence so that unknowingly the person reveals the truth,
+which he has been trying to conceal.
+Para - 9 : So, during the search for effective aids to interrogation, which is
+probably as old as man's need to obtain information from an unco-operative
+subject, more recently, police officials in some countries have turned to the
+assistance of such drugs in the interrogation of unco-operative accused
+persons. The investigating agency uses such drug (of its choice) for getting
+information from persons/accused from their subconscious level at which it may
+be difficult for accused to lie. This is said to be due to lack of inhibition
+produced by the drug and the accused talks freely and respond truthfully to
+verbal questions. Thus, the use of such drug in police work/interrogation is
+similar to the accepted psychiatric practice of Narco-analysis and the only
+difference in the two procedures is the difference in the objectives. But the
+question is, whether, as a scientific technique in investigations, Narco-analysis
+Test on an accused could be permitted? In other words, the issue is, whether
+Narco-analysis Test amounts to compulsion?st his consent or wishes during
+Para - 11 : It was vehemently argued for the accused that administering i.e.,
+injecting the drug to accused without their consent or against their wishes
+amounts to "compulsion" attracting Article 20(3) as it causes injury, may be
+slight.
+Para - 12 It is true that causing some pain by injecting drug may technically
+amount to hurt as defined under Section 319 of the Indian Penal Code. But such
+pain could be caused even when blood sample is drawn for the purpose of its
+test. So also, by the use of emetic when a culprit is suspected to have
+swallowed some stolen article. However, for such purposes, the law permits use
+of necessary force, as is clear from Section 53(1) of the Code of Criminal
+Procedure, which is as under:
+    53. Examination of accused by medical practitioner at the request of
+    committing an offence of such a nature and alleged to have been
+    committed under such circumstances that there are reasonable grounds
+    for believing that an examination of his person will afford evidence as
+    to the commission of an offence, it shall be lawful for a registered
+    medical practitioner, acting at the request of a Police Officer not below
+    the rank of sub-inspector, and for any person acting in good faith in his
+    aid and under his direction, to make such an examination of the person
+    arrested as is reasonably necessary in order to ascertain the facts which
+    may afford such evidence, and to use such force as is reasonably
+    necessary for that purpose.
+                                                       (emphasis supplied)
+Para - 13 : It appears that under the old Code, there was no specific provision
+authorising the police officer under which an arrested person could be
+subjected to medical examination without his consent. Therefore with an
+intention to remove that lacuna this new provision was incorporated in the new
+Criminal Procedure Code, with the sole intention of facilitating effective
+investigation. Section 53 authorises investigating machinery to get an arrested
+person examined by a medical practitioner. Section 54 confers such a right
+ 08-08-2022 (Page 13 of 22)    www.manupatra.com          OP Jindal Global Universityupon the accused himself. This examination is contemplated under certain
+conditions. If the nature of the offence alleged to have been committed by the
+accused coupled with circumstances under which it is committed affords
+reasonable grounds for believing that an examination of his person will afford
+evidence as to the commission of the offence, then it has been made lawful for
+the registered medical practitioner to act at the request of the Police Officer, not
+below the rank of sub-inspector and to carry out examination of the person
+arrested in order to ascertain the facts which may afford evidence and for that
+purpose to use such force as may be necessary. This examination has to be
+carried out by a registered medical practitioner or any person acting in good
+faith in his aid and under his direction. It cannot, therefore, be said that merely
+because some pain or discomfort is caused (in injecting the drug), such a
+procedure (test) should not be permitted.
+Para - 15 : It is true in Narco-analysis Test, nothing is extracted from the body
+of accused nor anything is compared nor tallied since what is obtained is
+information given by an accused will be either exculpatory or inculpatory and it
+is only inculpatory statement which is hit by Article 20(3) of the Constitution.
+Whether the accused make inculpatory or exculpatory statement will be known
+only after the test is conducted and not before that. So, it is premature to say
+the nature of statement or information, which the accused give under Narco-
+analysis Test.
+Para - 16 : Now reference can be had to Section 156(1) of the Code of Criminal
+Procedure. It says that any officer-in-charge of a police station may, without
+the order of a Magistrate, investigate any cognizable case which a Court having
+jurisdiction over the local area within the limits of such station would have
+power to inquire into or try under the provisions of Chapter XIII. Admittedly,
+the offence punishable under Section 302 of the Indian Penal Code is a
+cognizable offence. So, said provision comes to the aid of investigating agency
+for investigation. "Investigation" as defined in Section 2(h) of the Criminal
+Procedure Code includes all the proceedings under the Code of Criminal
+Procedure for the collection of evidence conducted by a Police Officer or by any
+person (other than a Magistrate) who is authorised by a Magistrate in that
+behalf. Thus, collection of evidence by Police Officer is permitted under law.
+Conducting Narco-analysis Test on accused is in the process of collection of
+such evidence by the investigating agency.
+Para - 18 : It is true that permission of Court or Magistrate is not necessary for
+Criminal Procedure Code. For conducting Narco-analysis Test, the investigating
+agency necessarily requires expert Doctors as without that, such test cannot be
+conducted. Ordinarily, experts or doctors want an order of the Court when they
+have to assist the investigating agency in the investigation. Section 53 of the
+Criminal Procedure Code only says that it shall be lawful for a registered medial
+practitioner to make examination of an accused when requested by Police
+Officer. That apart, the report on polygraphy test, advises to subject the
+accused to Narco-analysis Test after obtaining permission from the Court.
+Under Section 156(3) of the Criminal Procedure Code, a Magistrate empowered
+under Section 190 of the Criminal Procedure Code may order for an
+investigation referred to in Section 156(1) of the Criminal Procedure Code. So
+and when the word investigation includes collection of evidence by the I.O., if
+ 08-08-2022 (Page 14 of 22)     www.manupatra.com           OP Jindal Global Universityan investigating agency had sought permission from the Court without referring
+provision, it cannot be termed as unwarranted or bad in law. So, I do not find
+any force in the argument advanced for the accused.
+Para - 19 : At this stage, reference can also be had to Section 161 of the
+Criminal Procedure Code, with specific reference to Section 27 of the Indian
+Evidence Act, 1872. In the case of Smt. Nandini Satpathy v. P.L. Dani
+MANU/SC/0139/1978, a Bench of three Hon'ble Judges of the Supreme Court
+has held that Section 161 of the Criminal Procedure Code enables the police to
+examine an accused also during investigation. So, questioning accused during
+investigation is permissible subject to certain conditions made clear in the said
+judgment.
+Para - 20 : It cannot be forgotten that Section 39 of the Criminal Procedure
+Code casts a duty upon every person to furnish information regarding offences.
+Criminal justice system cannot function without the cooperation of the people.
+Rather, it is the duty of every person to assist the State in the detection of the
+crime and bringing criminal to justice. Withholding such information cannot be
+traced to the right to privacy, which itself is not an absolute right. In this
+regard, reference can be had to a recent decision of the Supreme Court in the
+case of State v. Dharmapal MANU/SC/0260/2003 and observed by the Supreme
+Court in the case of State of Gujarat v. Anirudha Singh MANU/SC/0749/1997,
+that it is the statutory duty of every witness, who has the knowledge of the
+commission of the crime, to assist the State in giving evidence.
+Para - 23 : The right guaranteed under Article 20(3) of the Constitution is in the
+protection of human rights and dignities, which may need consideration in the
+light of other equally important provisions of the Constitution. It need not be
+said that prevention of crime and punishment for the crime are the duties of the
+State. Fetters on these duties can be put only in extreme cases where the
+protection of fundamental rights weigh more than the fundamental duty casted
+on the State. Section 53 of the Criminal Procedure Code has been brought on
+statute book to have efficient and scientific investigation. It is intended to help
+the investigation of the crime on the scientific lines so as to enable collection of
+evidence to prove the guilt or innocence of the persons accused of committing
+the crime as the modern community requires modern scientific methods of
+crime detection, lest the public go unprotected. Further, in the process of
+obtaining information, i.e., collection of evidence during investigation, if any
+legal or fundamental right of the accused is infringed or violated, nothing
+prevents them from resorting to the safeguards provided to them under various
+laws. But that cannot be a ground to refuse to answer during investigation.
+Para - 30 : It was also contended for the accused that the first accused is
+suffering from heart problem and as such, subjecting her to undergo Narco-
+analysis Test will be detrimental to her health. It may be noted that the accused
+1 had undergone Brain Mapping and Polygraphy Tests, admittedly. Further, as
+noted already, before subjecting an accused to Narco-analysis Test, his/her
+medical fitness will be ascertained and thereafter only accused will be subjected
+to Narco-analysis Test. Reference can also be had to the conclusion found in "A
+report on Narco-analysis Test" submitted by the prosecution under the
+signature of the Director of Forensic Science Laboratories (Police Department),
+Madiwala, Bangalore, which is as under:
+ 08-08-2022 (Page 15 of 22)    www.manupatra.com           OP Jindal Global University        It should be unambiguously mentioned at this stage that the dosage
+        level required to take a person to the hypnotic stage is found to be 3-4
+        times smaller than those required for stages beyond. Therefore, this
+        low concentration of the drug used in the Narcosis/Narco analysis will
+        not have any adverse effect on any system of the body.
+    So, the argument cannot be upheld though, of course, necessary care-
+    precaution requires to be taken.
+    Para - 31 : It be gain said that test permitted by the impugned order assists the
+    commission of the murder of deceased Shivakumar and as such, it may evenfor the
+    show innocence of accused. For the aforesaid reasons and discussion made, it
+    is held at this stage that the impugned order does not violate the Article 20(3)
+    of the Constitution.
+In Dinesh Dalmia v. State reported in MANU/TN/8154/2006, the Madras High Court in
+paras - 14 and 17 observed as under:
+    Para - 14 : Huge amount has allegedly been misappropriated by the accused
+    and the investigating agency is completely in the dark as to the end use of such
+    a huge amount siphoned off by the accused. The Investigating Officer did not
+    use third decree methods to extract incriminating materials through the mouth
+    of the accused. Only a scientific test on the accused is prayed for by the
+    respondent-complainant. That the accused will face health hazard and his
+    physical frame will be endangered if he undergoes such scientific tests are
+    totally without any scientific basis. As rightly pointed out by the learned
+    Counsel for the respondent, the scientific tests are like taking MRI or CT Scan.
+    The scientific value of such tests and the credibility thereof will have to be
+    evaluated only during the course of trial. Unless such tests are conducted, the
+    Investigating Agency may not be in a position to come out with clinching
+    testimony as against the petitioner. Subjecting an accused to undergo such
+    scientific tests will not amount to breaking his silence by force. He may be
+    such tests is quite voluntary. Therefore, such process does not amount toon during
+    compelling a witness to give evidence as against him.
+    Para - 17 : As the accused had not allegedly come forward with the truth, the
+    scientific tests are resorted to by the Investigating Agency. Such a course does
+    not amounts to testimonial compulsion. When there is a hue and cry from the
+    public and the human rights activists that the investigating sleuths adopt third
+    degree methods to extract information from the accuse, it is high time the
+    investigating agency took recourse to scientific methods of investigation. The
+    learned Additional Chief Metropolitan Magistrate, Egmore, Chennai, has granted
+    the relief as prayed for by the respondent herein to secure the ends of justice.
+    Therefore, there is no warrant for upsetting the order passed by the Court
+    below.
+16. Now, in the backdrop of above, it is required to be considered by this Court
+whether performing/conducting of the Narco Analysis Test and/or Brain Mapping Test
+on the accused by itself would amount to violation of protection guaranteed under
+Article 20(3) of the Constitution of India. It is also required to be considered that at
+what stage the protection guaranteed under Article 20(3) of the Constitution of India is
+     08-08-2022 (Page 16 of 22)    www.manupatra.com           OP Jindal Global Universityrequired to be considered. Article 20 of the Constitution of India reads as under:
+    Article 20 : Protection in respect of conviction for offences:
+        i. No person shall be convicted of any offence except for violation of
+        the law in force at the time of the commission of the act charged as an
+        offence, nor be subjected to a penalty greater than that which might
+        have been inflicted under the law in force at the time of the
+        commission of the offence.
+        ii. No person shall be prosecuted and punished for the same offence
+        more than once.
+        iii. No person accused of any offence shall be compelled to be a
+        witness against himself.
+    Now, it is the contention on behalf of the petitioner-accused that
+    conducting/performing of the aforesaid two tests would be testimonial
+    compulsion and these tests, if compelled would amount to compulsion to make
+    a statement against himself/herself and therefore, hit by Article 20(3) of the
+    Constitution of India. Now, what is the Narco Analysis Test. In the Narco
+    Analysis Test, the subject's imagination is neutralized and reasoning faculty
+    affect by making him semi-conscious. The subject is not in a position to speak
+    up on his own but can answer specific and simple questions. In this state it
+    becomes difficult for him to lie and his answers would be restricted to facts he
+    is already aware of. The said test is conducted by administrating 3 gms of
+    Sodium Pentathol or Sodium Amytal dissolved in 3000 ml of distilled water and
+    is administered intravenously along with 10% of dextrose over a period of 3ture
+    hours with the help of an anesthetist. The subject is then interrogated by the
+    Investigating Agency in the presence of the doctors and as stated above, the
+    revelations made during this stage are recorded in both in video cassettes and
+    the report prepared by the experts is used in the process of collecting evidence
+    and to find out the truth and to further investigate into the crime. It is the user
+    of the statement recorded during the course of the aforesaid tests as evidence
+    against the accused the question with regard to protection under Article 20(3)
+    of the Constitution of India is required to be considered. As rightly observed by
+    the Bombay High Court in case of Ramchandra Ram Reddy (supra) in order to
+    invoke Article 20(3) of the Constitution of India, the following things must
+    happen.
+        1. There should be formal accusation of commission of any offence.
+        2. The accused of such formal accusation should be compelled to make
+        a statement.
+        3 . The statement so compulsorily made or evoked or provoked is
+        incriminating to the accused or maker thereof.
+        4. Result of such statement must be a testimony with these ingredients
+        as even though Article 20(3) are established, the protection under
+        testimonial compulsion will come into operation.
+        Thus, such statement recorded during the course of the Narco Analysis
+     08-08-2022 (Page 17 of 22)     www.manupatra.com           OP Jindal Global University        Test will attract bar of Article 20(3) only if it is inculpating or
+        incriminating the person making it and the said protection/guarantee is
+        required to be considered at the stage when the Investigating Agency
+        seeks to introduce such statement as evidence. Therefore, at the stage
+        of conducting/performing the Narco Analysis Test, the bar/protection
+        guaranteed under Article 20(3) of the Constitution of India is not
+        required to be considered and this is not the stage, at which, the
+        protection guaranteed under Article 20(3) of the Constitution of India is
+        required to be considered.
+17. As stated above, when after exhausting all the possible alternatives to find out the
+truth and nab the criminal/accused and when it is found by the prosecuting agency that
+there is no further headway in the investigation and they are absolutely in dark, there is
+a necessity of such a test. On the basis of revelations and/or the statement recorded
+while conducting/performing the Narco Analysis Test, the prosecuting agency may have
+some clues which would further help and/or assist the Investigating Agency to further
+Constitution of India and merely conducting/performing of a Narco Analysis Test on the the
+accused, the protection guaranteed under Article 20(3) of the Constitution of India is
+not violated. As stated above, only and only at the stage when the prosecuting agency
+is likely to use such statement as evidence and if it is inculpating and incriminating the
+person making it, it will attract the bar of Article 20(3). As rightly observed by the
+Bombay High Court in case of Ramchandra Ram Reddy (supra) whether the statement
+made during the course of the aforesaid test is inculpating or incriminating the person
+making it, can be ascertained only after the test is administered and not before. Thus,
+by conducting/performing the Narco Analysis Test itself would not tantamount to
+compulsive testimony or testimonial compulsion and the same would not amount to
+violation of Article 20(3) of the Constitution of India and if the statement recorded
+during the course of the aforesaid test is used against the accused, enough protection
+exists in the Criminal Procedure Code and/or Indian Evidence Act and recourse to which
+can be taken as and when the Investigating Agency seeks to produce such statement as
+evidence and merely on apprehension and/or presumption that the said statement could
+be used by the Investigating Agency against the person making it that by itself is no
+ground not to permit the Investigating Agency to conduct/perform the Narco Analysis
+Test upon the accused, more particularly, when the same is needed for the purpose of
+finding out the truth and to nab the criminal/accused who have committed offence and
+when the Investigating Agency is absolutely in dark. Under the circumstances, there is
+no   substance    in  the   contention/submission    of   the   petitioner/accused   that
+conducting/performing of the Narco Analysis Test by itself would be taking away the
+protection guaranteed under Article 20(3) of the Constitution of India.
+18. So far as Brain Mapping Test is concerned, it is also known as P-300 test. What is
+the Brain Mapping Test is already discussed hereinabove. What is received at the
+conclusion of such test is indication of the fact that the accused or the suspect does
+have or is in possession of knowledge about the subject on which he was questioned.
+There no verbal response from the witness. There is no statement coming out of this
+and therefore, there would not be bar of Article 20(3) of the Constitution of India so far
+as Brain Mapping Test is concerned.
+19. There is another reason also in favour of the prayer of the prosecuting agency for
+conducting/performing the aforesaid two tests. Under the provisions of the Criminal
+Procedure Code, the prosecuting agency is statutorily authorized to investigate the
+     08-08-2022 (Page 18 of 22)    www.manupatra.com           OP Jindal Global Universitycrime and to find out the truth and to reach to the accused persons who have committed
+serious offences, detail investigation is required. Investigating Officer is the master of
+the investigation and nobody can restrain and/or interfere with the investigation carried
+out by the Investigating Officer, not even the Magistrate till an appropriate report is
+submitted by the Investigating Officer as contemplated under the provisions of the
+Criminal Procedure Code. Thus, considering the various provisions under the Criminal
+Procedure Code right from Sections 156 to 159 and other related provisions, collection
+of evidence by the police officer is permitted under the Law. Conducting the aforesaid
+tests on accused is to be considered as process of collection of such evidence by the
+Investigating Agency. The aforesaid two tests are scientific methods in furtherance of
+the investigation. The field of criminology has expended rapidly and new techniques
+and methods are used for committing the crimes and offences and the demand for
+supplemental methods of detecting deception and improving the efficiency of
+interrogation have increased concomitantly. Thus, aforesaid tests for criminal
+interrogation is a valuable technique which would help the Investigating Agency to
+further investigate the crime when the Investigating Agency finds itself clueless and
+there is no further headway in the investigation. The Investigating Agency cannot be
+prevented to interrogate the accused at the stage of investigation and restraining the
+Investigating Agency to further investigate the crime through the aforesaid two tests
+would tantamount to interfere with the right of the Investigating Agency to investigate
+the crime of which it is statutorily authorized.
+20. Now, it takes me to the next question whether before conducting/performing
+aforesaid two tests, the consent of the subject is required? In other words, whether in
+absence of consent of the accused person, the aforesaid two tests are permissible? As
+held merely conducting of or performing of the aforesaid two tests on the accused
+would not take away the protection guaranteed under Article 20(3) of the Constitution
+of India and the said aspect is not required to be considered at the time of
+performing/conducting the aforesaid two tests and only when the statement which has
+been recorded during the course of the Narco Analysis Test, if it is used against the
+person as evidence at that stage, the same is required to be considered. Therefore, the
+question of consent at the stage of conducting/performing the aforesaid two tests is not
+required to be considered. As stated hereinabove, conducting/performing of the
+aforesaid tests is a part of investigation and for the investigation by the Investigating
+Agency the consent of the accused is not required, otherwise the Investigating Agency
+will not be in a position to further investigate the case, if the consent of the accused is
+required. At this stage, it is also required to be noted that the accused has not allegedly
+come forward with the truth and therefore, scientific tests are resorted to by the
+Investigating Agency. When the accused/person has not told the truth during the
+investigation, naturally, that accused/person would not be voluntarily giving consent for
+the aforesaid tests as he is always apprehensive that if the aforesaid two tests are
+conducted than the same might go against him therefore, he is bound to not give
+consent. Even it is not expected from a person/accused to give consent for the aforesaid
+two tests when he has not come forward with the truth. As stated above, the aforesaid
+two tests are the scientific methods of investigation and are the part of investigation.
+There is no provision under the Criminal Procedure Code to have the consent of the
+accused before or during the investigation. It is also to be noted that before subjecting
+the accused to Narco Analysis Test his/her mental fitness will be ascertained and
+thereafter only accused will be subjected to Narco Analysis Test. The dosage level
+required to take a person to the hypnotic stage is found to be 3-4 times smaller than
+those required for stages beyond. Therefore, this low concentration of the drug used in
+the said test will not have any adverse effect on any system of the body. Necessary
+precautions are always taken by the medical experts at the time of examination and the
+     08-08-2022 (Page 19 of 22)    www.manupatra.com           OP Jindal Global Universitydoctors   and   anesthetists   and   the   experts   are   present   at   the   time   of
+conducting/performing such test. Under the circumstances, the contention on behalf of
+the petitioner-accused that before conducting/performing the aforesaid two tests, the
+consent of the accused person who will be subjected to the aforesaid tests is required
+cannot be accepted and the answer to such question is in negative.
+21. Now, so far as reliance placed upon the Law Commission's Report as well as the
+guidelines issued by the National Human Rights Commission are concerned, it appears
+that the question which has been considered by the Law Commission was that whether
+the aforesaid tests should be made compulsorily for which a provision is to be made in
+the Criminal Procedure Code and if such a provision is made in the Code, the protection
+guaranteed under Article 20(3) of the Constitution of India would be violated or not. On
+considering the entire Report of the Law Commission, it appears that need of the
+Investigating Agency to further investigate the crime and to find out the truth has not
+been considered and has not been focused. This Court has already discussed
+hereinabove the need for such a test by the Investigating Agency and whether
+protection guaranteed under Article 20(3) of the Constitution of India. So far as reliance
+placed upon the guidelines issued by the National Human Rights Commission is
+concerned, as discussed hereinabove, while conducting/performing the aforesaid two
+tests due care is always taken by the medical experts and before subjecting the accused
+to Narco Analysis Test, his/her medical fitness will be ascertained and necessary care
+and precautions are taken by the medical experts at the time of examination.
+22. So far as the decision relied upon by the learned Senior Advocate appearing on
+behalf of the petitioner-accused are concerned, in view of the discussion hereinabove
+and the subsequent amendment in the Criminal Procedure Code, the aforesaid decisions
+would not be helpful to the petitioner-accused.
+23. Now, so far as the contention/grievance made by the learned advocate appearing
+for the petitioner that though it was pointed out before the Revisional Court that the
+identical question is pending before the Hon'ble Supreme Court, which is referred to the
+Larger Bench and the same has not been dealt with and considered by the Revisional
+Court is concerned, at the outset, it is to be noted that such a grievance is not made in
+the present petition. There are no pleadings in the petition that the aforesaid
+submissions were in fact made but the same has not been considered and/or dealt with
+the by the Revisional Court. It might be that in the revision memo such a ground might
+have been taken but many a times so many grounds are taken in the memo but they are
+not argued and/or submissions are not made before the Court. If such a contention is
+raised and argued before the learned Revisional Court and the same has not been dealt
+though argued is not considered. Thus, it can be presumed that such a such a submission
+contention/submission might have been raised in the memo of revision but might not
+have argued. It is true that whenever submissions are made and/or contentions are
+raised, the Court is required to consider and deal with the same and it must be reflected
+in the judgment that said submissions/contentions has been dealt with. As stated
+above, in absence of any grievance made in the petition, the contention of the petitioner
+cannot be accepted.
+2 4 . As stated above, Shri Nanavati, learned Senior Advocate appearing for the
+petitioner - accused has also tried to submit that as the question is pending before the
+Hon'ble Supreme Court and is referred to the Larger Bench, performance of the
+aforesaid two tests on the petitioner should be refused and/or the present petition be
+     08-08-2022 (Page 20 of 22)    www.manupatra.com           OP Jindal Global Universitykept pending. As stated above, thrice this Court adjourned the matter at the instance of
+the learned Senior Advocate appearing on behalf of the petitioner so as to enable the
+petitioner to move an appropriate application before the Hon'ble Supreme Court for
+transfer of the present proceedings and on the last occasion it was also agreed by the
+learned Counsel appearing on behalf of the petitioner that if no orders are obtained, he
+will proceed further with the matter and make submissions on merits. As stated above,
+it is reported that the petitioner is not desirous of submitting an appropriate application
+for transfer before the Hon'ble Supreme Court and that is how this Court has taken up
+the matter and considered the same on merits. It is also required to be noted that
+conducting/performing of the aforesaid two tests are timely requirement, more
+particularly during the course of the investigation and even if after the period of 6
+months or so and/or after a long time, the said tests are permitted to be performed, the
+purpose for which the said tests are required would be frustrated. If the said tests are
+not permitted to be performed at an appropriate time and stage, the same would defeat
+the purpose for which the said tests are required to be performed i.e. to find out the
+truth to reach the real culprit and to further investigate the case. As stated above, there
+are so many proceedings pending in the State involving serious offences like
+Saurabuddin encounter case and the murder of his wife Kausharbibi and others. Where
+the questions with regard to conducting/performing of the aforesaid two tests are
+involved and in some cases the Investigating Agency have found themselves in dark and
+clueless, there is necessity of conducting the aforesaid tests and the proceedings are
+pending at different stages before the different Courts i.e. either at the stage of learned
+Magistrate and/or Revisional Court and/or before this Court and therefore, this Court
+has considered the case on merits.
+25. Now, so far as the contention on behalf of the petitioner that as such, the petitioner
+is charged only for the offences under Sections 212 and 506(2) of the Indian Penal
+Code which are trivial in nature and therefore, looking to the offences alleged, such a
+drastic tests are not required and the contention that the nature of offences alleged is
+also relevant consideration is concerned, it is required to be noted that the allegations
+against the petitioner are that the petitioner has committed offence of harboring and
+sheltering the accused persons who have committed murder and rape of a girl and that
+the further allegations are of criminal incrimination and abetment, therefore, the
+question is not of harboring and/or sheltering an ordinary accused but what is
+important is to which accused the petitioner has harbored and sheltered. Therefore, the
+contention on behalf of the petitioner that as the allegations against the petitioner are
+only for the offences under Sections 212 and 506(2) of the Indian Penal Code and the
+nature of offences are such which does not warrant such tests, cannot be accepted.
+Learned Counsel appearing on behalf of the petitioner is right in making submissions
+that the nature of offence alleged is a relevant consideration and the method adopted in
+commission of crime by one or more accused is also a relevant consideration for such
+tests.
+26. For the reasons stated above, it cannot be said that the learned Magistrate has
+committed any error and/or illegality in allowing the application of the prosecuting
+agency for conducting of the Narco Analysis Test and Brain Mapping Test upon the
+in confirming the said order. Under the circumstances, the present petition is required
+to be dismissed which is filed under Article 227 of the Constitution of India as there is
+no jurisdictional error much less an error of law committed by both the Courts below.
+Accordingly, this petition is dismissed.
+                                    FURTHER </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t> 05.08.2019
+                           </t>
+        </is>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>MANU/KE/3781/2019</t>
+        </is>
+      </c>
+      <c r="D45" s="0" t="inlineStr">
+        <is>
+          <t> Mohammed Haneef
+                                         </t>
+        </is>
+      </c>
+      <c r="E45" s="0" t="inlineStr">
+        <is>
+          <t> State of Kerala and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F45" s="0" t="inlineStr">
+        <is>
+          <t>COULD NOT FIND CASE NOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t> 17.07.2009
+                     </t>
+        </is>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>MANU/PH/0397/2009</t>
+        </is>
+      </c>
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t> Chandigarh Administration
+                                       </t>
+        </is>
+      </c>
+      <c r="E46" s="0" t="inlineStr">
+        <is>
+          <t> Nemo
+</t>
+        </is>
+      </c>
+      <c r="F46" s="0" t="inlineStr">
+        <is>
+          <t>Civil - Pregnancy - Medical Termination - Consent - Section 3(4) of the
+Medical Termination of Pregnancy Act, 1971 - One victim aged 19-20 years
+who was orphan and leaving in 'Nari Niketan', conceived second time due to
+rape by security guard - Initially, victim's first pregnancy was medically
+terminated by Appellant on advise of medical board - As second time victim
+was again pregnant, hence, present Petition as PIL praying for medical
+termination of her pregnancy - Held, victim can not be said to have consented
+for retention of pregnancy caused by brutal act of rape - Inference of consent
+of victim is highly deceptive and not based upon her knowledge regarding
+present or future implications, responsibilities and social fall-outs -No reason
+to doubt that continuation of pregnancy shall constitute grave injury and may
+lead to more deterioration in mental health of victim - Petitioner directed
+Administration to act promptly and forthwith medically terminate pregnancy
+of victim - Petition disposed of accordingly
+                                   </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t> 09.06.2009
+                      </t>
+        </is>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>MANU/PH/0290/2009</t>
+        </is>
+      </c>
+      <c r="D47" s="0" t="inlineStr">
+        <is>
+          <t> Chandigarh Administration
+                                        </t>
+        </is>
+      </c>
+      <c r="E47" s="0" t="inlineStr">
+        <is>
+          <t> Nemo
+</t>
+        </is>
+      </c>
+      <c r="F47" s="0" t="inlineStr">
+        <is>
+          <t>Civil - Pregnancy - Termination of - Section 3 of Medical Termination of
+Pregnancy Act, 1971 - Victim was mentally retarded girl and was inmate of
+nari niketan - Victim was raped and became pregnant - As victim have no
+relative, present petition filed by administration for medical termination of
+pregnancy of victim - Held, Section 3 of Act provide that Court appoint
+guardian of mentally retarded major pregnant woman for purpose of deciding
+termination of her pregnancy in her best interest - Accordingly, Petitioner was
+directed to appoint guardian for victim and to provide proper treatment to
+victim - Petition accordingly, disposed of
+                                    </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t> 15.04.2021
+                   </t>
+        </is>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>MANU/GJ/0520/2021</t>
+        </is>
+      </c>
+      <c r="D48" s="0" t="inlineStr">
+        <is>
+          <t> Riyazbhai Abdulkadarbhai Memon
+                                          </t>
+        </is>
+      </c>
+      <c r="E48" s="0" t="inlineStr">
+        <is>
+          <t> State of Gujarat
+</t>
+        </is>
+      </c>
+      <c r="F48" s="0" t="inlineStr">
+        <is>
+          <t>COULD NOT FIND CASE NOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t> 03.01.2022
+                            </t>
+        </is>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>MANU/OT/0006/2022</t>
+        </is>
+      </c>
+      <c r="D49" s="0" t="inlineStr">
+        <is>
+          <t> The State
+                                     </t>
+        </is>
+      </c>
+      <c r="E49" s="0" t="inlineStr">
+        <is>
+          <t> Rajashree and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F49" s="0" t="inlineStr">
+        <is>
+          <t>Criminal - Acquittal or Conviction - Negligence for - Sections 34, 202 and
+304A of Indian Penal Code, 1860 (IPC) and Section 255 of Code of Criminal
+Procedure, 1973 (Cr.PC) - Whether prosecution is able to proved case for
+conviction of accused for offence punishable under Sections 202, 304A r/w 34
+of IPC or there is ground for acquittal under Section 255 of Cr.PC? - Held,
+documentary evidence produced by prosecution is clearly established that
+accused No 1 to 3 conducted laparoscopic operation of deceased S by making
+4 holes on stomach there was injury to artery and vein which were not
+sutured bleeding will be there continuously in peritoneal cavity due to which
+deceased S condition goes for other complication like lungs, kidney, heard and
+brain will be affected - Moreover there will be collection of water in lungs
+then heart is going to fail slowly and because of that, cutting failure, brain
+will not work and because of that reasons S was dead - Evidence also
+discloses that, accused No. 1 to 3 conducted surgery and accused No. 4 helped
+accused No. 1 to 3 knowingly accused No. 1 to 3 have committed an offence,
+intentionally omits to give information to husband and relatives of deceased S
+which he is legally bound to give - To prove negligence on part of accused No.
+1 to 4 prosecution has to prove its case through medical evidence and not
+required evidence of independent eyewitness in this case prosecution by
+examining PW5 to 8 and 10 proved that accused No. 1 to 3 have operated
+deceased S in hospital of accused No.1 and Report corroborates evidence of
+PW1 to 4 regarding surgical suture wound -Therefore prosecution has
+successfully proved guilt of accused No. 1 to 4 beyond all reasonable doubt
+34 of IPC - Therefore, prosecution has prove negligence on part of accused
+No. 1 to 3 and has prove destruction of evidence on part of accused No. 4
+beyond all reasonable doubt and hence benefit of doubt is not extended to
+accused persons - In view of above Acting under Section 255(2) of Cr.PC
+accused No. 1 to 4 are hereby convicted for offences punishable under Section
+304-A and 202 r/w Section 34 of IPC - Accused No. 1 to 3 are hereby
+sentenced to undergo SI for Two years and fine of Rs. 10,000' each for
+offence punishable under Sec. 304 A r/w 34 of IPC - Accused No. 4 is hereby
+sentenced to undergo SI for Six month and fine of Rs. 5,000' for offence
+     08-08-2022 (Page 1 of 22)www.manupatra.com       OP Jindal Global Universitypunishable under Section 202 r/w 34 of IPC - In default of payment of fine he
+shall undergo S.I. for One month - Their bail bond and surety bond shall be in
+force for 6 months in view of amended provision under Section 437(A) of
+Cr.PC. [37],[38]
+                                      JUDGMENT
+Abdul Khadar, 2nd Addl. Senior Civil Judge &amp; JMFC
+1. This case is registered by New Town Police Station against the accused persons for
+the alleged offence punishable 304-A, 202 R/w Sec. 34 of IPC.
+2. The brief facts of the case of the prosecution is as under:
+    On 12-10-2014 at about 1.00 p.m. within the jurisdiction of the New Town
+    Police Station at J.P. Nagar Shusrut Nursing Home belongs to Sri Biradar, the
+    sister of CW.1 by name Smt. Sampavathi went to the hospital by walk and
+    admitted for laparoscopic assisted vaginal hysterectomy operation. The Accused
+    No. 1 to 3 have conducted the operation to the deceased Sampavathi without
+    maintaining the ventilator facility in the hospital of accused No. 1 and also not
+    followed the pre-operation procedures for a period of 5 hours and they have
+    not given any intimation about her health condition to the CW.1 to 3 and 7 to
+    13. Thereafter the accused No. 1 to 3 are shifted the deceased Sampavathi to
+    the hospital of accused No. 4 as there is no facility of ventilator support and
+    intensive care unit in the hospital of accused No. 1 and the accused No. 4 get
+    admitted the deceased Sampavathi in his hospital at about 10.00 p.m., with an
+    intention to screening the accused No. 1 to 3 from their negligent act and made
+    5-00 a.m., to the CW.1 to 3 on 13-10-2014, even though she died before that.
+    Therefore the accused No. 1 to 3 have committed gross negligence while
+    conducting the operation and accused No. 4 intentionally made omission to give
+    information to the CW1 to 3. In this regard the brother of deceased
+    Sampavvathi lodged complaint on 13-10-2014 at about 8.45. a.m., before the
+    New Town police against the Accused No. 1 to 4. CW.24 on receiving the
+    written complaint from the C.W.1 he registered case in their Crime No.
+    315/2014 for the offences punishable U/S. 304(A) and 202 R/w 34 of IPC and
+    preferred the FIR sent it to the Court and his superior officers and set the
+    criminal law into motion.
+3. On the same day CW.24 visited the Shusrut Nursing Home and Biradar Hospital, at
+about 10.30. a.m., he shifted the dead-body of Sampavathi to the Government Hospital,
+Mortuary in ambulance and filed requisition to CMO Sujatha requesting her to keep the
+dead body in the mortuary. On the same day he conducted inquest panchanama of
+deceased Sampavathi in the presence of CW. 4 to 6 at about 11-00 a.m., to 1 p.m. at
+that time he noticed that on the stomach of deceased 2 inches 4 holes are found.
+Therefore, he send the dead-body to the postmortem through P.C. 1080 and with a
+requisition and after postmortem, he handed over the dead-body to the relative of the
+deceased Sampavathi. On the same day at about 4. p.m. to 5 p.m. he conducted spot
+mahazar in the presence of C.W. 2 and 3 at Biradar Hospital. On 14-10-2014 he
+recorded the statement of CW.2, 3 and 7 to 13. On the same day he issued notice to
+Accused No. 1 calling her to produce treatment particulars of deceased Sampavathi and
+accused No. 1 furnished the details as sought by along with copy of bail order to him
+and he received the same and kept in the record. He handed over the case records to
+     08-08-2022 (Page 2 of 22)    www.manupatra.com          OP Jindal Global UniversityCW.25 for further investigation. CW.25 in his investigation received the Postmortem
+Report and also sent the Vishra which are collected at the time of postmortem to the
+FSL through CHC 644 and received the acknowledgement from the CHC 644 and
+received the FSL report and also wrote a letter to the Superintendent of BRIMS to know
+the cause of death of Sampavathi dated 23-02-2015, 02-03-2015 and received the final
+opinion of expert on 06-03-2015 for cause of death and kept the same in the file. On
+the same day he received the case sheet of Shree Hospital again he wrote a letter to
+District Government Surgeon give opinion where the accused No. 1 to 4 committed
+gross negligent to provide treatment to the deceased Sampavathi. On 12-01-2016
+Medial Superintendent submitted committee members opinion and received final opinion
+from the medical Superintendent on 29-04-2016 and after completion of the
+investigation, he filed the Charge Sheet against the Accused No. 1 to 4.
+4 . After fling of charge sheet, this court was taken cognizance for the offenses
+punishable under section 304A, 202 r/w 34 of I.P.C. After service of summons the
+accused have appeared through their counsel, before this court and they are released on
+under section 207 Cr.P.C. and by securing Accused the accusation for the offencested
+punishable under sections 304A, 202 r/w 34 of I.P.C. were framed and read over to
+him, he pleaded not guilty and claims to be tried.
+5 . In order to establish the alleged guilt of the accused, the prosecution in all has
+examined 11 witnesses at PW1 to 11 and got marked 34 documents as per Ex. P1 to
+P34. By confrontation during the course of cross examination marked 5 documents at
+Ex. D1 to D5. After closure of evidence of the prosecution, the accused were examined
+as contemplated u/s. 313 Cr.P.C. and their statement was recorded. The accused have
+totally denied the case of the prosecution and in defense Accused No. 3 himself
+examined as DW1 and marked 3 documents at Ex. D1 to D3.
+6. Heard on both the sides.
+7. The following points would arise for my consideration are:
+    1. Whether the prosecution proves beyond all reasonable doubts that, on 12-
+    10-2014 at about 1 p.m. the deceased Sampavathi went by walk along with
+    C.W. 1 to 3, 7 to 13 to the Hospital of Accused No. 1 by name Sushruth Nursing
+    Home for laparoscopic assisted vaginal hysterectomy operation where the
+    accused No. 1 to 3 without maintaining ventilator facility and not following pre-
+    operation procedure by negligently conducted operation for a period of 5 hours,
+    thereafter she has been shifted to accused No. 4 hospital without intimating the
+    health condition of deceased to her family members and she died due to
+    complications of Laparoscope assisted Vaginal Hysterectomy and thereby the
+    accused No. 1 to 3 have committed the offence punishable U/S. 304-A R/w 34
+    of IPC?
+    2. Whether prosecution further proves beyond all reasonable doubt that on the
+    above said date, time and place, the accused No. 4 with an intention to
+    screening the act of accused No. 1 to 3 made disappearance of evidence of
+    offence and thereby the accused No. 4 has committed the offence punishable
+    U/S. 202 R/w 34 of IPC?
+    3. What Order?
+8. My findings to the above points are:
+     08-08-2022 (Page 3 of 22)    www.manupatra.com          OP Jindal Global University                                       REASONS
+Point No. 1 and 2-
+9. As point Nos. 1 and 2 are interlinked each other and discussion of one point has its
+direct bearing on the discussion of another point. Hence, for the purpose of brevity and
+convenience and with a view to avoid repetition of discussion of evidence, I discuss
+these points jointly.
+10. In so far as the oral evidence are concerned prosecution has examined as many as
+11 witnesses as per PW1 to PW11. PW1 Veershetty is the Spot Mahazar Witness, PW.2
+Jagannath is the complainant, P.W.3 Vijaykumar is the Inquest Mahazar Witness, P.W.4
+Ghaleppa is the husband of deceased Sampavathi, P.W.5 Dr. Sunil who conducted the
+postmortem of deceased Sampavathi, P.W.6 Dr. Shivakumar Shetkar, who given final
+opinion for the cause of death of deceased Sampavathi, P.W.7 Dr. Madana Vaijinath and
+P.W.10 Dr. Sangamesh Kunkeri are the member of committee formed by the P.W.6 and
+they given their individual opinion for the cause of death of deceased Sampavathi.
+P.W.8 Dr. Uma Deshmukh who given finding regarding the case sheet of Shusrut and
+Shree Hospital. P.W.9 is the ASI Madappa who registered the case and partly
+investigated the case. P.W.11 Santhosh L.T. P.S.I., who investigated the case and
+submitted the charge sheet against the accused persons. The documents Ex. P1 to P34
+are given in annexures.
+11. Let me analyze how for the prosecution is successful in proving the guilt of the
+accused to the hilt with the assistance of these oral and documentary evidence.
+12. Let me take the evidence of the P.W.1 spot mahazar witness, he deposed that, on
+13-01-2014, at about 4 p.m., the New Town police have called him and CW2 and taken
+them to the Accused No. 1's hospital, on account of death of Sampavathi who was the
+sister of CW.1 as she was died at the time of the operation. The police conducted the
+Spot panchanama in their presence and the said spot has been shown by the C.W.1
+Jagannath to the police and the spot panchanama conducted inside the operation
+theater of Shshrut Nursing Home as the said document is marked at Ex. P1 and he know
+the contents of the Ex. P1. He identified his signature and the same is marked at Ex.
+P1(a). This witness cross examined by the counsel for the accused in length but nothing
+worth while elicited from his mouth to show that he is not present at the time of spot
+mahazar and he signed at police station. In the cross-examination he stated that, he
+was went to the house of CW7 on he date of incident where police called him to act as
+pancha to the spot mahazar. He admits that, the C.W.1 is his relative, the deceased
+Sampavathi died on 12-10-2014 and same day conducted the burial of dead body and
+he knows the C.W.2. CW7 was the son his elder brother. Hospital consisting one floor
+and towards east operation theater is exist Further deposed that at the time of mahazar
+himself CW2 and police were present. The police have drawn the Mahazar, but he do
+not know the name of police. He denied that, he is not present at the time of drawing of
+Spot Panchanama and he signed on the Ex. P1 at Police station. In the cross-
+examination of the Accused No. 2, he admits that, he himself and the C.W.7 were doing
+tailoring work and at the time of Panchanama, the dead-body was not present in the
+hospital. He denied that, himself and the C.W.7 in order to grab the money from the
+accused No. 1, they blackmailed and filed this false complaint. He is from Aurad. He
+     08-08-2022 (Page 4 of 22)     www.manupatra.com          OP Jindal Global Universityadmits that, the accused No. 3 is running medical shop inside the hospital. He denied
+that, in order to help the C.W.1, he is deposing false evidence. The evidence of PW.1 is
+sufficient to prove the spot mahazar in accordance with law.
+13. Let me take the evidence of the P.W.2, who is the complainant and brother of
+deceased Sampavathi, he deposed that, his sister Sampavathi got married about 30
+years back with C.W.7 Ghaleppa. They had two children. She had uterus problem for
+that she was taking treatment in the hospital of 1st Accused. On 12-10-2014 at about 1
+p.m., his sister went by walk to the accused No. 1 hospital for laparoscopic operation
+along with himself C.W. 7 to 10 and admitted her. The Doctors told him that they would
+conduct operation at about 4-00 p.m. and they demanded Rs. 25,000/- treatment
+charges out of Rs. 25,000/- Rs. 10,000/- was received as advance from him, but they
+have not given receipt. Further deposed that accused No. 1 to 3 taken the deceased
+Sampavathi to the operation theater at about 4 p.m. thereafter accused No. 1 and 3
+came outside the OT at about 7 p.m., and stated that the water is filled inside the lungs
+of Sampavathi BP also come down and it is not possible to conduct laparoscopic
+and you have to pay additional fee of Rs. 5000/-, as he paid Rs. 5,000/- and also tookrs
+the medicines as per the prescriptions given by the doctor. Further deposed that at
+about 8 p.m. he went to inside the OT and saw that the Accused No. 1 sitting and the
+body of the Sampavathi having blood stained when accused No. 3 came and sent them
+to outside. On enquiry they have not stated the health condition of Sampavathi and till
+9.45 accused No. 1 not sent other doctors from OT. Thereafter accused have taken the
+Sampavathi on stutter and shifted body to the accused No. 4 hospital in a private
+ambulance saying that Sampavathi health condition is very serious and they have not
+having ventilator and ICU facility. When they reached accused No. 4 hospital where
+accused No. 4 stated him that Sampavathi health condition is very serious as they has
+to the assistance of expert doctors from Yashoda Hospital Hyderabad and also called,
+the doctors of Yashodha Hospital came on 13-10-2014 at about 2 a.m., to Shree
+Hospital and examined Sampavathi and they told them that Sampavathi is dead many
+hours back and they collected Rs. 12,000/- fees. Further deposed that till 5.00 a.m., he
+bring the medicines as per the prescriptions of accused No. 4. Thereafter the accused
+No. 4 declared death of Sampavathi at about 5 a.m. He stated that the accused No. 4
+knowing fully well that the Sampavathi died in the hospital of accused No. 1 in order to
+save them and to grab money from the complainant he intentionally declared the death
+at about 5 a.m. He deposed that the accuse No. 1 to 3 have made gross negligence
+during laparoscopic operation by making holes on the stomach and not properly sutured
+due to which blood filled on the lungs as result she died in the hospital. In this regard
+he lodged complaint against accused No. 1 to 4. He identified his signature on
+complaint at Ex. P2. Further deposed that on the same day, at about 4 p.m., Police
+came to the hospital, and in the presence of C.W.2 and 3 they have conducted the spot
+panchanama and he also given the further statement on 14-10-2014 and he identified
+the Accused No. 1 to 4 before the court.
+14. This witness has been cross-examined by the counsel for the accused in length, but
+nothing has been elicited form his mouth to show that his evidence is not trust worthy
+laparoscopic problem and she is taking treatment from the 1st Accused and this facts
+also known to her husband CW7. He pleads ignorance that, since two years, his sister
+got the laparoscopic problem and she was taking treatment from the Accused No. 1
+once in two months. He denied that Sampavathi became serious as she was taken to the
+hospital. He admits that, in the complaint, he has not mentioned the name of the
+Accused No. 2, he denied that, by colluding Police have created the medical documents.
+     08-08-2022 (Page 5 of 22)     www.manupatra.com          OP Jindal Global UniversityHe admits that, at the time of operation, the doctors have taken the patient inside the
+operation theater. He admits that, at the time of the Panchanama, the Police have not
+seized any articles inside the operation theater. He denied that, the Mallkarjun
+Kamashetty, Yogesh Kamashetty have conducted the operation and the accused No. 1
+was not present at the time of operation. He admits that he has not mentioned the name
+of accused No. 2 in his further statement. He admits that C.W. 2, 7 to 13 are present at
+the time operation. He denied that, in order to claim compensation before the consumer
+forum, they have filed a false complaint against the accused persons.
+15. He also denied that, he is deposing false since the accused No. 1 not did the
+operation of deceased Sampavathi. He pleads ignorance that, before two years back, his
+sister suffering from laparoscopic disease and his brother-in-law not stated that, he is
+showing his sister in the hospital of 1st Accused since two years. He admits that, before
+conducting operation, he has obtained the consent from the husband of the deceased
+and he also attested the signature on the consent form and he saw the patient in
+outside the hospital and he has not heard or seen in the operation theater. After
+situate at Navadgeri and the house of Saibanna is situate adjacent to the hospital andl
+he admits that his signature is not found on the case sheet maintained by the Shusrut
+Nursing Home dated: 12-10-2014 and they taken the dead body at about 4 p.m. on 13-
+10-2014 in the Government Hospital prior to lodging of the complaint and he do not
+know what are the care taken by the doctors to safeguard the life of the deceased
+Sampavathi. He denied that, after the death of Sampavathi, he blackmailed the Accused
+No. 1 to 4 and he has filed a false complaint and also he is demanding money from the
+doctors and he denied that, the Accused No. 1 to 4 not shown any negligent act while
+operating the deceased Sampavathi and they are not responsible for the cause of death.
+He admits that accused No. 1 alone conducted the operation of Sampavathi and she
+herself shifted the deceased to accused No. 4 hospital with the assistance of accused
+No. 3 saying that there is no facility of ventilator. He pleads ignorance that accused No.
+4 provided ventilator to deceased Sampavathi. He admits that accused No. 4 examined
+Sampavathi and stated the health condition of Sampavathi is critical one to him, after
+that, the death of Sampavathi was declared at about 5 a.m. He denied that accused No.
+4 has made maximum effort to save the life of Sampavathi. On perusal of the evidence
+of PW.2 it crystal clear that, the deceased Sampavathi having laparoscopic problem
+since 2 years and she was taking treatment from accused No. 1 and the deceased was
+admitted on 12-10-2014 for operation as per the say of accused No. 1 and she did
+operation with the assistance of accused No. 3 by taking consent from the husband of
+the deceased. It is not in dispute that accused No. 1 conducted surgery with the
+assistance of accused No. 2 and 3 and during the time of surgery she died due to
+pulmonary oedema. The counsel for the accused taken defense that the CW.1 has with
+an intention to grab the money form the accused he filed false complaint against them
+and he had special interest in this case, as the claim petition is pending in the
+Consumer Forum and hence the evidence of PW2 is not trustworthy. No doubt the
+doctors have made all efforts to save the life of the Sampavathi after complications and
+not at the initial stage. Hence, the evidence of PW.2 is avail to the case of the
+prosecution to prove the negligent act of the Accused No. 1 to 4.
+16. Another witness by name Vijaykumar has been examined as PW.3, he deposed that,
+he know the CW.4 and also the deceased Sampavathi. On 13-10-2014 at about 11 p.m.
+the New Town Police have conducted the inquest panchanama at mortuary of
+Government Hospital, Bidar, where he found that, on the stomach of the dead-body of
+Sampavathy 2 inches 4 holes and the Police have told him that, the said holes are made
+for the purpose conducting operation and in which there is a bleeding and he identified
+     08-08-2022 (Page 6 of 22)     www.manupatra.com          OP Jindal Global Universityhis signature as the same is marked at Ex. P3. In the cross examination, he admits that,
+he do not knows C.W.1 and he used to stitch the clothes once in a year in the shop of
+C.W.7. He himself went to the hospital and before Postmortem he has not visited the
+Biradar or Shree Hospital. As per the say of the police, he signed the Ex. P3. It is
+suggested that on the stomach of the deceased he found four holes and no other
+external injuries are found. The Police also seized the clothes and other things from the
+dead body and the Police have not recorded his statement. He admits in Column No. 13
+of Inquest there is a recital that, one Dr. Rajashree Biradar and Kamashetty were
+operated the deceased Sampavathi and due to their negligent her death was occurred
+and some issue arises regarding doctors negligence, the deceased Sampavathi was
+died. The evidence of PW3 is quite clear that in his presence police drawn inquest of
+deceased Sampavathy and the accused have not sutured the holes after surgery as
+bleeding on the holes. Hence, the evidence of PW.3 is avail to the prosecution to prove
+the inquest panchanama.
+17. Then the evidence of PW.4 Galeppa who is the husband of deceased Sampavathi,
+his sister-in-laws. Before 30 years back he married with Sampavathi and through their
+marital life, they begotten two children. He further deposed that the deceased
+Sampavathi was having some periods problems as he is showing her in the Accused No.
+1 hospital and also providing treatment. On 05-09-2014, the Accused No. 1 treated his
+wife after examination she gave some medicines and after that, the said problem was
+cured. After one month, again she was taken to the Accused No. 1 hospital where, the
+Accused No. 1 opined that, she had uterus problem as she needs laparoscopic operation
+if not done it dangers her life and at that time the accused No. 1 was pregnant. He
+agreed for the operation and on 12-10-2014 he taken his wife by walk at about 1 p.m.,
+to the hospital of accused No. 1, later CW.1, 8 to 10 are came to the hospital. The
+Accused No. 1 agreed to operate the deceased at 4 p.m. with the assistance of Vaijinath
+Biradar and Saibanna. The expenses for the operation she demanded Rs. 25,000/- out
+of that, she has received Rs. 10,000/- as advance, but she has not given any receipt.
+Thereafter, they shifted the deceased Sampavathi to the operation theater. He further
+deposed that, at about 7 p.m., the Accused No. 1 and 3 came inside the O.T. and told
+that, it is not possible to conduct laparoscopic surgery as the water filled inside the
+lungs and her B.P. was up and down hence they have to conduct open surgery as they
+has to taken expert doctor and they need Rs. 5,000/- fee and obtained the same and
+also bring the medicines from the outside. She waited till 8 a.m. in front of operation
+theater but the doctor have not stated the health condition of Sampavathi. Thereafter,
+himself and Vidyavathi went inside the operation theater where the Sampavathi body
+blood stained and on the stomach four holes found in which blood was coming. The
+Accused No. 1 sitting by holding his hand on her head at that time, Accused No. 3 came
+and sent them outside that OT till 9:45 p.m. the Accused No. 1 to 3 have not called
+other doctors then they shifted Sampavathi on stretcher where he found the body of
+Sampavathi covered by cloth and her body was cold and she was not breathing. When
+he asked the Accused No. 1 to 3 called them there is no ventilator facility in their
+hospital hence, they shifting to Shree Hospital and in private ambulance they shifted
+Sampavathi shifted to the hospital of Accused No. 4. Where he admitted and on
+examination, he found the serious condition hence he called the doctors from Yashodha
+Hospital, Hyderabad. They came at about 2 a.m. on 13-10-2014 and examined the
+Sampavathi, they told that, the Sampavathi was died before some hours back and he
+received Rs. 12,000/- and paid to the doctors of Yashodha Hospital. Thereafter, the
+Accused No. 1 till 5 a.m. given treatment. When they demanded the health condition of
+Sampavathi then they declared she was died and the Accused No. 1 to 3 at the time of
+operation they cut the vain inside the stomach due to the bleeding water filled in the
+     08-08-2022 (Page 7 of 22)    www.manupatra.com          OP Jindal Global Universitylungs the accused not sutured the holes due to the negligent act, the Sampavathi was
+died, then they shifted the body to the Accused No. 1 hospital at about 7 a.m. on 13-
+10-2014. Thereafter, C.W.1 lodged complaint against the accused. The Police visited
+hospital and shifted the dead-body to the District Hospital, Bidar. In this regard, he has
+given statement before the Police. The prescription, Hematology Lab Report, Serology
+Lab Report, Chest X-ray Report, Sonographic Report, requisition slip and Sonographic
+film marked at Ex. P4 to P10.
+18. This witness cross-examined by the Counsel for the accused in length, but nothing
+has been elicited from his mouth to show that, the Accused No. 1 to 4 have conducted
+surgery with his consent and they made all attempts to save the life of Sampavathi. He
+admits that, the deceased Sampavathi was his second wife and since from one year,
+deceased having uterus problem. He denied that, at the time of admission to the
+hospital of 1st Accused, the Sampavathi health condition was critical. He admits that,
+Biradar Hospital having good reputation in Bidar. He pleads ignorance that the family
+members of the accused No. 1 are all doctors. He stated that before laparoscopic
+has not shown the said test reports and not taken any advise from the other doctors
+before conducting the operation of Sampavathi. He denied that, before conducting the
+operation, the Accused No. 1 had obtained his consent for any problem is happened
+during the surgery, they are not responsible. Further deposed that when he saw inside
+the O.T., the Accused No. 1 was operating the deceased Sampavathi in laparoscopic
+machine. He admits that, the doctors have made all efforts to save the life of the
+Sampavathi in humanity ground and after that he has not given the complaint against
+accused before the Police Station. He admits that, he filed claim petition claiming
+damages of Rs. 80,00,000/- against the accused persons before the Consumer Forum.
+He denied that in order to get compensation from the accused he deposing false
+evidence. He denied that, his wife not died on the fault of the accused No. 1 to 4 and
+she died other complications. He deposed that, the accused No. 1 hospital not having
+ventilator facility, due to which she died at the time of operation. He admits that, before
+operation, accused have told the health condition of Sampavathi and after obtaining
+consent and with signatures, they started operation. He stated that he has not
+accompanied with CW.1 at the time of lodging complaint and Police have not recorded
+his statement at that time. He admits that, since 1Â½ year his wife having menstrual
+cycle problem and the accused No. 1 herself treating the deceased and at the time of
+operation, the accused No. 1 was 8 months pregnant. On perusal of the evidence of
+PW.4, it is clear that, his wife was suffering from uterus problem and she was taken
+treatment for that at the hospital of Accused No. 1 since 2 years. As the accused have
+conducted the laparoscopic surgery of deceased Sampavathi by making hoes on the
+stomach and cut the main nerve not sutured due to which water filled inside the lungs
+and died complications of laparoscope assisted vaginal hysterectomy. The effort to save
+the life of the deceased Sampavathi after complications is no way helps the accused to
+prove their defence and the evidence of the PW4 is avail to the prosecution to prove the
+guilt of the accused persons.
+19. Then comes to the evidence of P.W.5 Dr. Sunil who is the professor and H.O.D. of
+deposed that, he conducted so many postmortem in his service. On 13-10-2014, at He
+about 1.30 p.m. he received the dead-body of Sampavathi in respect of Crime No.
+315/2014 to conduct the postmortem examination. Himself and Dr. Sudheer Kumatekar,
+Dr. Hemalatha, Dr. Sunilkumar C.A. conducted the Postmortem between 1:30 p.m. to
+2:30 p.m. On external examination he noticed body of female, well nourished and cold
+on body yellow printed Saree, green colour hospital gown. Rigor mortis generalized all
+     08-08-2022 (Page 8 of 22)     www.manupatra.com          OP Jindal Global Universityover the body. Postmortem lividity seen on back except pressure points and fixed. We
+noticed external injuries they are
+    1. Surgical suture wound in at peri umbilicus region of size 2 cms with one
+    intact suture. On cutting the suture wound is cavity deep.
+    2. Surgical suture wound on right lumber region of size 2 cms with one intact
+    suture on cutting the suture wound is cavity deep.
+    3. Surgical suture wound left lumber region of size 2 cms with one intact suture
+    on cutting the suture wound is cavity deep.
+    4. Surgical suture wound 3 cms below injury No. 3 in left region of size 2 cms
+    with one intact and the other parts are intact.
+20. So far as cause of death is concerned opinion is reserved till the chemical analysis
+and report of his to pathological examination. Accordingly, they have conducted the
+Postmortem and put their signatures and same was collected by the Police. Due to cut
+and partial cauterized infundibulo pelvic ligaments which is supplied by so many
+arteries and veins and also there is cutting of the cervix, in peritoneum area blood clots
+and fluid blood about 900 ml was collected. He identified his signature on Ex. P11 and
+the same is marked as Exp. 11(a). Thereafter he received Histopathology report on
+03/03/2015, chemical analysis report on 23/02/2015 and opined that, the cause of
+death is Complications of Laparoscope Assisted Vaginal Hysterectomy. The final report
+is marked at Ex. P12. He also identified the case sheet, the same is marked at Ex. P13.
+As per his opinion, there is a evidence of Laparoscope assisted vaginal Hysterectomy
+and the evidence of cut and partial cauterized infundibulo pelvic ligaments. Encircling
+ml. and both lungs are grossly congested and edematous because of this complications
+the patient was died.
+21. In the cross examination he admits that he is only expert of forensic medicine and
+not OBGY and the rigor mortis to indicate the determine the times sine death and on his
+examination he saw that the rigor mortis generalized all over the body. 12 hours after
+the death for full rigor mortis. Further he has not observed during postmortem the
+characteristics of pallor mortis, algor mortis and liver mortis. Further deposed that he
+has not mentioned in the postmortem report the changes of the colour of the face of
+dead body and he has not mentioned age of Injury No. 1 to 4 in the PME report. One of
+the complication is Laparoscope assisted vaginal procedure. Air gas embolism is
+possible by air but not by blood clot. There should be source of entry of the gas in the
+arteries then this phenomena may be possible and not completely block the blood flow
+to the lungs and no blood is clotted. He admits that in pulmonary air embolism the
+patient can be caused death. He denied that in pulmonary air embolism during
+laparoscope procedure it is commonly cut the reproductive organs to purpose of
+removing the uterus through bleeding may be possible internal organs. He admits that
+the heart large blood vessels were intact He denied that in pulmonary edema and gas
+embolism the blood clot in the brain. He admits that while laparoscopic surgery saline
+solutions used or administer through IV drip. He admits that fluid and blood is different
+and both are liquid forms. He denied that he has not made any effort to detect the
+carbon dioxide embolism in her heat while conducting PME and not opened the heart
+and there is no any injury or rapture to heart and large blood vessels. He denied that
+himself and CW14 to 16 have not conducted the PME. He denied that case sheet is
+mention in final opinion related to the OBGY witness voluntaries that it is related to the
+      08-08-2022 (Page 9 of 22)    www.manupatra.com           OP Jindal Global Universityhospital where patient was admitted. He admits that on gone through the document
+there is no excess anesthetic agent. Further deposed that rigor mortis start to develop
+after 4 hours of the death and generalized all over the body up to 12 hours. From 12
+hours to 24 hours to 36 hours after the death it start to pass of from head to foot with
+sighs of decomposition. While conducting the PME of Sampavathi rigor mortis
+generalized all over the body. He denied that, it is mandatory sought the opinion from
+the Karnataka Medical Council Bengaluru and Medical Council of India give the final
+opinion. He admits that in PME column No. 4 he has not exactly mentioned in
+peritoneum cavity presence of the blood clots and fluid blood and not sent the same to
+FSL. He admits that during Laparoscope surgery surgeon is used CO2 and anesthetic is
+used oxygen. He has not mentioned mesentery and omentum adhesion and old
+operation or old injuries in PME. He admits that doctor cannot declare the death of the
+patient and in medical terminology death is brain death. He denied that, the deceased
+Sampavathi died due to air/gas embolism and admits that, she died due to acute
+pulmonary edematous because it is one of the complication and complication means as
+per medical terminology the occurrence of two or more diseases in the same patient and
+one or more diseases concurrent with another diseases. He denied that he has given
+false report on the pressure of police and relative of deceased Sampavathi and given
+false evidence. He admits that any nature of injury or serious patient or any patient
+doctor will made efforts to save the life of patient and doctors will not show enmity
+towards he patient. He admits that any patient suffered disease of lesion or fibroid on
+the uterus and untreated for two years such patient condition is very critical and
+sensitive. Generally 4 holes are made during laparoscope surgery and the whole are
+denied that due to increase of blood pressure at that time there is possibility of fluid
+accumulation in the lungs. He admits that to remove the uterus during hysterectomy
+surgery all ligaments are needed to be cut and as per PME one ligament is cut. In
+normally during vaginal delivery blood loss is 500 ml and during Cesarean section 1000
+ml blood will be loss and during Cesarean hysterectomy surgery 1500 ml blood will be
+loss and he has not mentioned specific complication of laparoscope assisted vaginal
+hysterectomy in Ex. P12. This evidence of PW 5 is clear that the deceased Sampavathi
+was died due to Complications of laparoscope Assisted Vaginal Hysterectomy.
+22. Then the evidence of PW.6 Dr. Shivakumar Shetkar, who is Medical Superintendent
+of BRIMS, he deposed that, on 11-08-2015, the Investigation Officer has given
+requisition, requesting him to give opinion about the death of deceased Sampavathi was
+occurred due to complication of laparoscope assisted vaginal hysterectomy or not. After
+receiving the requisition, he endorsed and sent the details in this regard and on 27-08-
+2015. Again investigation officer has send the requisition along with 8 questions
+regarding the opinion about the death of Sampavathi along with PME, FSL and Case
+Sheet of Shusrut Nursing Home and Shree Hospital. After receiving the requisition on
+06-01-2016 he formed the experts committee consisting of 5 doctors who are the
+members of the committee to conduct enquiry on 12-01-2016. After forming the
+committee he has issued the notice to Accused No. 1 and 3 and the husband of
+deceased Sampavathi to attend before the committee on 12-01-2016. The proceedings
+was held and both the parties have attended before the committee and thereafter the
+case was posted on 19-01-2016. He wrote a letter to the PSI NTP requesting them to
+grant some time to give opinion. Om 14-03-2016 he submitted the Confidential Report
+along with the expert committee opinion.
+23. On 23-03-2016, against the investigation officer wrote a letter to give the opinion
+specifically. On 29-04-2016 he issued Final Opinion about the death of deceased
+Sampavathi and it was occurred due to complication of anesthesia and surgery and also
+     08-08-2022 (Page 10 of 22)    www.manupatra.com          OP Jindal Global Universitygiven opinion that, both the anesthetists and surgery have struggled maximum effort to
+save the life. At the time of giving requisition, the investigation officer also submitted
+the documents and the same are marked Ex. P11 to 13 and Ex. D3. The opinion of the
+doctor is marked at Ex. P14. The letter given by the Accused No. 4 is marked at Ex. P15.
+The opinion of the Dr. Kashinath Kamble is marked at Ex. P16. The opinion given by Dr.
+Uma Deshmukh is marked at Ex. P17. Dr. Madan Vaijinath's opinion is marked at Ex.
+P18. The Requisition given by the PSI NTPS is marked at Ex. P19. The letter given by
+the PSI NTPS is marked at Ex. P20. The official Memorandum Dated: 06-01-2016 s
+marked at Ex. P21. The letter given by PSI Dated 12-1-2016 is marked at Ex. P22. The
+Proceedings held by superintendent of BRIMS is marked at Ex. P23. The Office Order is
+marked at Ex. P24. The confidential Letter Dated 14-03-2016 is marked at Ex. P25. The
+letter Dated 16-03-2012 is marked at Ex. P26. The official Memorandum Dated 18-04-
+2016 is marked at Ex. P27. The FSL Report is marked at Ex. P28. The specific opinion
+given by the Medical Committee members Dated 29-04-2016 is marked at Ex. P29. He
+has given forwarded documents to the New Town Police Station.
+expert in Skin and V.D. Subject. He received intimation from the I.O. on 11-08-2015
+and where the I.O. has not mentioned the name of the accused and he has not
+registered the case. He admitted that, he has not communicate the same to the State
+Medical Council, Bengaluru or District Medical Council before giving final opinion. After
+gone through the FSL, P.M.E. and Case Sheet of both the hospitals, the doctors have
+made sincere effort and struggle to save the life of the deceased Sampavathi. In Ex.
+P29, the witness has admitted that, both the Anesthetists and Surgeon have struggled
+maximum to save the life. The same is marked at Ex. D6. He further submits that,
+adrenaline and dopamine drugs are used when patient is having low B.P. to stabilize the
+normal condition of B.P. It is further admitted that, there is no excessive anesthetic
+agent found in the document and before issuing the final opinion himself and the
+committee members have not visited the hospital of Accused No. 1 and 2. The
+complication means" the occurrence of two or more deceases in the same patient and
+one more deceased concurrent with the another diseases.
+25. Then the evidence of PW7 Dr. Madan Vaijinath, who is the member of the
+Committee. He deposed that, CW.18 has formed the committee to conduct the
+proceedings that, one Sampavathi has been operated and in Shusrut Nursing Home and
+that operation resulted into death due to the complications of surgery and anesthesia.
+The C.W.18 called him in his chamber orally and he went wherein discussion was held
+among the committee members with regards to the death of Sampavathi. After one or
+two days itself C.W.8 has submitted the some copies to him. Thereafter the chairmen of
+the committee has again asked to attend the proceedings which will be held on 19-01-
+2016. On that day, he attended the meeting apart from the committee members, Dr.
+Tapse and Dr. Rajashree and Dr. V.B. Biradar were present. After discussion, they asked
+the committee members to given opinion in writing. As per the direction of committee,
+the chairmen he has not given blood report and scanning report and physician opinion.
+He has gone through the case sheet of Susruta Hospital belonging to Sampavathi,
+Postmortem Report and V.B. Biradars Separate notes and surgeon noted given to him.
+cavity and due to complication of laparoscope assisted vaginal hysterectomy. He alsooneal
+saw the Ex. P11 Postmortem it shows that, there was injury to artery and vein which
+were not sutured or arrested bleeding will be there continuously unless the bleeding
+vessels cot or tied bleeding will be continued in the peritoneal cavity. Further, patient
+goes for complication thereby other complication like lungs, kidney, heard and brain
+will be affected. In the present case, bleeding vessels are not cot bleeding continued
+     08-08-2022 (Page 11 of 22)    www.manupatra.com          OP Jindal Global Universitysome portion of the blood clots were found in peritoneal cavity. He has stated that
+during the operation surgeon has cut the infundibulo pelvic ligaments and cauterized
+accordingly to PME Report and then the surgeon was asked to stop the surgery for some
+time. It is stated that, the Anesthetists struggle later on the surgeon cervicovaginal
+incision was put and blood clots and blood have been evacuated, which was collected in
+peritoneal cavity. It means more amount of blood was collected in peritoneal cavity,
+blood have been evacuated from the peritoneal cavity through this cervicovaginal
+incision. If the blood was continuously causes, then multiple organs failure B.P. will
+come down respiration stops. Once, the bleeding starts respiration going to hampered
+because of that there will be collection of water in the lungs then heart is going to fail
+slowly and because of that kidney failure, brain will not work because of insufficiency of
+blood to these vital organs because of this patient is going to die, pulmonary oedema
+means collection of water and the part of blood contains in the lungs. Further, he
+deposed that, before operation he advised to the patient as well as attendants as stated
+above. If the patient once decide to operate same thing what diagnosis. He further
+depose that, if they agree for operation then he advice for investigation of blood, ECG,
+what is required investigation for patient will be done. He take opinion of physician
+regarding fitness for surgery and also he take opinion of anesthesia and physician they
+thing blood transfusion is required or not he plan for it, if everything goes fine, he will
+go for surgery. Further, in Ex. P5 to 7 Report is normal. Laparoscope assisted vaginal
+hysterectomy except anesthesia and surgeons two minimum staff nurse and two OT
+attenders are required. In the cross-examination he admits that, he is not a laparoscope
+surgeon and he has not obtained certificate in laparoscope Surgeon. He denies that, the
+Report with regards to the main uterine artery cut. He admits that, both the organsPME
+functions is different. In this case uterus is not removed it intact, and Dr. Sunil Tapse is
+not the member of committee, that the seal and signature of P.W.5 is appeared in Ex.
+P18. He denied that, in order to help the complainant and say of Dr. Sunil Tapse, they
+have issued false opinion and he has given his opinion to the Chairmen of the
+committee in close cover. Ex. P13 to P-17 all are the copy of xerox. The Chemical
+Analysis Report and FSL Report are comes under the purview of pathology and PME is
+come under the purview of department for Forensic Science that, auscultation is action
+listening the sound from the heart and lungs, stethoscope is used to medical diagnosis
+for heart and lungs specially in auscultation and accumulation of fluid in lungs causes
+breathing problems. He admits that, crepetation heard on the both lungs it is sign of
+detoration of patient, under the detoration patient the air embolism or gas embolism
+occurs only heard and heart will arrest immediately patient will die. He denied that,
+testing the air embolism is only procedure to remove the heart and immersion in to the
+water with care and caution observing the heart if bubbles is appeared, it is sign of air
+embolism. He admits that, the doctors struggled and made all the efforts to save the life
+of patient. In further cross-examination, he admits the hospital in which the operation
+will be taken, that hospital must have clean hospital, well equipped operation theater,
+well trained nurses or staffs and good intensive Care Unit. He has not mentioned any
+cause of death in his report. In Ex. P7 and 8 witness further stated that Ex. P5 is shown
+that his report is normal. It is not a serious case. But patient has to undergo operation
+to avoid the further complications of life and patient disease will be explained and
+consent will be taken from the patient if the patient is fully conscious if not patient
+husband or any other close relatives. He has not mentioned the cause of death in the
+report. He denied he is not competent to issue Final Report in Medico Legal Cases. He
+admits that the laparoscope assisted vaginal hysterectomy will be performed maximum
+within one and one half hour.
+26. Then the evidence of P.W.8 Dr. Uma Deshmukh She is one of the member of the
+     08-08-2022 (Page 12 of 22)     www.manupatra.com           OP Jindal Global Universitycommittee she is working as in charge H.O.D. OBG in BRIMS Bidar, since from 1996.
+She deposed that, she examined the case sheets of Shusrut and Shree Hospital in
+respect of deceased Sampavathi has given finding. The patient was admitted to Shusrut
+Hospital for fibroid uterus and her B.P. was 140 to 19 and E.C.G. was normal. The
+Patient had developed intra operatively Acute pulmonary edema and then surgeon ask to
+stop the surgery, others help, patient was stabilized with resuscitation but required
+ventilator for further stabilization and hence, shifted to Shri Hospital, where the patient
+was put on ventilator for time being patient was table upto 12 midnight, but patient
+started deteriorating and she was not able to maintain B.P. with all drugs and support
+the patient was declared dead at 5 a.m. on 13-10-2014. Pulmonary edema was the
+reason for post mortem finding for water in the lungs. The Accused No. 1 who operated
+doctor and she is a qualified laparoscopic surgeon. She has been trained at Akola
+Laparoscopic Centre, Akola Maharashtra State. In this regard she has produced the
+Certificate as per Ex. P17. In her cross-examination, she admits that, the doctors have
+sincerely made efforts to save the life of deceased Sampavathi and other doctors also
+they have called. This type of complication will happened during surgery and sudden
+table death can happen and which is undiagnosed, but the anesthetists tried to save the
+patient. She admits that, excessive anesthetist not found in the case Sheet. The acute
+pulmonary odema two types-1 Cardiogenic and non cardiogenic due to pulmonary
+embolism obesity and using ocpiles. The laparoscopic is a surgical procedure for
+diagnostic and therapeutic. The operative doctor pregnancy period is not mentioned in
+the Ex. P17.
+27. Then the evidence of PW.9 Madappa, ASI, New Town Police, he deposed that, on
+13-10-2014 at about 8:45 a.m. C.W.1 came and given written complaint, on received
+the same, he registered the Crime in Cr. No. 315/2014 and preferred FIR and sent it to
+the Court and he went to the Shusrut Nursing Home and shifted the dead-body to
+Biradar Hospital to Government Hospital Mortuary at about 10:30 a.m. and requested
+the CMO Dr. Sujatha to kept the dead body at mortuary and on the same day at about
+11 a.m. to 1 p.m. in the present of C.W.4 to 6 he conducted the Inquest Panchanama
+and when he found that on the stomach 2' four holes found and then he handed over
+the dead-body to through PC.1080 for Postmortem. After postmortem, he handed over
+the dead-body to the relatives of deceased Sampavathi and on the same day, at about 4
+p.m. to 5 p.m. he conducted the Spot Mahazar in the presence of C.W.2 and 3 at
+Shusrut Nursing Home and recorded the statement of C.W.7 to C.W.13 and C.W.2 and
+C.W.3 and on 14-10-2014 at about 8 p.m., he issued the notice to Dr. Rajashree to
+provide the treatment documents given to deceased Sampavathi and he received the
+same on 14-10-2014. The Accused No. 1 appeared and given copy of bail order, the
+same ha been kept in the file and to further investigation he handed over the case
+records to C.W.25 and the FIR is marked at Ex. P30. The Requisition filed to Shri
+Sujatha marked at Ex. P31 and Postmortem requisition is marked at Ex. P32 and
+Requisition marked at Ex. P33 and police notice is marked at Ex. P34. This witness
+cross-examined by the counsel for the accused in length, wherein he stated that, in the
+Complaint and FIR, name of the accused No. 2 mentioned as Kamashetty and he has not
+visited the hospital of accused No. 4. The deceased Sampavathi died at Shree Hospital
+and he has not recorded the statement of witnesses at Shree Hospital and not recorded
+the statement of doctors at Hyderabad, who treated the deceased at the last time and he
+has not drawn mahazar at the time of receiving the case sheet of deceased Sampavathi.
+He denied that, at the time of death of deceased Sampavathi, they registered the UDR
+as per Ex. P32 and 33 in Cr. No. 15 he has not taken the signature of doctors of BRIMS
+Hospital, at the time of Inquest Panchanama. He denied that, the relative of deceased
+Sampavathi has taken the body to their home as natural death in order to claim
+compensation from the Accused No. 1, the relative of the deceased kept the dead-body
+     08-08-2022 (Page 13 of 22)   www.manupatra.com          OP Jindal Global Universityin the Hospital of Accused No. 1 and thereafter, he went to the hospital and registered
+the case. He denied that, in order to help the C.W.1 to 7, he registered a false case and
+deposing false evidence. He admits in operation theater, he has not found any things at
+the time of conducting Spot Panchanama.
+28. Then the evidence of P.W.10 Sangamesh Kunkeri examined and he deposed that, he
+has given anesthesia approximately, 40,000 surgery. He know the C.W.14 to 19 and
+C.W.21 to 23 and C.W.7 and he do not know C.W.1. Dr. Shivakumar Shetkar formed the
+committee to investigate the death of Smt. Sampavathi, who operated on 12-10-2014.
+He was the member of the expert committee. Based on case sheet, he has given his
+opinion. He has mentioned that, they have examined the patient before the anesthesia
+but, actual certificate was not found in the case sheet. When anesthesia is given to the
+patient it is implied that, anesthesiologist has examined the patient and he identified the
+Ex. P29. This witness cross-examined by the counsel for the accused, wherein, he
+deposed that, he has not seen the dead-body of deceased Sampavathi and he has not
+treated the Sampavathi. He has given his opinion based on the documents given by Dr.
+team made efforts to save the life of deceased Sampavathi. There is no evidence ofl
+overdose of anesthesia in this case and Pre anesthesia evaluation was done before
+surgery and Dr. Vijaykumar Antappanavor given report stating that, the patient is fit for
+surgery. The C.V.S., C.N.S. R.S. and P.A. are normal. H.B., platelet, serum creatinine,
+B.P., E.C.G. are normal before conducting surgery. The surgical team followed the
+mandatory procedure. The gas embolism can occur during the laparoscopic surgery.
+Injection lasix was given for pulmonary edema. Long duration surgery have more
+chances of gas embolism. The laparoscopic surgery can extent from one hour to four
+hour in most of the cases. He denied that, based upon false requisition he has given the
+false report and deposed false evidence.
+29. Then the evidence of PW.11 Santosh L.T. by oversight PW.11 is typed as PW.10 in
+the deposition, who is the Investigation Officer, has deposed that, he has received the
+case records on 15-10-2014 from C.W.24 and verified the case records and received the
+PM Report and sent the Vishra to FSL to CHC 644 and received the FSL Report and wrote
+a letter to C.W.6 for the cause of death on 23-02-2015, 02-03-2015 and 06-03-2015
+and also received the case sheet of Shree Hospital and written a letter to District
+Surgeon to give the report for cause of death, whether the Accused No. 1 to 4 have
+committed any negligent act at the time of conducting operation. On 14-03-2016, he
+received the committee opinion and also received the Final Report from the Medical
+Superintendent on 29-04-2016. After completion of the investigation, he has filed the
+charge sheet. The F.S.L. Report at Ex. P35, the Case Sheet is marked as Ex. P13. This
+witness cross-examined the learned counsel for the accused, wherein, he admitted the
+entire suggestion posed to him. He admits that, in FIR and Complaint, there is no
+mention of Accused No. 3 name. In his investigation, he has not found the Accused No.
+3 injected the deceased Sampavathi and the Accused No. 3 has not committed any
+offence and the same was found in the complaint, further statement and eye-witness.
+He falsely implicated the Accused No. 3 has been denied. In complaint and FIR, the
+Accused No. 4 name is not found. The deceased Sampavathi was shifted on 12-10-2014
+1. One Dr. Rajashekhar Patil provided the ventilator facility to deceased Sampavathi and.
+the said Dr. Rajshekhar Patil stated that the Complainant and C.W.7 to call the
+Hyderabad doctor for further treatment. The said doctor came and treated her from 2
+a.m. to 2:30 a.m. at Shree Hospital on the same day. After examination, he declared
+that the patient condition is very serious and he left the patient in Shree Hospital and he
+has not recorded the statement of said doctor. On 13-10-2014 at about 5 a.m. the said
+     08-08-2022 (Page 14 of 22)   www.manupatra.com          OP Jindal Global UniversitySampavathi has died as mentioned in the case sheet as per Ex. P13.
+The accused No. 3 himself examined as DW.1 and he deposed that he is running
+medical and general store at Shusrut Nursing Home Complex since 20 years. There is no
+relation to this case. Intentionally he is implicated in this case. He produced License,
+Registration Certificate and Ownership Certificate at Ex. D-1 to D-3. Perused already by
+confrontation. Ex. D-1 to D-5 already marked on behalf of the accused at the time of
+cross-examination. Hence, the Ex. D-1 to 3 have been corrected as Ex. D-6 to 8 instead
+of Ex. D-1 to D-3. This witness cross-examined, wherein he stated that, he is residing
+at Ujani village, Aurad Taluk before this case as he do now know C.W.1 and 7 and there
+is no personal enmity himself and them. He denied that, at the time of operation of
+deceased Sampavathi, he was present inside the operation theater and assisted the
+doctors. The evidence of D.W.1 and documents produced, it shows that, he is not a
+doctor and he is running medical store in the hospital of Accused No. 1. But, the
+evidence of P.W.1 and 4 clearly shows that, he was assisted accused No. 1 and 3 at the
+time of operation of deceased Sampavathi in the operation theater. The said evidence of
+no avail to him to prove his defence.Accused No. 3 and hence, the evidence of D.W.1
+30. On perusal of the entire evidence of prosecution it appears that P.W.1 to 4 are the
+husband, brother and relative of deceased. It is not disputed fact that, the deceased
+Sampavathi admitted to the hospital of accused No. 1 for the purpose of laparoscope
+operation and she went to the hospital by walk. It is undisputed fact that before conduct
+operation the accused No. 1 examined all pre-operative tests and the said tests reports
+were normal. It is undisputed fact that the accused No. 1 and 3 have operated the
+deceased and the accused No. 1 to 3 shifted her to the accused No. 4 hospital due to
+non availability of ventilator and she died due to complication of anesthesia and
+surgery.
+31. The learned A.P.P. vehemently argued that, at the time of surgery, the hospital
+authority have no I.C.U., ventilator and oxygen facility and before conducting the
+surgery, the Accused No. 1 to 3 should have obtained the certificate of patient by
+physician and also anesthesia department and got test the blood, X-ray, E.C.G. But in
+this case, the Accused No. 1 to 3 have not followed the procedures and also not
+obtained the physician certificate and anesthesia fitness certificate before conducting
+the surgery. Except Ex. D3, they have not produced any necessary test reports. The
+evidence of PW.6 clearly discloses that, at the time of conducting the committee
+proceedings, the committee has issued the notice to the parties. The accused No. 1 to 4
+are not produced any documents before the committee. Hence, the Accused No. 1 to 3
+have not followed the pre-operation procedures and hence this act is negligence on the
+admitted the deceased Sampavathi to the hospital of Accused No. 4 at 9:45 p.m. on 12-
+10-2014 for ventilator support. This fact clearly goes to show that the Accused No. 1's
+hospital had no ICU and ventilator facility. This is also one of the negligence on the part
+of the Accused No. 1 to 3. The Accused No. 1 to 3 have conducted a major surgery
+hysterectomy under general anesthesia without ensuring that life saving facility and the
+availability in their hospital and oxygen care facility in their hospital. The evidence PW.7
+shows that, the Accused No. 1 to 3 have commenced surgery at 5 p.m. and not
+completed till 9:45 p.m., it shows that, they time passed for four hours in operation
+theater. If the Accused No. 1 to 3 have got no knowledge, then they would have called
+the other doctors and experts to the hospital of Accused No. 1 for assistance. But, they
+have not done so. The evidence of PW.5 shows that, at the time of Postmortem
+examination, in Ex. P12, the cause of death is complication of Laparoscope Assisted
+     08-08-2022 (Page 15 of 22)    www.manupatra.com           OP Jindal Global UniversityVaginal hysterectomy. After gone through the Postmortem Report, Inquest Report, Case
+sheets and FSL Report, the deceased Sampavath died due to complication of
+Laparoscope Assisted Vaginal hysterectomy surgery. If the Accused No. 1 to 3 by taking
+all precautions, they conducted the operation, the patient would have not died to the
+complication. So, it clearly goes to show that, the Accused committed gross negligence
+towards deceased Sampavathi. As per the evidence of PW.5, he come to the conclusion
+that, there is evidence of Laparoscope Assisted Vaginal hysterectomy and the evidence
+of cut and partial cauterized infundibulo pelvic ligaments, encircling sutures then
+peritoneum cavity shows the blood clots and fluid blood about 900 m.l. Both the lungs
+are grossly congested and edematous because of this complications, the patient was
+died. This opinion of the PW.5 shows that, there is gross negligence on the part of the
+Accused No. 1 to 3 for that reason, the deceased Sampavathi was died. The P.W.5
+evidence also due to cut and partial cauterized infundibulo pelvic ligaments which is
+supplied by so many arteries and veins and also there is cutting of the cervix. This goes
+to show that, Accused No. 1 to 3 while conducting the surgery negligently cauterized
+infundibulo pelvic ligaments as the blood of Sampavathi was lost. Further, P.W.5
+evidence also discloses that, due to the problem created by the Accused No. 1 to 3 in
+negligent manner while conducting the surgery. This clearly shows that, without taking
+any care in negligent manner cut of thereby, the deceased Sampavathi caused loss of
+blood committed. It clearly goes to show that, the Accused No. 1 to 3 have committed
+gross negligence. In the evidence of P.W.7 shows that, he had gone to the case sheet of
+Accused No. 1 hospital, P.M. Report and anesthesia report, he has given opinion of the
+cause of death due to bleeding in the peritoneum cavity due to the complication of
+during the operation are arrested bleeding was and the said portion was not sutured or
+tied bleeding continued in the peritoneum cavity, there was injury to artery and vein
+which were not sutured or arrested bleeding will be there continuously unless the
+bleeding vessels cot or tied bleeding will be continued in the peritoneal cavity. Further,
+patient goes for complication thereby other complication like lungs, kidney, heard and
+brain will be affected. There will be collection of water in the lungs then heart is going
+to fail slowly and because of that, cutting failure, the brain will not work and because of
+that reasons the patient is going to die.
+32. Further argued that in the evidence of P.W.8 also due to the pulmonary oedema by
+filling the water to the longs, the patient was died. This means there was injury to
+artery and vein which were not sutured or arrested bleeding will be there continuously
+unless the bleeding vessels cot or tied bleeding is there continuously. It means due to
+negligence in cutting and arresting that artery blood was lost, thereby the water was
+filled in the lungs. It is held that, there is negligence on the part of the Accused No. 1 to
+3. On perusal of the Ex. P29, the opinion of the committee goes to shows that, the
+death of deceased Sampavathi was occurred due to complication of anesthesia and
+surgery and in the said report also, there is a mentioned that, both anesthesia and
+surgeons have struggled maximum to save the life of patient. The Accused No. 1 and 2
+are not absolved from their negligence.
+33. Further argued that in respect of Accused No. 4 is concerned, he knowing fully well
+disappearance of evidence is a negligent to help the Accused No. 1 to 3 and thereby, he
+intentionally done the same and hence the provision of Sec. 201 of IPC attracts for the
+negligence. The prosecution also argues that, the due to complication of laparoscopic
+vaginal hysterectomy and also the death of deceased Sampavathi was occurred due to
+complication of anesthesia and surgery by contesting evidence of PW.5 to 7 and the
+Accused No. 4 got admitted the deceased Sampavathi to his hospital at 10 a.m. on 12-
+     08-08-2022 (Page 16 of 22)    www.manupatra.com           OP Jindal Global University10-2014. The doctors of Yashodha Hospital, Hyderabad came to the hospital of Accused
+No. 4 and at about 2 a.m. on 13-10-2014. As per the Postmortem Report at Ex. P11 and
+evidence of PW.5, the death of deceased was occurred 12 to 24 hours prior to
+Postmortem. The Postmortem was conducted by the P.W.5 at 1:30 p.m. to 2:30 p.m.
+The death of deceased Sampavathi has occurred at about 1:30 a.m. on 13-10-2014 i.e.,
+before arrival of doctors from Yashodha Hospital, Hyderabad. The Accused have taken
+the defence that, the doctors have conducted the operation carefully and the deceased
+Sampavathi died due to some other disease. If deceased Sampavathi died due to some
+other reason, then there is no laparoscopic vaginal hysterectomy. P.W.1 to 4 and their
+evidence is corroborated each other. If the deceased Sampavathi was died due to some
+other disease, definitely, the accused would have lead cogent evidence as per Sec. 106
+of Evidence Act. The husband of the deceased was present at the time of operation. He
+also stated that, the Accused No. 1 to 3 have taken the deceased Sampavathi to the
+operation theater and how much time they took and not calling the other specialists
+doctor then the accused No. 1 to 3 have getting complication while conducting
+operation and also the Accused No. 4 had given treatment to the dead-body of deceased
+Sampavathi. Even the doctor helped in order to rescue the Accused No. 1 to 3 to cause
+disappearance and the evidence of PW.1 to 4 also proves that, the Accused No. 2 was
+present at time of operation and he was assisting the Accused No. 1 and 3 by calling the
+OT doctor and also arrival of the doctor of Hyderabad in conducting the operation. The
+P.W.1 and 3 are the pancha witnesses of Spot and Inquest they also support the
+prosecution case. It is well settled laws that the prosecution should not stick on to the
+statement recorded, he may elicit some importance through the witness in order proper
+proper decision. On these grounds, he prayed for conviction of Accused No. 1 to 4 in and
+accordance with law.
+34. The counsel for the accused No. 1 argued about the maintenance of the hospital
+and also argued that, Sec. 304-A has to be proved, when it comes to the medical
+negligence, the prosecution has to prove the gross negligence and the recklessness as
+mentioned in the land mark judgments and precedents set by the Hon'ble Supreme
+Court of India. The prosecution is in confusion between the complications and the
+alleged negligence that is gross and recklessness, which are the main ingredients. The
+prosecution has to establish beyond all reasonable doubt, the complication were the
+result of the alleged gross negligence and recklessness. The accused No. 2 is a
+prosecution calling any anesthesia is seeking help and opinion of the specialists and
+due to care in the interest of the patient. This goes to how that, the sufficient care and
+precautions was taken by the Accused No. 1 which is corroborated by the opinion of the
+expert committee report on the cause of death as per Ex. P16 to18. The case sheet of
+both hospital and the opinion of the expert committee, FSL Report are going to show
+that, there is no any negligence or where the accused have proved the line of treatment
+which was not questioned challenged by the prosecution side. As per PW.8 in her cross-
+examination states that, the Accused No. 1 is operated doctor and she is a qualified
+laparoscopic surgeon, she has been trained at Akola Maharashtra State. She has seen
+the certificate of the same which proves that, she is competent and qualified doctor
+capable of exercising ordinary skills of Laparoscopic assisted surgery, like hysterectomy
+PW 8 in her evidence clearly stated above the requisite skill is processed by the accused
+No. 1 to perform the LAVH and the patient developed in operatively acute pulmonary
+oedema and she was asked to stop surgery by accused No. 2 and another anesthetist.
+The prosecution has failed to prove that complication of pulmonary edema is not likely
+to occur during the surgery, which is most important fact and ingredient to prove the
+medical negligence. The evidence PW 5, 7, 8 shows that there is a possibility of
+pulmonary embolism not only by partial curter of Infundibulo Pelvic Ligaments causing
+     08-08-2022 (Page 17 of 22)    www.manupatra.com          OP Jindal Global Universitypulmonary edema, which may leads to heart failure. This could be the main reason of
+complication, leading death of the patient, not the negligence i.e., gross negligence.
+The prosecution has failed to prove the case beyond reasonable doubt that pulmonary
+edema caused by the Accused No. 1. If at all, the said complication is not possible to
+occur during the performance of LAVH then the case of prosecution could have been
+believed. PW 5 admits that PM Report he has not mentioned which ligaments was cut,
+as per PM report only one ligament is cut and he is not sure of the specific cut causing
+bleeding which leads to pulmonary edema complication. PW 5 further admits that in PM
+Report he has not mentioned which artery and vein supplied to the Infundibulo-Pelvic
+Ligaments are cut during the surgery, such cutting of ligaments to perform the surgery
+is so gross and recklessness amounting to gross negligence. The prosecution also failed
+to prove that the presence of blood about 900 ML Fluid, blood clot and blood (not
+exactly how much ml. Of blood) leads to the alleged complication and cause of death of
+patient. The prosecution also failed to prove that the accused No. 1 has caused to
+increase the risk of the patient while performing the surgery. The accused No. 1 taken
+sufficient care and attention to reduced the risk of the patient on timely basis and
+stopped the surgery ad shifted for better are and management of the patient. The
+accused No. 1 hospital is having Manual Ventilator, for better care and attention, was
+shifted to the higher center for Mechanical Ventilator. The counsel for the accused
+further argued that to prove the negligence the IO has sought the Final Opinion for the
+Dist. Surgeon for cause of death. Who constituted an Expert committee of 6 members,
+the said committee to commence the enquiry in to the said clarification committee
+Member submitted their individual opinion. The committee the given final opinion as per
+performance of the LAVH surgery and also shows how the accused have tried to savehe
+the deceased Sampavathi. Even the performance of LAVH and its complications were
+informed to the concerned and informed-consent was obtained expressly in Ex. D3 in
+good faith for the benefit of the deceased Sampavathi to stop the vaginal bleeding,
+complication of pulmonary oedema which may be likely to occur/cause during surgery
+to the deceased Sampavathi who died due to the said complication, is not and offence
+committed by the accuse No. 1. Even PW.8 in her evidence stated that, the requisite
+skill is proceeded process by the Accused No. 1 to perform LAVH and the decisions
+relied by the prosecution is not applicable to the facts and circumstances of the present
+case on hand the are related to civil liability, not criminal Liability. Further argued that
+for every death during medical treatment in medical in medical man can't be proceeded
+the against for the punishment the courts were to impose criminal liability on the
+hospital and doctors for everything that goes wrong, the doctors would be more worried
+about their own safety than giving all the best treatment to their patients. Hence the
+prosecution has failed to prove beyond reasonable doubt which specific complication
+was the reason or cause of alleged gross negligence during the LAVH surgery performed
+by the accused No. 1. Hence prayed to acquit the accused in accordance with law.
+35. The counsel for the accused No. 4 argued that as per the request of the C.W. 1 and
+C.W. 7, the Accused 4 over Telephonic message/call informed the doctors of Yashodha
+Hospital Hyderabad regarding the patient condition and requested on behalf of CW 7 at
+11.00 PM on 12-10-2014. IN response to the Telephonic call of accused No. 4 the
+doctors team visited the Shree Hospital with Cardiac Ambulance around to 2:30 A.M. on
+13-10-2014, for shifting the patient to Hyderabad, the examined the patient and found
+the patient was in critical condition with unstable lacmodynamic parameter and refused
+to shift the patient in their cardiac Ambulance to Yashodha Hospital Hyderabad, and
+advised to maintained the patient with same treatment. The doctors of Shree Hospital
+by informing the patient condition to attainders and form and time to time and
+maintained the case sheet. Inspite of several efforts made by Accused No. 4 in coming
+     08-08-2022 (Page 18 of 22)    www.manupatra.com          OP Jindal Global Universityout from the critical condition of the patient who was on the ventilation support patient
+health was not supported and lastly at 5:00 A.M. death of Sampavathi was declared on
+13-10-2014. And death is 12 to 24 hours prior to Post-Mortem the same as been
+admitted by the PW 5 the death might have occurred between 4 to 18 hours. PW 8 in his
+evidence stated that death is declared at 5.00 am on 13-10-2014 and the time shown in
+PME varies. Under the these circumstances the allegation as against Accused No. 4
+regarding suppression of material fact death of Sampavathi much prior to PME 12 to 24
+hours is not supported by the document evidence and the evidence adduce by the
+prosecution nowhere establishes the fact of is accused No. 1 supported the accused No.
+1 to 3. Hence prayed to acquit him in accordance with law.
+36. The counsel for the accused has relies the decision of Hon'ble Apex Court reported
+in MANU/SC/0610/2021 : (2021) 10 is SCALE 350 in the case of Dr. Harish Kumar
+Khurana VS. Joginder Singh and Others wherein held that, where the treatment is not
+successful or the patient dies during surgery, it cannot be automatically assumed that
+the medical professional was negligent-Indicate negligence there should be material
+Negligence alleged should be so glaring, in which event the principle of res ipsa
+loquitur could be made applicable and not based on perception. On bare reading of the
+cited decision due respect is not applicable to the facts and circumstances of the present
+case in hand and the same is delivered on different context.
+37. On perusal of oral and documentary evidence produced by the prosecution it is
+clearly establishes the fact that the accused No 1 to 3 conducted laparoscopic operation
+of deceased Sampavathi by making 4 holes on stomach there was injury to artery and
+vein which were not sutured bleeding will be there continuously in the peritoneal cavity
+due to which deceased Sampavathi condition goes for other complication like lungs,
+kidney, heard and brain will be affected. Moreover there will be collection of water in
+the lungs then heart is going to fail slowly and because of that, cutting failure, the brain
+will not work and because of that reasons the Sampavathi was dead. The evidence also
+discloses that, the accused No. 1 to 3 conducted the surgery and accused No. 4 helped
+the accused No. 1 to 3 knowingly the accused No. 1 to 3 have committed an offence,
+intentionally omits to give information to the husband and relatives of deceased
+Sampavathi which he is legally bound to give. To prove the negligence on the part of
+the accused No. 1 to 4 the prosecution has to prove its case through medical evidence
+and not required the evidence of independent eyewitness in this case the prosecution by
+examining the PW5 to 8 and 10 proved that the accused No. 1 to 3 have operated the
+deceased Sampavathi in the hospital of accused No. 1 and the documents at Ex. P11 PM
+Report corroborates the evidence of PW1 to 4 regarding the surgical suture wound in at
+peri umbilicus region, on right lumbar region, left lumbar region and below injury No. 3
+in left region size 2 cms of deceased Sampavathi and the evidence of PW7 also shows
+that the accused No. 1 to 3 during operation they cut the infundibular pelvic ligaments
+and cauterized, due to which blood was continuously bleeding and the water was
+collected in the lungs of Sampavathi. The accused No. 1 to 3 conducted surgery without
+having ventilator facility, due care and caution to ensure the critical life saving
+equipments as Sampavathi died. Therefore the prosecution has successfully proved the
+the offence punishable u/s. 304[A], 202 r/w 34 of IPC. Therefore, prosecution hasted
+prove the negligence on the part of the accused No. 1 to 3 and has prove the
+destruction of evidence on the part of the accused No. 4 beyond all reasonable doubt
+and hence the benefit of doubt is not extended to the accused persons. Accordingly, I
+answer point Nos. 1 and 2 are the affirmative.
+     08-08-2022 (Page 19 of 22)    www.manupatra.com           OP Jindal Global UniversityPoint No. 3:
+38. In view of my above discussion and the reasons stated therein on Point Nos. 1 and
+2, I proceed to pass the following:
+                                         </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>                                                                                Source : The Unreported Judgments
+2022-08-08 (Page 1 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                Source : The Unreported Judgments
+2022-08-08 (Page 2 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                Source : The Unreported Judgments
+2022-08-08 (Page 3 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                Source : The Unreported Judgments
+2022-08-08 (Page 4 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                Source : The Unreported Judgments
+2022-08-08 (Page 5 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                Source : The Unreported Judgments
+2022-08-08 (Page 6 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                Source : The Unreported Judgments
+2022-08-08 (Page 7 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                Source : The Unreported Judgments
+2022-08-08 (Page 8 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                Source : The Unreported Judgments
+2022-08-08 (Page 9 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 10 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 11 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 12 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 13 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 14 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 15 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 16 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 17 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 18 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 19 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 20 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 21 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 22 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 23 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 24 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 25 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 26 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 27 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 28 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 29 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 30 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 31 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 32 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 33 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 34 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 35 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 36 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 37 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 38 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 39 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 40 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 41 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 42 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 43 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 44 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 45 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 46 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 47 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 48 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 49 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 50 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 51 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 52 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 53 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 54 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 55 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 56 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 57 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 58 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 59 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 60 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 61 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 62 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 63 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 64 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 65 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 66 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 67 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 68 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 69 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 70 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 71 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 72 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 73 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 74 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 75 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 76 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 77 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 78 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 79 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 80 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 81 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 82 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 83 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 84 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 85 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 86 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 87 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 88 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 89 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 90 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 91 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 92 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 93 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 94 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 95 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 96 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 97 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 98 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 99 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 100 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 101 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 102 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 103 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 104 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 105 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 106 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 107 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 108 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 109 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 110 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 111 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 112 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 113 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University</t>
+        </is>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>2022-08-08</t>
+        </is>
+      </c>
+      <c r="D50" s="0" t="inlineStr">
+        <is>
+          <t>                                                                                Source : The Unreported Judgments
+2022-08-08 (Page 1 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                Source : The Unreported Judgments
+2022-08-08 (Page 2 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                Source : The Unreported Judgments
+2022-08-08 (Page 3 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                Source : The Unreported Judgments
+2022-08-08 (Page 4 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                Source : The Unreported Judgments
+2022-08-08 (Page 5 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                Source : The Unreported Judgments
+2022-08-08 (Page 6 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                Source : The Unreported Judgments
+2022-08-08 (Page 7 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                Source : The Unreported Judgments
+2022-08-08 (Page 8 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                Source : The Unreported Judgments
+2022-08-08 (Page 9 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 10 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 11 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 12 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 13 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 14 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 15 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 16 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 17 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 18 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 19 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 20 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 21 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 22 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 23 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 24 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 25 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 26 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 27 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 28 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 29 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 30 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 31 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 32 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 33 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 34 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 35 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 36 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 37 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 38 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 39 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 40 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 41 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 42 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 43 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 44 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 45 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 46 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 47 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 48 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 49 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 50 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 51 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 52 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 53 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 54 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 55 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 56 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 57 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 58 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 59 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 60 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 61 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 62 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 63 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 64 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 65 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 66 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 67 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 68 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 69 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 70 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 71 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 72 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 73 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 74 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 75 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 76 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 77 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 78 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 79 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 80 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 81 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 82 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 83 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 84 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 85 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 86 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 87 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 88 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 89 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 90 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 91 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 92 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 93 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 94 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 95 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 96 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 97 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 98 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 99 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 100 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 101 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 102 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 103 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 104 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 105 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 106 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 107 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 108 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 109 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 110 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 111 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 112 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 113 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University</t>
+        </is>
+      </c>
+      <c r="E50" s="0" t="inlineStr">
+        <is>
+          <t>                                                                                Source : The Unreported Judgments
+2022-08-08 (Page 1 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                Source : The Unreported Judgments
+2022-08-08 (Page 2 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                Source : The Unreported Judgments
+2022-08-08 (Page 3 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                Source : The Unreported Judgments
+2022-08-08 (Page 4 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                Source : The Unreported Judgments
+2022-08-08 (Page 5 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                Source : The Unreported Judgments
+2022-08-08 (Page 6 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                Source : The Unreported Judgments
+2022-08-08 (Page 7 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                Source : The Unreported Judgments
+2022-08-08 (Page 8 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                Source : The Unreported Judgments
+2022-08-08 (Page 9 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 10 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 11 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 12 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 13 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 14 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 15 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 16 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 17 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 18 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 19 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 20 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 21 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 22 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 23 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 24 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 25 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 26 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 27 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 28 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 29 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 30 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 31 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 32 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 33 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 34 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 35 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 36 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 37 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 38 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 39 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 40 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 41 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 42 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 43 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 44 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 45 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 46 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 47 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 48 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 49 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 50 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 51 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 52 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 53 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 54 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 55 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 56 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 57 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 58 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 59 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 60 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 61 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 62 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 63 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 64 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 65 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 66 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 67 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 68 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 69 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 70 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 71 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 72 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 73 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 74 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 75 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 76 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 77 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 78 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 79 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 80 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 81 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 82 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 83 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 84 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 85 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 86 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 87 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 88 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 89 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 90 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 91 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 92 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 93 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 94 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 95 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 96 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 97 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 98 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 99 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 100 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 101 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 102 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 103 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 104 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 105 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 106 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 107 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 108 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 109 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 110 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 111 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 112 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University                                                                                 Source : The Unreported Judgments
+2022-08-08 (Page 113 of 113)                  MANU/SC/0325/2010                          OP Jindal Global University</t>
+        </is>
+      </c>
+      <c r="F50" s="0" t="inlineStr">
+        <is>
+          <t>COULD NOT FIND CASE NOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="B51" s="0" t="inlineStr">
+        <is>
+          <t> 29.10.2021
+                                 </t>
+        </is>
+      </c>
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>MANU/DE/2910/2021</t>
+        </is>
+      </c>
+      <c r="D51" s="0" t="inlineStr">
+        <is>
+          <t> S.D.
+                                       </t>
+        </is>
+      </c>
+      <c r="E51" s="0" t="inlineStr">
+        <is>
+          <t> Govt. of NCT of Delhi and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F51" s="0" t="inlineStr">
+        <is>
+          <t>Family - Guardian - Appointment of - Section 14(1) of Right of Persons with
+Disabilities Act, 2016 (RPWD-2016) - Present petition filed seeking
+appointment of petitioner as sole guardian of Mr. DMP, being his lawfully
+wedded wife and considering his mental condition - Whether case made out
+for appointment of petitioner as prayed - Held, present case is one which
+reveals exceptional circumstances for exercise of parens patriae jurisdiction
+as also jurisdiction under RPWD-2016 and MHA 2017 - Under Section 14(1)
+proviso of RPWD-2016, total support would have to be provided considering
+that Mr. DMP is unable to take any decisions for his own welfare - Under MHA-
+2017, nominated representative has to also be appointed for taking decisions
+for medical care and treatment of Mr. DMP - Nominated representative or
+guardian need not always be single individual - Movable and immovable
+assets and financial affairs of Mr. DMP are vast - It would be physically
+impossible for any particular individual to be able to exercise control and
+judgment, or to take proper decisions in respect of Mr. DMP's healthcare -
+Guardianship Committee appointed for purpose of taking care of Mr. DMP and
+his financial affairs - Petition disposed of. [271], [272]
+                                   </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="B52" s="0" t="inlineStr">
+        <is>
+          <t> 31.07.2015
+                            </t>
+        </is>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>MANU/TN/3501/2015</t>
+        </is>
+      </c>
+      <c r="D52" s="0" t="inlineStr">
+        <is>
+          <t> K. Balamurugan
+                                         </t>
+        </is>
+      </c>
+      <c r="E52" s="0" t="inlineStr">
+        <is>
+          <t> The Secretary to Government, Health and Family Welfare
+                                    Department
+</t>
+        </is>
+      </c>
+      <c r="F52" s="0" t="inlineStr">
+        <is>
+          <t>COULD NOT FIND CASE NOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="B53" s="0" t="inlineStr">
+        <is>
+          <t> 09.08.2011
+           </t>
+        </is>
+      </c>
+      <c r="C53" s="0" t="inlineStr">
+        <is>
+          <t>MANU/SC/0932/2011</t>
+        </is>
+      </c>
+      <c r="D53" s="0" t="inlineStr">
+        <is>
+          <t> Central Board of Secondary Education and Ors.
+                                       </t>
+        </is>
+      </c>
+      <c r="E53" s="0" t="inlineStr">
+        <is>
+          <t> Aditya Bandopadhyay and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F53" s="0" t="inlineStr">
+        <is>
+          <t>Right to Information - Right to inspect evaluated answer books - Right to
+Information Act, 2005 - Appeal against order of High Court holding that
+evaluated answer-books of an examinee writing a public examination
+conducted by statutory bodies like CBSE or any University or Board of
+Secondary Education being a 'document, manuscript record, and opinion' fell
+within definition of "information" under Act and therefore directed CBSE to
+grant inspection of answer books to examinees who sought information -
+Whether an examinee's right to information under Act included a right to
+copies thereof - Held, Â When a candidate participates in an examination anded
+writes his answers in an answer-book and submits it to examining body for
+evaluation and declaration of result, answer-book was a document or record -
+When answer-book was evaluated by an examiner appointed by examining
+body evaluated answer-book became a record containing 'opinion' of
+examiner - Therefore, evaluated answer-book was also an 'information' under
+Act - Right of citizens to access any information held or under control of any
+public authority should be read in harmony with exclusions/exemptions in Act
+- Unless examining bodies were able to demonstrate that evaluated answer-
+     08-08-2022 (Page 1 of 28)  www.manupatra.com        OP Jindal Global Universitybooks fell under any of categories of exempted 'information', they would be
+bound to provide access to information and any applicant could either inspect
+document/record, take notes, extracts or obtain certified copies thereof
+Right to Information - Right to inspect evaluated answer books - Right to
+Information Act, 2005 - Whether decisions of this Court in Maharashtra State
+Board of Secondary Education v. Paritosh B. ShethÂ and subsequent decisions
+following same in any way affect or interfere with right of an examinee
+seeking inspection of his answer books or seeking certified copies thereof -
+Held, Principles laid down in decisions such as Maharashtra State Board
+depend upon provisions of Rules and Regulations of examining body - If Rules
+and Regulations of examining body provided for re-evaluation, inspection or
+disclosure of answer-books then none of principles in Maharashtra State
+Board or other decisions following it would apply or be relevant - Provision
+barring inspection or disclosure of answer-books or re-evaluation of answer-
+books and restricting remedy of candidates only to re-totalling was valid and
+binding on examinee - Provisions of Act would prevail over provisions of bye-
+laws/rules of examining bodies in regard to examinations - Unless examining
+body was able to demonstrate that answer-books fell under exempted
+category of information, examining body would be bound to provide access to
+an examinee to inspect and take copies of his evaluated answer-books even if
+such inspection or taking copies was barred under rules/bye-laws of
+examining body governing examinations - Therefore, decision of Court in
+subsequent decisions following same would not affect or interfere with right
+of examinee seeking inspection of answer-books or taking certified copies
+thereof - Issue answered.
+Right to Information - Right to inspect evaluated answer books - Section 8(1)
+of Right to Information Act, 2005 - Whether an examining body hadevaluated
+answer books "in a fiduciary relationship" and consequently had no obligation
+to give inspection of evaluated answer books under SectionÂ 8(1)(e)Â ofAct -
+Held, Term 'fiduciary relationship' was used to describe a situation or
+transaction where one person (beneficiary) places complete confidence in
+another person (fiduciary) in regard to his affairs, business or transactions -
+Fiduciary was expected to act in confidence and for benefit and advantage of
+beneficiary, and use good faith and fairness in dealing with beneficiary or
+things belonging to beneficiary - Examining bodies could be said to act in a
+fiduciary capacity with reference to students who participated in an
+examination - Examining body cannot be in a fiduciary relationship either
+with reference to examinee who participated in examination and whose
+answer-books were evaluated by examining body - In furnishing copy of an
+answer-book, there was no question of breach of confidentiality, privacy,
+secrecy or trust - Examining body was 'principal' and examiner was agent
+entrusted with work of evaluation of answer-books - Examining body does not
+hold evaluated answer-books in a fiduciary relationship - Therefore,
+exemption under SectionÂ 8(1)(e)of Act Â was not available to examining
+bodies with reference to evaluated answer-books - Therefore, examining
+bodies would have to permit inspection sought by examinees
+Right to Information - Right to inspect evaluated answer books - Section 8(3)
+of Right to Information Act, 2005 - If examinee was entitled to inspection of
+     08-08-2022 (Page 2 of 28) www.manupatra.com       OP Jindal Global Universityevaluated answer books or seek certified copies thereof, whether such right
+was subject to any limitations, conditions or safeguards - Held, Â right to
+access information does not extend beyond period during which examining
+body was expected to retain answer-books - If rules and regulations
+governing functioning of respective public authority require preservation of
+information for only a limited period, applicant for information will be entitled
+to such information only if he seeks information when it was available with
+public authority - SectionÂ 8(3)Â of Act was not a provision requiring all
+'information' to be preserved and maintained for twenty years or more nor
+does it override any rules or regulations governing period for which record,
+document or information was required to be preserved by any public authority
+- Where information sought was not a part of record of a public authority and
+where such information was not required to be maintained under any law or
+rules or regulations of public authority, Act does not cast an obligation upon
+public authority to collect or collate such non-available information and then
+furnish it to an applicant - Order of High Court directing examining bodies to
+permit examinees to have inspection of their answer books affirmed subject
+to clarifications regarding the scope of Act and safeguards and conditions
+subject to which 'information' should be furnished - Appeals disposed of.
+Ratio Decidendi:
+"Examining body does not hold evaluated answer-books in a fiduciary
+relationship."
+                                   </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="B54" s="0" t="inlineStr">
+        <is>
+          <t> 25.09.2012
+                                 </t>
+        </is>
+      </c>
+      <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>MANU/UP/1904/2012</t>
+        </is>
+      </c>
+      <c r="D54" s="0" t="inlineStr">
+        <is>
+          <t> Arti Devi
+                                          </t>
+        </is>
+      </c>
+      <c r="E54" s="0" t="inlineStr">
+        <is>
+          <t> Central Information Commissioner and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F54" s="0" t="inlineStr">
+        <is>
+          <t>COULD NOT FIND CASE NOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="B55" s="0" t="inlineStr">
+        <is>
+          <t> 04.04.2014
+                            </t>
+        </is>
+      </c>
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>MANU/KE/0201/2014</t>
+        </is>
+      </c>
+      <c r="D55" s="0" t="inlineStr">
+        <is>
+          <t> Dharmarajan
+                                      </t>
+        </is>
+      </c>
+      <c r="E55" s="0" t="inlineStr">
+        <is>
+          <t> State of Kerala
+</t>
+        </is>
+      </c>
+      <c r="F55" s="0" t="inlineStr">
+        <is>
+          <t>A. Criminal Procedure Code, 1973 - Section 313-When the accused put
+forward a story of his own, which, to some extent, tallies with the
+prosecution story, the statement of the accused can be adverted to in the
+process of finding out the truth of the case and for appreciating the evidence
+of the victim.
+B. Indian Penal Code, 1860 - Sections 120A &amp; 120B - Conspiracy - Reliance on
+the evidence pertaining to the acts of various parties can be made to infer
+that the acts were done with reference to their common intention. Express
+agreement, actual meeting of two persons or actual words of communication
+need not be proved. The evidence as to transmission of thoughts and sharing
+of the unlawful design may be sufficient The law does not require that the act
+of agreement take any particular form and the fact of agreement may be
+communicated by words or conduct.
+C. Indian Penal Code, 1860 - Section 361 - The offence of kidnapping would
+be complete the moment the minor girl under eighteen years of age is taken
+or enticed out of the keeping of the lawful guardian of such minor without the
+consent of such guardian. Even the assumption that the victim girl could
+kidnapping from lawful guardianship.e the accused from the offence of
+D. Indian Penal Code, 1860 - Section 366A - To attract S. 366A, it is not
+necessary for the prosecution to prove that the person who is alleged to have
+committed the offence under S. 366A was a party to the offence of kidnapping
+of the minor girl out of her lawful guardianship.
+E. Indian Penal Code, 1860 - Section 368 - To attract S. 368, it is not
+necessary that the person who is alleged to have committed the said offence
+     08-08-2022 (Page 1 of 77) www.manupatra.com        OP Jindal Global Universitywas a party to the offence of kidnapping. S. 368 would be attracted if the
+accused wrongfully conceals or confines a person with the knowledge that
+such person has been kidnapped or has been abducted.
+F. Indian Penal Code, 1860 - Section 376(2)(g) - To constitute an offence
+under S. 376(2)(g), what is important is that the persons constituting the
+group act in furtherance of their common intention. There must be meeting of
+minds of the accused persons prior to the commission of the offence of rape.
+To constitute an offence, it is sufficient even if only one person in the group
+commits rape.
+G. Evidence Act, 1872 - Section 114A - When S. 114A of the Act is attracted,
+the burden of establishing that there was consent lies on the accused. If the
+required ingredients of the section are satisfied, the Court shall presume that
+there was no consent from the side of the victim.
+H. Indian Penal Code, 1860 - Section 372 - Offence under S. 372 maybe
+complete on proof of sale without proof of change of possession.
+I. Indian Penal Code, 1860 - Section 372-The term otherwise disposes of does
+not necessarily imply an actual change of possession. If the accused makes
+available a girl under the age of eighteen years for the purpose of prostitution
+or illicit intercourse, it would come within the expression otherwise disposes
+required to attract the Section.ange of dominion over the minor is not
+J. Criminal Trail - The investigation is only a part of the entire process of
+criminal justice administration. If one wing of the criminal justice
+administration goes astray, that does not mean that it should result in the
+acquittal of the accused.
+K. Criminal Trail - Creating doubt for the purpose of doubt is not a reasonable
+doubt. The reasonable doubt should arise on the basis of the facts as such,
+and not on the basis of the contrived or manipulated facts.
+                                    </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="B56" s="0" t="inlineStr">
+        <is>
+          <t> 09.06.2017
+                           </t>
+        </is>
+      </c>
+      <c r="C56" s="0" t="inlineStr">
+        <is>
+          <t>MANU/SC/0693/2017</t>
+        </is>
+      </c>
+      <c r="D56" s="0" t="inlineStr">
+        <is>
+          <t> Binoy Viswam
+                                      </t>
+        </is>
+      </c>
+      <c r="E56" s="0" t="inlineStr">
+        <is>
+          <t> Union of India (UOI) and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F56" s="0" t="inlineStr">
+        <is>
+          <t>Direct Taxation - Constitutional validity - Quoting of Aadhaar number -
+Compulsory - Section 139AA of Income Tax Act, 1961, Articles 14 and 19(1)
+(g) of Constitution of India and Finance Act, 2017 - Challenge was made to
+constitutional validity of Section 139AA of Act, 1961, which provision was
+inserted by amendment to said Act vide Act, 2017 - Whether Section 139AA of
+Act is discriminatory and offends Article 14 - Whether impugned provision is
+violative of Article 19(1)(g) - Whether restrictions which would result in
+terms of proviso to Sub-section (2) of Section 139AA of Act, 1961 are
+reasonable or not
+Facts:
+Section 139AA of the Income Tax Act, 1961 has been inserted by the
+amendment to the said Act vide Finance Act, 2017. As per the Section 139AA,
+well as in the income-tax returns, the Assessee was obliged to quote Aadhaar
+number. This was necessitated on any such applications for PAN or return of
+income on or after July 01, 2017, which meant from that date quoting of
+Aadhaar number became essential. Proviso to Sub-section (1) gives relaxation
+from quoting Aadhaar number to those persons who do not possess Aadhaar
+number but have already applied for issuance of Aadhaar card. In their cases,
+the Enrolment ID of Aadhaar application form was to be quoted. It would
+mean that those who would not be possessing Aadhaar card as on July 01,
+2017 may have to necessarily apply for enrolment of Aadhaar before July 01,
+     08-08-2022 (Page 1 of 71) www.manupatra.com        OP Jindal Global University2017. The effect of this provision was that every person who desires to obtain
+PAN card or who is an Assessee has to necessarily enrol for Aadhaar. It made
+obtaining of Aadhaar card compulsory for those persons who are income-tax
+Assessees. Proviso to Sub-section (2) of Section 139AA of the Act stipulates
+the consequences of failure to intimate the Aadhaar number. In those cases,
+PAN allotted to such persons would become invalid not only from July 01,
+2017, but from its inception as the deeming provision in this proviso mentions
+that PAN would be invalid as if the person had not applied for allotment of
+PAN, i.e. from the very beginning. Sub-section (3), however, gives discretion
+to the Central Government to exempt such person or class or classes of
+persons or any State or part of any State from the requirement of quoting
+Aadhaar number in the application form for PAN or in the return of income.
+Hence, the present petitions filed by the Petitioners, who claimed themselves
+to be public spirited persons, challenge was laid to the constitutional validity
+of Section 139AA of the Act, 1961.
+According to the Petitioners, though Aadhaar Act prescribes that enrolment
+under the Act is voluntary and gives choice to a person to enrol or not to enrol
+himself and obtain Aadhaar card, this compulsive element thrusted in Section
+139AA of the Act makes the said provision unconstitutional. The Petitioners
+submitted that Petitioners would not be pitching their case on the 'Right to
+Privacy' and would be questioning the validity of Section 139AA of the Act
+primarily on Articles 14 and 19 of the Constitution.
+Held, while disposing off the petitions:
+(i) Challenge to Aadhaar scheme/legislation on the ground that it was
+violative of Article 21 of the Constitution was pending before the Constitution
+Bench and, therefore, the present Bench could not have decided that issue.
+Since the Supreme Court and the High Courts are treated as the 'ultimate
+arbiter in all matters involving interpretation of the Constitution, it is the
+Courts which have the final say on questions relating to rights and whether
+such a right is violated or not. [71] and[73]
+(ii) In exercise of power of judicial review, Indian Courts are invested with
+powers to strike down primary legislation enacted by the Parliament or the
+State legislatures. However, while undertaking this exercise of judicial
+review, the same is to be done at three levels. In the first stage, the Court
+would examine as to whether impugned provision in a legislation is
+compatible with the fundamental rights or the Constitutional provisions
+(substantive judicial review) or it falls foul of the federal distribution of
+powers (procedural judicial review). If it is not found to be so, no further
+exercise is needed as challenge would fail. On the other hand, if it is found
+that Legislature lacks competence as the subject legislated was not within
+the powers assigned in the list in VII Schedule, no further enquiry is needed
+and such a law is to be declared as ultra vires the Constitution. However,
+while undertaking substantive judicial review, if it is found that the impugned
+provision appears to be violative of fundamental rights or other Constitutional
+rights, the Court reaches the second stage of review. At this second phase of
+enquiry, the Court is supposed to undertake the exercise as to whether the
+impugned provision can still be saved by reading it down so as to bring it in
+conformity with the Constitutional provisions. If that is not achievable then
+     08-08-2022 (Page 2 of 71) www.manupatra.com        OP Jindal Global Universitythe enquiry enters the third stage. If the offending portion of the statute is
+severable, it is severed and the Court strikes down the impugned provision
+declaring the same as unconstitutional. [80]
+(iii) When it comes to exercising the power of judicial review of a legislation,
+the scope of such a power has to be kept in mind and the power is to be
+exercised within the limited sphere assigned to the judiciary to undertake the
+judicial review. Unless the Petitioner demonstrated that the Parliament, in
+enacting the impugned provision, had exceeded its power prescribed in the
+Constitution or this provision violates any of the provision, the argument
+predicated on 'limited governance' will not succeed. One of the ingredients
+needed to be established by the Petitioners in order to succeed. [85]
+(iv) The Aadhaar Act is enacted to enable the Government to identify
+individuals for delivery of benefits, subsidies and services under various
+welfare schemes. As per the Government and UIDAI itself, the requirement of
+obtaining Aadhaar number is voluntary. It has been so claimed by UIDAI on
+its website and clarification to this effect has also been issued by UIDAI.
+Thus, enrolment under Aadhaar was voluntary. [90] and[91]
+(v) On the one hand, enrollment under Aadhaar card was voluntary, however,
+for the purposes of Income Tax Act, 1961, Section 139AA makes it compulsory
+for the Assessees to give Aadhaar number which means insofar as income tax
+the Aadhaar Act and obtain Aadhaar number which will be their identification
+number as that has become the requirement under the Income Tax Act, 1961.
+[92]
+(vi) A harmonious reading of the two enactments, the Aadhaar Act and the
+Income Tax Act, 1961 would clearly suggests that whereas enrollment of
+Aadhaar is voluntary when it comes to taking benefits of various welfare
+schemes even if it is presumed that requirement of Section 7 of Aadhaar Act
+that it is necessary to provide Aadhaar number to avail the benefits of
+schemes and services, it is upto a person to avail those benefits or not. On the
+other hand, purpose behind enacting Section 139AA is to check a menace of
+black money as well as money laundering and also to widen the income tax
+net so as to cover those persons who are evading the payment of tax. [93]
+(vii) Article 14 in its ambit and sweep involves two facets, viz., it permits
+reasonable classification which is founded on intelligible differentia and
+accommodates the practical needs of the society and the differential must
+have a rational relation to the objects sought to be achieved. Further, it does
+not allow any kind of arbitrariness and ensures fairness and equality of
+treatment. It is the fonjuris of our Constitution, the fountainhead of justice.
+Differential treatment does not per se amount to violation of Article 14 of the
+Constitution and it violates Article 14 only when there is no reasonable basis
+and there are several tests to decide whether a classification is reasonable or
+not and one of the tests will be as to whether it is conducive to the
+functioning of modern society. It could not be said that there was no nexus
+with the objective sought to be achieved. [96] and[100]
+(viii) The principle of equality does not mean that every law must have
+     08-08-2022 (Page 3 of 71) www.manupatra.com       OP Jindal Global Universityuniversal application for all persons who are not by nature, attainment or
+circumstances, in the same position, as the varying needs of different classes
+of persons often require separate treatment. It is permissible for the State to
+classify persons for legitimate purposes. The Legislature is also competent to
+exercise its discretion and make classification. In the present scenario the
+impugned legislation has created two classes, i.e. one class of those persons
+who are Assessees and other class of those persons who are income tax
+Assessees. It is because of the reason that the impugned provision is
+applicable only to those who are filing income tax returns. Therefore, the only
+question would be as to whether this classification is reasonable or not. There
+cannot be any dispute that there is a reasonable basis for differentiation and,
+therefore, equal protection Clause enshrined in Article 14 is not attracted.
+What Article 14 prohibits is class legislation and not reasonable classification
+for the purpose of legislation. All income tax assessees constitute one class
+and they are treated alike by the impugned provision. [103]
+(ix) If the PAN of a person is withdrawn or is nullified, it definitely amounts
+to placing restrictions on the right to do business as a business Under Article
+19(1)(g) of the Act. The provision is aimed at seeding Aadhaar with PAN. One
+of the main objectives is to de-duplicate PAN cards and to bring a situation
+where one person is not having more than one PAN card or a person is not
+able to get PAN cards in assumed/fictitious names. In such a scenario, if
+those persons who violate        Section 139AA     of the    Act without any
+of the Legislature to make penal provisions for violation of any law made bye
+it. In the instant case, requirement of giving Aadhaar enrolment number to
+the designated authority or stating this number in the income tax returns is
+directly connected with the issue of duplicate/fake PANs. [115] and[122]
+(x) Those who were not PAN holders, while applying for PAN, they were
+required to give Aadhaar number. This is the stipulation of Sub-section (1) of
+Section 139AA. At the same time, as far as existing PAN holders were
+concerned, since the impugned provisions qwre yet to be considered on the
+touchstone of Article 21 of the Constitution, including on the debate around
+Right to Privacy and human dignity, etc. as limbs of Article 21, till the aspect
+of Article 21 is decided by the Constitution Bench a partial stay of the
+aforesaid proviso is necessary. Those who had already enrolled themselves
+under Aadhaar scheme would comply with the requirement of Sub-section (2)
+of Section 139AA of the Act. Those who still want to enrol are free to do so.
+However, those Assessees who were not Aadhaar card holders and did not
+comply with the provision of Section 139(2), their PAN cards be not treated as
+invalid for the time being. It was only to facilitate other transactions which
+were mentioned in Rule 114B of the Rules. A person who is holder of PAN and
+if his PAN is invalidated, he is bound to suffer immensely in his day to day
+dealings, which situation should be avoided till the Constitution Bench
+authoritatively determines the argument of Article 21 of the Constitution. It
+would be permissible for the Parliament to consider as to whether there is a
+need to tone down the effect of the said proviso by limiting the consequences.
+Proviso to Section 139AA(2) cannot be read retrospectively. If failure to
+intimate the Aadhaar number renders PAN void ab initio with the deeming
+provision that the PAN allotted would be invalid as if the person had not
+applied for allotment of PAN would have rippling effect of unsettling settled
+     08-08-2022 (Page 4 of 71) www.manupatra.com        OP Jindal Global Universityrights of the parties. It had the effect of undoing all the acts done by a person
+on the basis of such a PAN. It may have even the effect of incurring other
+penal consequences under the Act for earlier period on the ground that there
+was no PAN registration by a particular Assessee. The rights which are
+already accrued to a person in law cannot be taken away. Therefore, this
+provision needs to be read down by making it clear that it would operate
+prospectively. [125] and[126]
+(xi) A large Section of citizens feel concerned about possible data leak, even
+when many of those support linkage of PAN with Aadhaar. This was a concern
+which needed to be addressed by the Government. It was important that the
+apprehensions are assuaged by taking proper measures so that confidence is
+instilled among the public at large that there is no chance of unauthorised
+leakage of data whether it is done by tightening the operations of the
+contractors who are given the job of enrollment, they being private persons or
+by prescribing severe penalties to those who are found guilty of leaking the
+details, is the outlook of the Government. However, measures in this behalf
+are absolutely essential and it would be in the fitness of things that proper
+scheme in this behalf is devised at the earliest. [127]
+(xii) The Parliament was fully competent to enact Section 139AA of the Act
+and its authority to make this law was not diluted by the orders of the
+present Court. There was no conflict between the provisions of Aadhaar Act
+harmoniously, they operate in distinct fields. Section 139AA of the Act is not
+discriminatory nor it offends equality Clause enshrined in Article 14 of the
+Constitution. Section 139AA is also not violative of Article 19(1)(g) of the
+Constitution insofar as it mandates giving of Aadhaar enrollment number for
+applying PAN cards in the income tax returns or notified Aadhaar enrollment
+number to the designated authorities. Further, proviso to Sub-section (2)
+thereof has to be read down to mean that it would operate only prospective.
+The validity of the provision upheld is subject to passing the muster of Article
+21 of the Constitution, which was the issue before the Constitution Bench.
+Till then, there shall remain a partial stay on the operation of proviso to Sub-
+section (2) of Section 139AA of the Act. [128]
+                                  JUDGMENT
+A.K. Sikri, J.
+public spirited persons, challenge is laid to the constitutional validity of Section 139AA
+of the Income Tax Act, 1961 (hereinafter referred to as the 'Act'), which provision has
+been inserted by the amendment to the said Act vide Finance Act, 2017. Section139AA
+of the Act reads as under:
+    Quoting of Aadhaar number. - (1) Every person who is eligible to obtain
+    Aadhaar number shall, on or after the 1tday of July, 2017, quote Aadhaar
+    number-
+       (i) in the application form for allotment of permanent account number;
+       (ii) in the return of income:
+     08-08-2022 (Page 5 of 71) www.manupatra.com        OP Jindal Global University        Provided that where the person does not possess the Aadhaar Number,
+        the Enrolment ID of Aadhaar application form issued to him at the time
+        of enrolment shall be quoted in the application for permanent account
+        number or, as the case may be, in the return of income furnished by
+        him.
+    (2) Every person who has been allotted permanent account number as on the
+    1st day of July, 2017, and who is eligible to obtain Aadhaar number, shall
+    intimate his Aadhaar number to such authority in such form and manner as may
+    be prescribed, on or before a date to be notified by the Central Government in
+    the Official Gazette:
+        Provided that in case of failure to intimate the Aadhaar number, the
+        permanent account number allotted to the person shall be deemed to
+        be invalid and the other provisions of this Act shall apply, as if the
+        person had not applied for allotment of permanent account number.
+    (3) The provisions of this Section shall not apply to such person or class or
+    classes of persons or any State or part of any State, as may be notified by the
+    Central Government in this behalf, in the Official Gazette.
+    Explanation. - For the purposes of this section, the expressions -
+        (i) "Aadhaar number", "Enrolment" and "resident" shall have the same
+        meanings respectively assigned to them in Clauses (a), (m) and (v) of
+        Section 2 of the Aadhaar (Targeted Delivery of Financial and other
+        Subsidies, Benefits and Services) Act, 2016 (18 of 2016);
+        issued to a resident at the time of enrolment. Identification Number
+2. Even a cursory look at the aforesaid provision makes it clear that in the application
+forms for allotment of Permanent Account Number (for short, 'PAN') as well as in the
+income-tax returns, the Assessee is obliged to quote Aadhaar number. This is
+necessitated on any such applications for PAN or return of income on or after July 01,
+2017, which means from that date quoting of Aadhaar number for the aforesaid
+purposes becomes essential. Proviso to Sub-section (1) gives relaxation from quoting
+Aadhaar number to those persons who do not possess Aadhaar number but have already
+applied for issuance of Aadhaar card. In their cases, the Enrolment ID of Aadhaar
+application form is to be quoted. It would mean that those who would not be
+possessing Aadhaar card as on July 01, 2017 may have to necessarily apply for
+enrolment of Aadhaar before July 01, 2017.
+3. The effect of this provision, thus, is that every person who desires to obtain PAN card
+or who is an Assessee has to necessarily enrol for Aadhaar. It makes obtaining of
+Aadhaar card compulsory for those persons who are income-tax Assessees. Proviso to
+Sub-section (2) of Section 139AA of the Act stipulates the consequences of failure to
+intimate the Aadhaar number. In those cases, PAN allotted to such persons would
+become invalid not only from July 01, 2017, but from its inception as the deeming
+provision in this proviso mentions that PAN would be invalid as if the person had not
+applied for allotment of PAN, i.e. from the very beginning. Sub-section (3), however,
+gives discretion to the Central Government to exempt such person or class or classes of
+number in the application form for PAN or in the return of income.quoting Aadhaar
+      08-08-2022 (Page 6 of 71)    www.manupatra.com           OP Jindal Global UniversityThe challenge is to this compulsive nature of provision inasmuch as with the
+introduction of the aforesaid provision, no discretion is left with the income-tax
+Assessees insofar as enrolment under the Aadhaar (Targeting Delivery of Financial and
+Other Subsidies, Benefits and Services) Act, 2016 (hereinafter referred to as the
+'Aadhaar Act') is concerned. According to the Petitioners, though Aadhaar Act prescribes
+that enrolment under the said Act is voluntary and gives choice to a person to enrol or
+not to enrol himself and obtain Aadhaar card, this compulsive element thrusted in
+Section 139AA of the Act makes the said provision unconstitutional. The basis on which
+the Petitioners so contend would be taken note of at the appropriate stage. Purpose of
+these introductory remarks was to highlight the issue involved in these writ petitions at
+the threshold.
+4. Before we take note of the arguments advanced by the Petitioners and the rebuttal
+thereof by the Respondents, it would be in the fitness of things to take stock of
+historical facts pertaining to the Aadhaar scheme and what Aadhaar enrolment amounts
+to.
+Aadhaar Scheme and its administrative and statutory framework
+5 . Respondent No. 1, Union of India, through the Planning Commission, issued
+Notification dated January 28, 2009, constituting the Unique Identification Authority of
+India (for short, 'UIDAI') for the purpose of implementing of Unique Identity (UID)
+scheme wherein a UID database was to be collected from the residents of India.
+Pursuant to the said Notification, the Government of India appointed Shri Nandan
+Nilekhani, an entrepreneur, as the Chairman of the UIDAI on July 02, 2009. According
+to this scheme, every citizen of India is entitled to enrol herself/himself with it and get
+a unique, randomly selected 12 digit number. For such enrolment, every person so
+intending would have to provide his/her personal information along with biometric
+details such a fingerprints and iris scan for future identification. Accordingly, it is
+intended to create a centralized database under the UIDAI with all the above
+information. The scheme was launched in September 2010 in the rural areas of
+Maharashtra and thereafter extended all over India. One of the objects of the entire
+project was non-duplication and elimination of fake identity cards.
+6. On December 03, 2010, the National Identification Authority of India Bill, 2010 was
+introduced in the Rajya Sabha. On December 13, 2011, the Standing Committee Report
+was submitted to the Parliament stating that both the Bill and project should be re-
+considered. The Parliamentary Standing Committee on Finance rejected the Bill of 2010
+as there was opposition to the passing of the aforesaid Bill by the Parliament. Be that as
+it may, the said Bill of 2010 did not get through. The result was that as on that date,
+Aadhaar Scheme was not having any statutory backing but was launched and continued
+to operate in exercise of executive power of the Government. It may also be mentioned
+that the Government appointed private enrollers and these private collection/enrolment
+centres run by private parties continued to enrol the citizens under the UID scheme.
+7. Writ Petition (Civil) No. 494 of 2012, Under Article 32 of the Constitution of India,
+was preferred by Justice K.S. Puttuswamy, a former Judge of the Karnataka High Court
+before this Court, challenging the UID scheme stating therein that the same does not
+have any statutory basis and it violated the 'Right to Privacy', which is a facet of Article
+21 of the Constitution. This Court decided to consider the plea raised in the said writ
+petition and issued notice. Vide order dated September 23, 2013, the Court also passed
+the following directions:
+      08-08-2022 (Page 7 of 71)    www.manupatra.com           OP Jindal Global University    In the meanwhile, no person should suffer for not getting the Aadhaar card in
+    spite of the fact that some authority had issued a circular making it mandatory
+    and when any person applies to get the Aadhaar Card voluntarily, it may be
+    checked whether that person is entitled for it under the law and it should not be
+    given to any illegal immigrant.
+In the meanwhile, various writ petitions were filed by public spirited citizens and
+organisations challenging the validity of the Aadhaar scheme and this Court has tagged
+all those petitions along with Writ Petition (Civil) No. 494 of 2012.
+Court passed orders requiring UIDAI to provide biometric information to CBI forHigh
+investigation purposes with respect to a criminal trial. This order was challenged by
+UIDAI by filing Special Leave Petition (Criminal) No. 2524 of 2014, in which orders
+dated March 24, 2014 were passed by this Court restraining the UIDAI from transferring
+any biometric information to any agency without the written consent of the concerned
+individual. The said order is in the following terms:
+    In the meanwhile, the present Petitioner is restrained from transferring any
+    biometric information of any person who has been allotted the Aadhaar number
+    to any other agency without his consent in writing.
+    More so, no person shall be deprived of any service for want of Aadhaar
+    number in case he/she is otherwise eligible/entitled. All the authorities are
+    directed to modify their forms/circulars/likes so as to not compulsorily require
+    the Aadhaar number in order to meet the requirement of the interim order
+    passed by this Court forthwith.
+9 . Thereafter, the aforesaid writ petitions and special leave petitions were taken up
+together. Matter was heard at length by a three Judges Bench of this Court and detailed
+arguments were advanced by various counsel appearing for the Petitioners as well as
+the Attorney General for India who appeared on behalf of the Union of India. As stated
+above, one of the main grounds of attack on Aadhaar Card scheme was that the very
+collection of biometric data is violative of the 'Right to Privacy', which, in turn, violated
+not only Article 21 of the Constitution of India but other Articles embodying the
+fundamental rights guaranteed under Part III of the Constitution. This argument was
+sought to be rebutted by the Respondents with the submission that in view of eight
+Judges' Bench judgment of this Court inM.P. Sharma and Ors. v. Satish Chandra
+and Ors. MANU/SC/0018/1954 : AIR 1954 SC 300 and that of six Judges' Bench in
+Kharak Singh v. State of U.P. and Ors. MANU/SC/0085/1962 : AIR 1963 SC 1295,
+the legal position regarding the existence of fundamental Right to Privacy is doubtful. At
+the same time, it was also accepted that subsequently smaller Benches of two or three
+Judges of this Court had given the judgments recognising the Right to Privacy as part of
+Article 21 of the Constitution. On that basis, Respondents submitted that the matters
+were required to be heard by a Larger Bench to debate important questions like:
+    (i) Whether there is any Right to Privacy guaranteed under the Constitution;
+    and
+    (ii) If such a Right exists, what is the source and what are the contours of such
+    Right to Privacy.is no express provision in the Constitution adumbrating the
+10. Though, this suggestion of the Respondents were opposed by the counsel for the
+      08-08-2022 (Page 8 of 71)    www.manupatra.com           OP Jindal Global UniversityPetitioners, the said Bench still deemed it proper to refer the matter to the Larger Bench
+and the reasons for taking this course of action are mentioned in paras 12 and 13 of the
+order dated August 11, 2015 which reads as under:
+    12. We are of the opinion that the cases on hand raise far reaching questions
+    of importance involving interpretation of the Constitution. What is at stake is
+    the amplitude of the fundamental rights including that precious and inalienable
+    right Under Article 21. If the observations made inM.P. Sharma (supra) and
+    Kharak Singh (supra) are to be read literally and accepted as the law of this
+    country, the fundamental rights guaranteed under the Constitution of India and
+    more particularly right to liberty Under Article 21 would be denuded of vigour
+    and vitality. At the same time, we are also of the opinion that the institutional
+    integrity and judicial discipline require that pronouncement made by larger
+    Benches of this Court cannot be ignored by the smaller Benches without
+    appropriately explaining the reasons for not following the pronouncements
+    made by such larger Benches. With due respect to all the learned Judges who
+    referred to their Lordships concern for the liberty of human beings, we are of
+    the humble opinion that there appears to be certain amount of apparent
+    unresolved contradiction in the law declared by this Court.
+    13. Therefore, in our opinion to give a quietus to the kind of controversy raised
+    in this batch of cases once for all, it is better that ratio decidendi of M.P.
+    Sharma (supra) and Kharak Singh (supra) is scrutinized and the jurisprudential
+    correctness of the subsequent decisions of this Court where the right to privacy
+    is either asserted or referred be examined and authoritatively decided by a
+    Bench of appropriate strength.
+11. While referring the matter as aforesaid, by another order of the even date, the
+Bench expressed that it would be desirable that the matter be heard at the earliest. On
+the same day, yet another order was passed by the Bench in those petitions giving
+certain interim directions which would prevail till the matter is finally decided by the
+Larger Bench. We would like to reproduce this order containing the said interim
+arrangement in toto:
+                                     INTERIM </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="B57" s="0" t="inlineStr">
+        <is>
+          <t> 25.01.2022
+           </t>
+        </is>
+      </c>
+      <c r="C57" s="0" t="inlineStr">
+        <is>
+          <t>MANU/SC/0128/2022</t>
+        </is>
+      </c>
+      <c r="D57" s="0" t="inlineStr">
+        <is>
+          <t> Delhi Commission for Protection of Child Rights
+                                          </t>
+        </is>
+      </c>
+      <c r="E57" s="0" t="inlineStr">
+        <is>
+          <t> Union of India (UOI) and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F57" s="0" t="inlineStr">
+        <is>
+          <t>COULD NOT FIND CASE NOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="B58" s="0" t="inlineStr">
+        <is>
+          <t> 09.03.2018
+                   </t>
+        </is>
+      </c>
+      <c r="C58" s="0" t="inlineStr">
+        <is>
+          <t>MANU/SC/0232/2018</t>
+        </is>
+      </c>
+      <c r="D58" s="0" t="inlineStr">
+        <is>
+          <t> Common Cause (A Regd. Society)
+                                         </t>
+        </is>
+      </c>
+      <c r="E58" s="0" t="inlineStr">
+        <is>
+          <t> Union of India (UOI) and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F58" s="0" t="inlineStr">
+        <is>
+          <t>Dipak Misra, C.J.I. and A.M. Khanwilkar, J.
+Constitution - Right to Self Determination - Article 21 of Constitution of India -
+Present petition filed seeking declaration that right to die with dignity be
+declared fundamental right within right to live with dignity under Article 21 of
+Constitution - Whether person be allowed to remain in stage of incurable
+permits accelerating process of dying sans suffering when life is on inevitable
+decay - Whether right to life under Article 21 of Constitution includes right to
+die
+A.K. Sikri, J.
+     08-08-2022 (Page 1 of 217)   www.manupatra.com         OP Jindal Global UniversityConstitution - Living Will - Determination of Legal Status - Article 21 of
+Constitution of India - Present petition filed seeking declaration thatright to
+die with dignity be declared fundamental right within right to live with dignity
+under Article 21 of Constitution - Whether passive euthanasia, voluntary or
+involuntary legally permissible - Whether living will or advance directive be
+legally recognized and enforced
+Dr. D.Y. Chandrachud, J.
+Constitution - Sanctity of Life - Determination of Legal Status - Article 21 of
+Constitution of India - Present petition filed seeking declaration thatright to
+die with dignity be declared fundamental right within right to live with dignity
+under Article 21 of Constitution - Whether individual Constitutionally
+recognized right to refuse medical treatment - Whether right to life under
+Article 21 of Constitution includes right to die
+Ashok Bhushan, J.
+Constitution - Sanctity of Life - Determination of Legal Status - Article 21 of
+Constitution of India - Present petition filed seeking declaration thatright to
+die with dignity be declared fundamental right within right to live with dignity
+under Article 21 of Constitution - Whether advance directive be legalized -
+Whether to withdraw treatment for incompetent terminally ill patient, rational
+or irrational
+Facts:
+The Petitioner was a registered society engaged in taking of the common
+problems of the people. The present petition was filed to bring to the notice of
+this Court the serious problem of violation of fundamental right to life, liberty,
+privacy and the right to die with dignity of the people of this country,
+guaranteed to them under Article 21 of the Constitution. It was submitted that
+the people who are suffering from chronic diseases and are at the end of their
+natural life span are deprived of their rights to refuse cruel and unwanted
+medical treatment, like feeding through hydration tubes, being kept on
+ventilator and other life supporting machines in order to artificially prolong
+their natural life span. It was further pleaded that it was a common law right
+of the people, of any civilized country, to refuse unwanted medical treatment
+and no person could force him/her to take any medical treatment which the
+person did not desire to continue with.
+Held, while allowing petition:
+Dipak Misra, C.J.I. and A.M. Khanwilkar, J.
+     08-08-2022 (Page 2 of 217)  www.manupatra.com        OP Jindal Global University(i) The present Court noted that a careful and precise perusal of the judgment
+in Gian Kaur v. State of Punjab reflects the right of a dying man to die with
+dignity when life is ebbing out, and in the case of a terminally ill patient,
+where there is no hope of recovery, accelerating the process of death for
+reducing the period of suffering constitutes a right to live with dignity.
+Common law jurisdictions reveal that all adults with capacity to consent have
+the right of self-determination and autonomy. The said rights pave the way for
+the right to refuse medical treatment which had acclaimed universal
+recognition. A competent person who had come of age has the right to refuse
+specific treatment or all treatment or opt for an alternative treatment, even if
+such decision entails a risk of death. The 'Emergency Principle' or the 'Principle
+of Necessity' has to be given effect to only when it is not practicable to obtain
+the patient's consent for treatment and his/her life is in danger. But where a
+patient has already made a valid Advance Directive which is free from
+reasonable doubt and specifying that he/she does not wish to be treated, then
+such directive had to be given effect to. Right to life and liberty as envisaged
+under Article 21 of the Constitution is meaningless unless it encompasses
+within its sphere individual dignity. The present Court noted that with the
+passage of time, this Court has expanded the spectrum of Article 21 to include
+within it the right to live with dignity as component of right to life and liberty.
+[195 ]
+A.K. Sikri, J. :Concurring View
+(ii) We do not cut short the sufferings of our ailing dear ones by death
+because, as a rule, we have always means at our disposal to help them and
+they have the capacity to think and decide for themselves. But supposing that
+and the patient is lying in an unconscious state in the throes of agony, thention
+there would be no hinsa in putting an end to his suffering by death. Just as a
+surgeon did not commit hinsa but practices the purest ahinsa when he wields
+his knife, one may find it necessary, under certain imperative circumstances, to
+go a step further and sever life from the body in the interest of the sufferer. It
+may be objected that whereas the surgeon performs his operation to save the
+life of the patient, in the other case we did just the reverse. But on a deeper
+analysis it would be found that the ultimate object sought to be served in both
+the cases is the same, namely, to relieve the suffering soul within from pain.
+The present Court concluded that to cause pain or wish ill to or to take the life
+of any living being out of anger or a selfish intent, is hinsa. On the other hand,
+after a calm and clear judgment to kill or cause pain to a living being from a
+pure selfless intent may be the purest form of ahinsa. [247 ]
+(iii) Advance directives are instruments through which persons express their
+wishes at a prior point in time, when they are capable of making an informed
+decision, regarding their medical treatment in the future, when they are not in
+a position to make an informed decision, by reason of being unconscious or in
+a persistent vegetative state (PVS) or in a coma. A medical power of attorney
+is an instrument through which persons nominate representatives to make
+decisions regarding their medical treatment at a point in time when the
+persons executing the instrument are unable to make informed decisions
+themselves. The one hand autonomy of an individual gives him right to choose
+     08-08-2022 (Page 3 of 217) www.manupatra.com        OP Jindal Global Universityhis destiny and, therefore, he may decide before hand, in the form of advance
+directive, at what stage of his physical condition he would not like to have
+medical treatment, and on the other hand, there are dangers of misuse thereof
+as well. The possibility of misuse could not be held to be a valid ground for
+rejecting advance directive, as opined by the Law Commission of India as well
+in its 196 th and 241  stReport. Instead, attempt could be made to provide
+safeguards for exercise of such advance directive. [327],[328] and[329]
+Dr. D.Y. Chandrachud, J. :Concurring View
+(iv) The reason which had impelled the Court to recognize passive euthanasia
+and advance directives is that both bear a close association to the human urge
+to live with dignity. Age brings isolation. Physical and mental debility bring a
+loss of self worth. Pain and suffering are accompanied by a sense of being
+helpless. The loss of control is compounded when medical intervention takes
+over life. Human values are then lost to technology. More significant than the
+affliction of ageing and disease is the fear of our human persona being lost in
+the anonymity of an intensive care ward. It is hence necessary for this Court to
+recognize that our dignity as citizens continues to be safeguarded by the
+Constitution even when life is seemingly lost and questions about our own
+mortality confront us in the twilight of existence. The sanctity of human life is
+the arterial vein which animates the values, spirit and cellular structure of the
+Constitution. The Constitution recognizes the value of life as its indestructible
+component. The survival of the sanctity principle is founded upon the
+guarantees of dignity, autonomy and liberty. Constitutional recognition of the
+dignity of existence as an inseparable element of the right to life necessarily
+means that dignity attaches throughout the life of the individual. Dignity of life
+must encompass dignity in the stages of living which lead up to the end of life.
+Dignity in the process of dying is as much a part of the right to life under
+Article 21 of the Constitution. To deprive an individual of dignity towards the
+end of life is to deprive the individual of a meaningful existence. Hence, the
+Constitution protects the legitimate expectation of every person to lead a life
+of dignity until death occurs. The constitutionally recognized right to life is
+subject to the procedure established by law. The procedure for Regulation or
+deprivation must, it is well-settled, be fair, just and reasonable. [477 ]
+Ashok Bhushan, J. :Concurring View
+(v) The rights of bodily integrity and self-determination are the rights which
+belong to every human being. When an adult person having mental capacity to
+take a decision can exercise his right not to take treatment or withdraw from
+treatment, the above right could not be negated for a person who is not able to
+take an informed decision due to terminal illness or being a PVS. In case of a
+person who is suffering from a disease and is taking medical treatment, there
+are three stake holders; the person himself, his family members and doctor
+treating the patient. No person could take decision regarding life of another
+unless he is entitled to take such decision authorized under any law. The
+English Courts had applied the "best interests" test in case of a incompetent
+person. The best interests of the patient had to be found out not by doctor
+     08-08-2022 (Page 4 of 217) www.manupatra.com         OP Jindal Global Universitytreating the patient alone but a team of doctors specifically nominated by the
+State Authority. The present Court was of the opinion that in cases of
+incompetent patients who are unable to take an informed decision, it was in
+the best interests of the patient that the decision be taken by competent
+medical experts. The medical team while taking decision shall also take into
+consideration the opinion of the blood relations of the patient and other
+relevant facts and circumstances. [563] and[564]
+(vi) The concept of advance medical directive is also called living will is of
+recent origin, which gained recognition in latter part of 20th century. Many
+people living depending on machines cause great financial distress to the
+family with the cost of long term medical treatment. Advance medical directive
+was developed as a means to restrict the kinds of medical intervention in
+event when one become incapacitated. The foundation for seeking direction
+regarding advance medical directive is extension of the right to refuse medical
+treatment and the right to die with dignity. When a competent patient has
+right to take a decision regarding medical treatment, with regard to medical
+procedure entailing right to die with dignity, the said right cannot be denied to
+those patients, who have become incompetent to take an informed decision at
+the relevant time. [566] and[567]
+                                   </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="B59" s="0" t="inlineStr">
+        <is>
+          <t> 29.03.2016
+                  </t>
+        </is>
+      </c>
+      <c r="C59" s="0" t="inlineStr">
+        <is>
+          <t>MANU/KE/0426/2016</t>
+        </is>
+      </c>
+      <c r="D59" s="0" t="inlineStr">
+        <is>
+          <t> High Court Legal Aid Committee
+                                       </t>
+        </is>
+      </c>
+      <c r="E59" s="0" t="inlineStr">
+        <is>
+          <t> State of Kerala
+</t>
+        </is>
+      </c>
+      <c r="F59" s="0" t="inlineStr">
+        <is>
+          <t>issued to ensure that the mentally challenged patients are not confined nude,
+except in exceptional circumstances and to ensure that accused/criminals,
+who are mentally challenged, be taken back to their place of confinement
+without delay and to expedite the trial of such persons.
+In this public interest litigation filed on the basis of direction of the
+Honourable Supreme Court of India in W.P. (Crl.) No. 237/89 Sheila Barse v.
+Union of India, a petition was filed by the Co-ordinator of an NGO, concerned
+with human rights. The petition brought into focus the practice of confining in
+the nude, those mentally challenged with suicidal tendencies, which is a
+practice prevalent in the mental health centres of the State. Petitioner
+pointed out two instances which occurred in the Mental Health Centre,
+Thrissur. The learned Single Judge called for report from the District Judge,
+who is the Chairman of the monitoring committee about the incident and on
+getting the report, directed the Psychiatric Society (Kerala) to offer
+suggestions as to alternate arrangements that could be made without
+exposing the mental health patients to the indignity of being confined nude in
+the mental health centres. After hearing all stakeholders, the court issued
+comprehensive directions to ensure that the mentally challenged patients are
+not confined nude except in exceptional circumstances and to ensure that
+accused/criminals who are mentally challenged should be taken back to their
+place of confinement without delay and to expedite the trial of such persons.
+The Court;
+Held:
+     08-08-2022 (Page 1 of 9)  www.manupatra.com        OP Jindal Global UniversityThe Superintendents of MHCs in the State and the Doctors attached thereat
+shall ensure that none of the patients, even those showing acute suicidal
+tendencies, when placed in seclusion, shall be so placed nude; unless very
+acute situation warrants the same. If there is such a warrant then it would
+have to be approved by a Committee of Doctors with the Superintendent in
+the Chair and consisting of two other Psychiatrists; other than the attending
+physician. In the rare event of such a seclusion being ordered and approved, it
+shall be ensured that the subject patient is not exposed to anyone of the
+opposite sex, not even from amongst the staff of the MHCs. But for these rare
+cases, suitable dress for patients, kept in seclusion, can be devised by the
+Superintendent of the MHCs in consultation with the Doctors in a Centre. In
+this context, it would be necessary to provide for the specific dress which is to
+be used in the case of the inmates in each of the MHCs, for which the
+respective Superintendents shall consult with the Doctors within the MHCs
+and issue specific orders in writing on that aspect. The DGP shall also issue
+necessary orders to the Superintendents of the Jails to ensure that any
+convict or undertrial prisoner sent to any of the MHCs shall be accompanied
+with a report of the Medical Officer of the Prison, indicating the exact
+offence/crime committed, the history of the patient, any earlier treatment
+undertaken and the details of the family as available from the records of the
+prison and a short note by the Medical Officer, as to the behavioural
+tendencies of the individual convict. The Psychiatric Society is also requested
+members of the MHCs and whether they could voluntarily take up suchstaff
+training activities which could be commenced and continued in the various
+MHCs at their convenience and in the frequency they would deem fit. The
+Psychiatric Society would also think in lines of laying down a specific protocol
+for dealing with oppressively distressed patients and place it for consideration
+before this Court. With respect to undertrial prisoners, the Secretary, MHA and
+the members of the Psychiatric Society express concern that they are not
+taken back in time, after they are declared fit for standing trial and the cases
+are also not taken up for trial within a reasonable period, causing relapse of
+the condition, more for reason of they being again mixed with the general
+population of convicts. These persons also could be placed in the
+rehabilitation centres, proposed above, till the trial is commenced, carried on
+and concluded. The Registrar General, High Court of Kerala, Kochi-682 031 is
+also suo motu impleaded in the above I.A. and is directed to place on record
+the measures which could be adopted to expedite the trial of such mentally ill
+persons immediately on their being declared fit for trial so as to ensure that
+they are not incarcerated indefinitely, pending trial. [21]
+                                     </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="B60" s="0" t="inlineStr">
+        <is>
+          <t> 07.03.2011
+                    </t>
+        </is>
+      </c>
+      <c r="C60" s="0" t="inlineStr">
+        <is>
+          <t>MANU/SC/0176/2011</t>
+        </is>
+      </c>
+      <c r="D60" s="0" t="inlineStr">
+        <is>
+          <t> Aruna Ramchandra Shanbaug
+                                       </t>
+        </is>
+      </c>
+      <c r="E60" s="0" t="inlineStr">
+        <is>
+          <t> Union of India (UOI) and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F60" s="0" t="inlineStr">
+        <is>
+          <t>Constitution of India, 1950 - Article 32--Maintainability of petition--Held--
+fundamental right--Right to life guaranteed by Article 21 of Constitution does
+not include the right to die--Petition is not maintainable.
+"Brain Death"--Means complete absence of voluntary movements--This
+patient can only be maintained alive by advanced life support machine--These
+patients can be legally declared dead to allow their organs to be taken for
+donation.
+"Coma" Patients--These patients are unconscious--They can not be awakened
+even by application of a painful stimules--They have normal heart beat and
+breathing and do not require advanced life support.
+"Permanent vegetative stage"--In PVS complete absence of behavioral
+evidence for self or environmental awareness--They can not voluntarily
+control passing of urine and stools--They have normal heart beating and
+breathing--There is no threat to life and can survive for many years.
+"Life--Scope of--Held--Life is not mere living in health and health is not the
+absence of illness but a glowing vitality.
+"Withdrawal of life support"--Means and scope--Held--Withdrawal of life
+support by Doctor is in law, considered as an omission and not a positive
+steps to terminate life--Later would be euthanasia and a criminal offence.
+"Active and Passive Euthanasia"--Held--Active euthanasia entails use of
+lethal substances or forces to kill a person while passive euthanasia entails
+with holding of medical treatment for discontinuance of life.
+     08-08-2022 (Page 1 of 54)  www.manupatra.com        OP Jindal Global University"Permanent        Vegetative       Stage"--Characteristic--Held--Distinguishing
+characteristic of PVS is that the brain stem remains alive and functioning
+while the cortex has lost its functions--So PVS patient Continues to breath
+unaided and his digestion continues to function--Though his eye are open but
+unable to see and hear.
+Indian Penal Code, 1860--Section 309--Attempt to suicide--Legality--Held--
+Although Section 309 I.P.C. has been held to be constitutional valid but time
+has come when it should be deleted by parliament as it has become
+anachronistic--A person attempt to suicide in a depression and needs help.
+"Withdrawal of Life Support" of PVS Patient--Requisite--Held--A decision has
+to be taken to discontinue life support either by the parents or spouse or
+other close relatives or in the absence of any of them such a decision can be
+taken even by a person or a body of persons acting as a next friend--It can
+also be taken by doctor attending the patient--Decision should be taken bona
+fide in the best interest of the patient.
+Constitution   of  India, 1950--Article    226--Withdrawal     of life  support-
+Competent court--Held--It is the High Court under Article 226 of Constitution
+which can grant approval for withdrawal of life support to a competent
+person--High Court under Article 226 of Constitution is not only entitled to
+issue writ but is also entitled to issue directions and orders.
+Application for "withdrawal of life support"--Procedure to be adopted--Held--
+When application for withdrawal of life support is filed than the Chief Justice
+of High Court should forth with constitute a Bench of two Judges who should
+decide to grant approval or not--Before doing so Bench should seek opinion of
+experts--For this purpose a panel of Doctors in every city be prepared.
+                                   </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="B61" s="0" t="inlineStr">
+        <is>
+          <t> 11.06.2021
+                     </t>
+        </is>
+      </c>
+      <c r="C61" s="0" t="inlineStr">
+        <is>
+          <t>MANU/GJ/0753/2021</t>
+        </is>
+      </c>
+      <c r="D61" s="0" t="inlineStr">
+        <is>
+          <t> Hetalben Maheshbhai Vekriya
+                                          </t>
+        </is>
+      </c>
+      <c r="E61" s="0" t="inlineStr">
+        <is>
+          <t> State of Gujarat and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F61" s="0" t="inlineStr">
+        <is>
+          <t>COULD NOT FIND CASE NOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="B62" s="0" t="inlineStr">
+        <is>
+          <t> 25.01.2021
+                         </t>
+        </is>
+      </c>
+      <c r="C62" s="0" t="inlineStr">
+        <is>
+          <t>MANU/KA/0183/2021</t>
+        </is>
+      </c>
+      <c r="D62" s="0" t="inlineStr">
+        <is>
+          <t> Anivar A. Aravind
+                                      </t>
+        </is>
+      </c>
+      <c r="E62" s="0" t="inlineStr">
+        <is>
+          <t> Ministry of Home Affairs and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F62" s="0" t="inlineStr">
+        <is>
+          <t>Constitution - Interim Relief - Article 21 of the Constitution of India - Issue in
+petition concerns Aarogya Setu application introduced by Government of India
+after nationwide lockdown was announced by Prime Minister on 24th March,
+2020 - Whether government of India had right to use personal data of
+Aarogya Setu app users on app and whether it could transfer/share data
+without obtaining informed consent of users - Held, in view of facts and
+circumstances of case, court must hold that as informed consent of user was
+taken to privacy policy which contains details about use of information, its
+transfer and retention, interim relief could not be granted restraining
+collection of information, use of information and retention strictly as provided
+in privacy policy which was available on Aarogya Setu app itself - Reason was
+that prima facie, court have come to conclusion that considering procedure for
+installation of Aarogya Setu app, there was informed consent of user taken
+for doing something which was permissible as per privacy policy which was
+very much available on Aarogya Setu app - In fact, before user provides his
+personal mobile number and other details, his informed consent was required
+to be taken to privacy policy and terms of service - He was given option at two
+stages to opt out before sharing his cell phone number and other personal
+details - However, information contains data about health of user which all
+more requires protection of right to privacy - Prima facie, court find that
+privacy of users, thereby amounting to violation of rights guaranteed under
+Article 21 of Constitution and could not be permitted to be implemented -
+Thus, court pass interim order accordinlgy. [24],[27],[28]
+                                    </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="B63" s="0" t="inlineStr">
+        <is>
+          <t> 02.09.2011
+                    </t>
+        </is>
+      </c>
+      <c r="C63" s="0" t="inlineStr">
+        <is>
+          <t>MANU/MH/1098/2011</t>
+        </is>
+      </c>
+      <c r="D63" s="0" t="inlineStr">
+        <is>
+          <t> Padam Chandra Singhi and Ors.
+                                          </t>
+        </is>
+      </c>
+      <c r="E63" s="0" t="inlineStr">
+        <is>
+          <t> P.B. Desai and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F63" s="0" t="inlineStr">
+        <is>
+          <t>COULD NOT FIND CASE NOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="B64" s="0" t="inlineStr">
+        <is>
+          <t> 10.03.2021
+                          </t>
+        </is>
+      </c>
+      <c r="C64" s="0" t="inlineStr">
+        <is>
+          <t>MANU/KE/0718/2021</t>
+        </is>
+      </c>
+      <c r="D64" s="0" t="inlineStr">
+        <is>
+          <t> Ayishamol V. and Ors.
+                                          </t>
+        </is>
+      </c>
+      <c r="E64" s="0" t="inlineStr">
+        <is>
+          <t> The State of Kerala and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F64" s="0" t="inlineStr">
+        <is>
+          <t>COULD NOT FIND CASE NOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="B65" s="0" t="inlineStr">
+        <is>
+          <t> 07.01.2020
+                       </t>
+        </is>
+      </c>
+      <c r="C65" s="0" t="inlineStr">
+        <is>
+          <t>MANU/DE/0018/2020</t>
+        </is>
+      </c>
+      <c r="D65" s="0" t="inlineStr">
+        <is>
+          <t> Vandana Tyagi and Ors.
+                                        </t>
+        </is>
+      </c>
+      <c r="E65" s="0" t="inlineStr">
+        <is>
+          <t> Government of National Capital Territory of Delhi (GNCTD) and
+                                       Ors.
+</t>
+        </is>
+      </c>
+      <c r="F65" s="0" t="inlineStr">
+        <is>
+          <t>Service - Provident Fund - Benefit of - Present petitioners are aggrieved by
+fact that SBI has not given them recourse to Public Provident Fund account
+which was opened and maintained by their father, during his lifetime, upon
+their mother - Whether case made out for grant of relief as prayed - Held,
+stand of SBI that petitioners should apply for guardianship certificate is
+unsustainable - Petitioners have filed affidavits as directed - Same advert to
+assets held by them - Undertaking to effect that they would utilize assets of
+mother, which includes money credited to her bank account, in her best
+interest - Relief granted - Disposed of. [31], [32]
+                                    </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="B66" s="0" t="inlineStr">
+        <is>
+          <t> 08.11.2013
+                             </t>
+        </is>
+      </c>
+      <c r="C66" s="0" t="inlineStr">
+        <is>
+          <t>MANU/TN/2804/2013</t>
+        </is>
+      </c>
+      <c r="D66" s="0" t="inlineStr">
+        <is>
+          <t> Easwaran DNB
+                                         </t>
+        </is>
+      </c>
+      <c r="E66" s="0" t="inlineStr">
+        <is>
+          <t> Tamil Nadu Medical Council and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F66" s="0" t="inlineStr">
+        <is>
+          <t>Law of Medicine - Medical Council - Power of - Present petition filed for
+seeking direction to Respondent for initiation of disciplinary action against
+negligent medical professional - Whether Medical Council was empowered to
+initiate disciplinary action against negligent medical professional - Held, as
+observed by Supreme Court in Dr. P.B. Desai v. State of Maharashtra,
+disciplinary action could be taken against medical professional on account of
+breach of duty to take care - State Medical Council held to have jurisdiction to
+initiate disciplinary action against medical professional pursuant to complaint
+preferred by Petitioner - Respondent was directed to consider complaints of
+Petitioner and dispose it of on merits - Petition disposed of.
+                                       </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="B67" s="0" t="inlineStr">
+        <is>
+          <t> 13.11.2017
+                                </t>
+        </is>
+      </c>
+      <c r="C67" s="0" t="inlineStr">
+        <is>
+          <t>MANU/TN/3776/2017</t>
+        </is>
+      </c>
+      <c r="D67" s="0" t="inlineStr">
+        <is>
+          <t> Senthil
+                                       </t>
+        </is>
+      </c>
+      <c r="E67" s="0" t="inlineStr">
+        <is>
+          <t> State
+</t>
+        </is>
+      </c>
+      <c r="F67" s="0" t="inlineStr">
+        <is>
+          <t>Criminal - Conviction - Section 366 of Indian Penal Code, 1860 (IPC), Section
+9 of Child Marriage Prohibition Act, 2006 and Section 4 of Protection of
+Children from Sexual Offences Act, 2012 - Appeal filed against conviction -
+Whether prosecution proved charges against accused beyond all reasonable
+doubt - Held, victim went voluntarily with accused - Bone age of victim was
+likely to be about 15 years and below 17 years - Prosecution was able to
+prove that victim girl was aged about 15 years - If act of physical relationship
+was a consensual than under provisions of Act of 2012 it would amount to
+penetrative sexual assault - Accused was liable to be punished under Section
+4 of Act - Ingredients of Section 366 of IPC have also been made out - Trial
+Court was right in convicting accused - Appeal dismissed. [11],[21] and[22]
+                                   </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="B68" s="0" t="inlineStr">
+        <is>
+          <t> 01.11.2021
+                    </t>
+        </is>
+      </c>
+      <c r="C68" s="0" t="inlineStr">
+        <is>
+          <t>MANU/BH/1168/2021</t>
+        </is>
+      </c>
+      <c r="D68" s="0" t="inlineStr">
+        <is>
+          <t> Amit Kumar Agarwal and Ors.
+                                       </t>
+        </is>
+      </c>
+      <c r="E68" s="0" t="inlineStr">
+        <is>
+          <t> The Union of India and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F68" s="0" t="inlineStr">
+        <is>
+          <t>Right to Persons with Disabilities Act, 2016 - Section 25--Constitution of
+India--Articles 21, 47 and 226--Relief to patients suffering from Thalassemia-
+-Petitioners in present case are all individuals directly or indirectly affected by
+Thalassemia, and they are all committed to working to better people suffering
+from this disease--In light of COVID-19 pandemic and condition of patients
+suffering from Thalassemia in State of Bihar has become increasingly critical
+with an apparent rise in fatalities with each passing day--This can be
+attributed to a shortage of blood and a lack of arrangements for proper
+treatment--An important aspect of striving to achieve social justice is to
+ensure realization of Right to Health for all citizens, in recognition of it being
+a part of Right to Life under Article 21 of Constitution of India--By virtue of
+Article 47 of Constitution of India, State is under obligation to ensure raising
+standard of public health--Health enables a person to live their life with
+dignity--If treatment is scarcely available or, in an even worse scenario,
+denied, it puts patient of Thalassemia squarely in path of danger to their life,
+infringing their dignity--Unavailability or shortage of blood, medicines or any
+other essentialities needed for treatment of Thalassemia patients is not a
+pathway available to Government--Death of even a single person suffering
+from disability for lack of resources is an affront to commitments of State to
+international law--State is under obligation to compensate family who died
+solely on account of non-availability of adequate medical facilities--Elaborate
+directions issued. [2], [22], [23], [26] to [28]
+                                   </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="B69" s="0" t="inlineStr">
+        <is>
+          <t> 28.03.2003
+                               </t>
+        </is>
+      </c>
+      <c r="C69" s="0" t="inlineStr">
+        <is>
+          <t>MANU/SC/0260/2003</t>
+        </is>
+      </c>
+      <c r="D69" s="0" t="inlineStr">
+        <is>
+          <t> Sharda
+                                       </t>
+        </is>
+      </c>
+      <c r="E69" s="0" t="inlineStr">
+        <is>
+          <t> Dharmpal
+</t>
+        </is>
+      </c>
+      <c r="F69" s="0" t="inlineStr">
+        <is>
+          <t>Hindu Marriage Act, 1955 - Sections 5 (ii) (b), 12 (1) (b) and 13 (1) (iii)--
+Code of Civil Procedure, 1908--Section 151, Order XXXII, Rule 15--Indian
+Lunacy Act, 1912--Section 41--Constitution of India--Article 21--Matrimonial
+dispute--Petition by husband for divorce on ground of unsoundness of mind of
+wife--Husband also filing application for direction for medical examination of
+wife for her unsoundness of mind--Whether matrimonial court has jurisdiction
+to direct wife to undergo medical examination for unsoundness of mind?--
+Held, "yes"--Whether such direction violates personal liberty under Article
+21?--Held, "no"--However, Court should exercise such power if applicant has
+strong prima facie case--And there is sufficient material before Court--If
+despite order, spouse refuses to submit to medical examination--Court
+entitled to draw adverse inference against spouse.
+The Court after elaborate discussion concluded :
+(1) A matrimonial court has the power to order a person to undergo medical
+test.
+(2) Passing of such an order by the Court would not be in violation of the
+right to personal liberty under Article 21 of the Indian Constitution.
+(3) However, the Court should exercise such a power if the applicant has a
+strong prima facie Â case and there is sufficient material before the Court. If
+despite the order of the Court, the respondent refuses to submit himself to
+medical examination, the Court will be entitled to draw an adverse inference
+against him.
+In certain cases, medical examination by the experts in the field may not only
+be found to be leading to truth of the matter but may also lead to removal of
+misunderstanding between the parties. It may bring the parties to terms.
+     08-08-2022 (Page 1 of 24)  www.manupatra.com        OP Jindal Global UniversityIn matrimonial disputes, the Court has also a conciliatory role to play--even
+for the said purpose it may require expert advice.
+Under Section 75 (e) of Code of Civil Procedure and Order XXVI, Rule 10A, the
+civil court has the requisite power to issue a direction to hold a scientific,
+technical or expert investigation.
+The question as to whether a person is mentally ill or not although may be a
+subject-matter of litigation, the Court having regard to the provisions
+contained in Order XXXII, Rule 15 of the Code of Civil Procedure, Section 41
+of the Indian Lunacy Act as also for the purpose of judging his competence to
+examine as a witness may issue requisite directions. It is, therefore, not
+correct to contend that for the aforementioned purposes, the Court has no
+power at all. The prime concern of the Court is to find out as to whether a
+person who is said to be mentally ill could defend himself properly or not.
+Determination of such an issue although may have some relevance with the
+determination of the issue in the lis, nonetheless, the Court cannot be said to
+be wholly powerless in this behalf. Furthermore, it is one thing to say that a
+person would be subjected to test which would invade his right of privacy and
+may in some case amount to battery ; but it is another thing to say that a
+party may be asked to submit himself to a psychiatrist or a psychoanalyst so
+as to enable the Court to arrive at a just conclusion. Whether the party to the
+examined by a properly qualified psychiatrist. For the said purpose, it may not
+be necessary to submit himself to any blood test or other pathological tests.
+If the Court for the purpose envisaged under Order XXXII, Rule 15 of Code of
+Civil Procedure or Section 41 of the Indian Lunacy Act can do it suo motu,
+there is no reason why it cannot do so on an application filed by a party to the
+marriage.
+Even otherwise, the Court may issue an appropriate direction so as to satisfy
+himself as to whether apart from treatment, he requires adequate protection
+inter alia by way of legal aid so that he may not be subject to an unjust order
+because of his incapacity. Keeping in view the fact that in a case of mental
+illness, the Court has adequate power to examine the party or get him
+examined by a qualified doctor, therefore, it was clear that in an appropriate
+case the Court may take recourse to such a procedure even at the instance of
+the party to the lis.
+Furthermore, the Court must be held to have the requisite power even under
+Section 151 of the Code of Civil Procedure to issue such direction either suo
+motu or otherwise which, according to him, would lead to the truth.
+In all such matrimonial cases where divorce is sought, say on the ground of
+impotency, schizophrenia.... etc. normally without there being medical
+examination, it would be difficult to arrive at a conclusion as to whether the
+allegation made by his spouse against the other spouse seeking divorce on
+such a ground, is correct or not. In order to substantiate such allegation, the
+petitioner would always insist on medical examination. If respondent avoids
+such medical examination on the ground that it violates his/her right to
+     08-08-2022 (Page 2 of 24) www.manupatra.com        OP Jindal Global Universityprivacy or for a matter right to personal liberty as enshrined under Article 21
+of the Constitution of India, then it may in most of such cases become
+impossible to arrive at a conclusion. It may render the very grounds on which
+divorce is permissible nugatory. Therefore, when there is no right to privacy
+specifically conferred by Article 21 of the Constitution of India and with the
+extensive interpretation of the phrase "personal liberty" this right has been
+read into Article 21, it cannot be treated as absolute right. What is
+emphasized is that some limitations on this right have to be imposed and
+particularly where two competing interests clash. In matters of aforesaid
+nature, where the Legislature has conferred a right upon his spouse to seek
+divorce on such grounds, it would be the right of that spouse which comes in
+conflict with the so-called right to privacy of the respondent. Thus, the Court
+has to reconcile these competing interests by balancing the interests
+involved.
+If for arriving at the satisfaction of the Court and to protect the right of a
+party to the lis who may otherwise be found to be incapable of protecting his
+own interest, the Court passes an appropriate order, the question of such
+action being violative of Article 21 of the Constitution of India would not
+arise. The Court having regard to Article 21 of the Constitution of India must
+also see to it that the right of a person to defend himself must be adequately
+protected.
+                                    </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="B70" s="0" t="inlineStr">
+        <is>
+          <t> 07.10.2009
+                              </t>
+        </is>
+      </c>
+      <c r="C70" s="0" t="inlineStr">
+        <is>
+          <t>MANU/TN/2716/2009</t>
+        </is>
+      </c>
+      <c r="D70" s="0" t="inlineStr">
+        <is>
+          <t> K. Alamelu
+                                        </t>
+        </is>
+      </c>
+      <c r="E70" s="0" t="inlineStr">
+        <is>
+          <t> Government of Tamil Nadu and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F70" s="0" t="inlineStr">
+        <is>
+          <t>Service - Termination - Petitioner filed this writ petition against order
+removal from service for professional misconduct - Held, when an opportunity
+for employee is given to represent against findings recorded by Enquiry
+Officer, it is incumbent upon disciplinary authority to deal with objections
+raised   -  Enquiry    officer's conduct    in   questioning   petitioner   before
+departmental witnesses were examined as well as recording opinion of two
+senior doctors after enquiry and in absence of petitioner will be clearly illegal
+- Further, there is no explanation for not conducting a joint trial in respect of
+alleged negligence of petitioner and other doctor - Conducting of separate
+enquiries on very same issue had really prejudiced petitioner - Enquiry was
+only farce as opinion of two doctors were not recorded in presence of
+petitioner - There is nothing in original files to indicate that petitioner was
+present during recording statement of two doctors and that she was allowed
+to cross examine those two doctors - Hence, writ petition allowed and
+impugned order set aside and petitioner entitled to all benefits including
+service and monetary benefits arising out of such restoration
+                                      </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="B71" s="0" t="inlineStr">
+        <is>
+          <t> 07.09.2021
+                       </t>
+        </is>
+      </c>
+      <c r="C71" s="0" t="inlineStr">
+        <is>
+          <t>MANU/SC/0610/2021</t>
+        </is>
+      </c>
+      <c r="D71" s="0" t="inlineStr">
+        <is>
+          <t> Harish Kumar Khurana
+                                      </t>
+        </is>
+      </c>
+      <c r="E71" s="0" t="inlineStr">
+        <is>
+          <t> Joginder Singh and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F71" s="0" t="inlineStr">
+        <is>
+          <t>Consumer - Medical Negligence - Two surgeries performed upon Patient -
+Patient after second surgery died due to cardiac arrest - Doctor cited poor
+tolerance to anaesthesia - Claim raised awarded in favour of Claimants by
+impugned judgment passed by National Consumer Disputes Redressal
+Commission(NCDRC)- Hence, the present appeal - Appellants assailed the
+judgment as bad in the absence of medical evidence - Whether impugned
+judgment liable to be set aside?
+Facts:
+The present appeals were against impugned finding given by the NCDRC
+holding Appellants guilty of medical negligence. Appeals were filed by doctor
+who administered anaesthesia to the patient, hospital where operation was
+performed and insurer from whom the anaesthetist and the hospital had
+taken separate policy to the extent limited thereunder. In the instant case,
+wife of the first claimant diagnosed with kidney stone could not survive in
+procedure followed to treat her kidney issues. Claim was raised on account of
+medical negligence caused. Hospital and doctor cited patient's poor tolerance
+to anaesthesia. It was contended that two operations/ surgeries were
+performed and second was performed in quick succession which caused
+cardiac arrest. Impugned judgment adjudged Appellants liable of causing
+medical negligence and directed compensation. Hence, the present appeal.
+Held, while allowing the Appeal:
+There was no medical evidence based on which conclusion was reached with
+regard to the medical negligence. The observations of the NCDRC in their
+opinion appears to be that the second operation ought not to have been
+conducted and such conclusion in fact had led to the other issues also being
+     08-08-2022 (Page 1 of 10) www.manupatra.com       OP Jindal Global Universityanswered against the Appellants which is not backed by expert opinion.[22]
+When there was no medical evidence available before the NCDRC on the
+crucial medical aspect which required such opinion, the mere reliance placed
+on the magisterial enquiry would not be sufficient. Though the opinion of the
+civil surgeon who was a member of the committee is contained in the report,
+the same cannot be taken as conclusive since such report does not have the
+statutory flavour nor was the civil surgeon who had tendered his opinion
+available for cross-examination or seeking answers by way of interrogatories
+on the medical aspects. Mere legal principles and the general standard of
+assessment was not sufficient in a matter of the present nature when the
+very same patient in the same set up had undergone a successful operation
+conducted by the same team of doctors. Hence, the conclusion as reached by
+the NCDRC is not sustainable.[23]
+For the aforesaid reasons, the order dated 13.08.2009 passed in O.P. No. 289
+of 1997 is set aside. The appeals are accordingly allowed. There shall be no
+order as to costs.[24]
+                                    </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="B72" s="0" t="inlineStr">
+        <is>
+          <t> 06.09.2018
+                      </t>
+        </is>
+      </c>
+      <c r="C72" s="0" t="inlineStr">
+        <is>
+          <t>MANU/SC/0947/2018</t>
+        </is>
+      </c>
+      <c r="D72" s="0" t="inlineStr">
+        <is>
+          <t> Navtej Singh Johar and Ors.
+                                         </t>
+        </is>
+      </c>
+      <c r="E72" s="0" t="inlineStr">
+        <is>
+          <t> Union of India (UOI) and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F72" s="0" t="inlineStr">
+        <is>
+          <t>Constitution - Validity of provision - Section 377 of Indian Penal Code, 1860
+(IPC) and Articles 14, 15, 19, and 21 of Constitution of India, 1950 - Writ
+and "right to choice of a sexual partner" to be part of the right to lifeutonomy"
+guaranteed Under Article 21 of Constitution of India and further to declare
+Section 377 of IPC to be unconstitutional- Whether Section 377 of IPC as it
+criminalises consensual sexual acts of adults (i.e. persons above the age of 18
+years who were competent to consent) in private, was violative of Articles 14,
+15, 19, and 21 of Constitution.
+     08-08-2022 (Page 1 of 207)   www.manupatra.com         OP Jindal Global UniversityFacts
+Writ Petition was filed for declaring "right to sexuality", "right to sexual
+autonomy" and "right to choice of a sexual partner" to be part of the right to
+life guaranteed under Article 21 of the Constitution of India and further to
+declare Section 377 of IPC to be unconstitutional.It is urged by the learned
+Counsel for the Petitioners that individuals belonging to the LGBT group suffer
+discrimination and abuse throughout their lives due to the existence of Section
+377 of IPC which is nothing but a manifestation of a mindset of societal values
+prevalent during the Victorian era where sexual activities were considered
+mainly for procreation. The said community remains in a constant state of fear
+which is not conducive for their growth. It is contended that they suffer at the
+hands of law and are also deprived of the citizenry rights which are protected
+under the Constitution. Petitioners face a violation of their fundamental rights
+to an extent which is manifestly clear and it is a violation which strikes at the
+very root or substratum of their existence. The discrimination suffered at the
+hands of the majority, the onslaught to their dignity and invasion on the right
+to privacy is demonstrably visible and permeates every nook and corner of the
+society. It is the argument of the Petitioners that Section 377, if retained in its
+present form, would involve the violation of, not one but, several fundamental
+rights of the LGBTs, namely, right to privacy, right to dignity, equality, liberty
+and right to freedom of expression. The Petitioners contend that sexual
+orientation which is a natural corollary of gender identity is protected under
+Article 21 of the Constitution and any discrimination meted out to the LGBT
+community on the basis of sexual orientation would run counter to the
+mandate provided under the Constitution and the said view has also gained
+approval of this Court in the NALSA case.
+Held, while allowing the petitions
+communities. It is intrinsic to their dignity, inseparable from their autonomy
+and at the heart of their privacy. Section 377 is founded on moral notions
+which are an anathema to a constitutional order in which liberty must trump
+over stereotypes and prevail over the mainstreaming of culture. [500]
+2. The impact of Section 377 has travelled far beyond criminalising certain
+acts. The presence of the provision on the statute book has reinforced
+stereotypes about sexual orientation. It has lent the authority of the state to
+the suppression of identities. The fear of persecution has led to the closeting
+of same sex relationships. A penal provision has reinforced societal disdain.
+[501]
+3. Sexual and gender based minorities cannot live in fear, if the Constitution
+has to have meaning for them on even terms. In its quest for equality and the
+equal protection of the law, the Constitution guarantees to them an equal
+citizenship. In de-criminalising such conduct, the values of the Constitution
+assure to the LGBT community the ability to lead a life of freedom from fear
+and to find fulfilment in intimate choices. [502]
+4. The choice of a partner, the desire for personal intimacy and the yearning to
+find love and fulfilment in human relationships have a universal appeal,
+     08-08-2022 (Page 2 of 207) www.manupatra.com         OP Jindal Global Universitystraddling age and time. In protecting consensual intimacies, the Constitution
+adopts a simple principle: the state has no business to intrude into these
+personal matters. Nor can societal notions of heteronormativity regulate
+constitutional liberties based on sexual orientation. [503]
+5. Present case has had great deal to say on the dialogue about the
+transformative power of the Constitution. In addressing LGBT rights, the
+Constitution speaks-as well-to the rest of society. In recognising the rights of
+the LGBT community, the Constitution asserts itself as a text for governance
+which promotes true equality. It does so by questioning prevailing notions
+about the dominance of sexes and genders. [505]
+6. A hundred and fifty eight years is too long a period for the LGBT community
+to suffer the indignities of denial. That it has taken sixty eight years even after
+the advent of the Constitution is a sobering reminder of the unfinished task
+which lies ahead. It is also a time to invoke the transformative power of the
+Constitution. [506]
+7. The ability of a society to acknowledge the injustices which it has
+perpetuated is a mark of its evolution. In the process of remedying wrongs
+under a regime of constitutional remedies, recrimination gives way to
+restitution, diatribes pave the way for dialogue and healing replaces the hate
+of a community. For those who have been oppressed, justice under a regime
+committed to human freedom, has the power to transform lives. In addressing
+the causes of oppression and injustice, society transforms itself. The
+Constitution has within it the ability to produce a social catharsis. The
+importance of this case lies in telling us that reverberations of how we address
+social conflict in our times will travel far beyond the narrow alleys in which
+they are explored. [507]
+8. Article 21 provides that no person shall be deprived of his life or personal
+liberty except according to the procedure established by law. Such procedure
+established by law must be fair, just and reasonable. The right to life and
+liberty affords protection to every citizen or non-citizen, irrespective of their
+identity or orientation, without discrimination. The right to privacy has now
+been recognised to be an intrinsic part of the right to life and personal liberty
+Under Article 21. Sexual orientation is an innate part of the identity of LGBT
+persons. Sexual orientation of a person is an essential attribute of privacy. Its
+protection lies at the core of Fundamental Rights guaranteed by Articles 14,
+15, and 21. The right to privacy is broad-based and pervasive under our
+Constitutional scheme, and encompasses decisional autonomy, to cover
+intimate/personal decisions and preserves the sanctity of the private sphere of
+and has travelled far beyond that initial concept. It now incorporates the ideas,
+of spatial privacy, and decisional privacy or privacy of choice.315 It extends to
+the right to make fundamental personal choices, including those relating to
+intimate sexual conduct, without unwarranted State interference. Section 377
+affects the private sphere of the lives of LGBT persons. It takes away the
+decisional autonomy of LGBT persons to make choices consistent with their
+sexual orientation, which would further a dignified existence and a meaningful
+life as a full person. Section 377 prohibits LGBT persons from expressing their
+sexual orientation and engaging in sexual conduct in private, a decision which
+inheres in the most intimate spaces of one's existence. [524]
+     08-08-2022 (Page 3 of 207) www.manupatra.com        OP Jindal Global University9. The right to health, and access to healthcare are also crucial facets of the
+right to life guaranteed Under Article 21 of the Constitution.317 LGBT persons
+being a    sexual   minority have    been   subjected to    societal  prejudice,
+discrimination and violence on account of their sexual orientation. Since
+Section 377 criminalises "carnal intercourse against the order of nature" it
+compels LGBT persons to lead closeted lives. As a consequence, LGBT persons
+are seriously disadvantaged and prejudiced when it comes to access to health-
+care facilities. This results in serious health issues, including depression and
+suicidal tendencies amongst members of this community.318 LGBT persons,
+and more specifically the MSM, and transgender persons are at a higher risk of
+contracting HIV as they lack safe spaces to engage in safe-sex practices. They
+are inhibited from seeking medical help for testing, treatment and supportive
+care on account of the threat of being 'exposed' and the resultant prosecution.
+Higher rates of prevalence of HIV-AIDS in MSM, who are in turn married to
+other people of the opposite sex, coupled with the difficulty in detection and
+transmission of the virus. [524.3]ptible to contraction and further
+10. Article 19(1)(a) guarantees freedom of expression to all citizens. However,
+reasonable restrictions can be imposed on the exercise of this right on the
+grounds specified in Article 19(2). LGBT persons express their sexual
+orientation in myriad ways. One such way is engagement in intimate sexual
+acts like those proscribed Under Section 377. Owing to the fear of harassment
+from law enforcement agencies and prosecution, LGBT persons tend to stay 'in
+the closet'. They are forced not to disclose a central aspect of their personal
+identity i.e. their sexual orientation, both in their personal and professional
+spheres to avoid persecution in society and the opprobrium attached to
+homosexuality. Unlike heterosexual persons, they are inhibited from openly
+forming and nurturing fulfilling relationships, thereby restricting rights of full
+personhood and a dignified existence. It also has an impact on their mental
+well-being. [525.1]
+11. History owes an apology to the members of this community and their
+families, for the delay in providing redressal for the ignominy and ostracism
+that they have suffered through the centuries. The members of this community
+were compelled to live a life full of fear of reprisal and persecution. This was
+on account of the ignorance of the majority to recognise that homosexuality is
+a completely natural condition, part of a range of human sexuality. The mis-
+application of this provision denied them the Fundamental Right to equality
+guaranteed by Article 14. It infringed the Fundamental Right to non-
+discrimination Under Article 15, and the Fundamental Right to live a life of
+a life unshackled from the shadow of being 'unapprehended felons'. [528]o live
+12. It is declared that insofar as Section 377 criminalises consensual sexual
+acts of adults (i.e. persons above the age of 18 years who are competent to
+consent) in private, is violative of Articles 14, 15, 19, and 21 of the
+Constitution. It is, however, clarified that, such consent must be free consent,
+which is completely voluntary in nature, and devoid of any duress or coercion.
+The declaration of the aforesaid reading down of Section 377 shall not,
+however, lead to the reopening of any concluded prosecutions, but can
+certainly be relied upon in all pending matters whether they are at the trial,
+     08-08-2022 (Page 4 of 207) www.manupatra.com        OP Jindal Global Universityappellate, or revisional stages. The provisions of Section 377 will continue to
+govern non-consensual sexual acts against adults, all acts of carnal
+intercourse against minors, and acts of beastiality. The judgment in Suresh K.
+Koushal and Anr. v. Naz Foundation and Ors. is hereby overruled. The
+Reference is answered accordingly. Writ Petitions are allowed. [529]
+                                   </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="B73" s="0" t="inlineStr">
+        <is>
+          <t> 29.08.2001
+                               </t>
+        </is>
+      </c>
+      <c r="C73" s="0" t="inlineStr">
+        <is>
+          <t>MANU/AP/0574/2001</t>
+        </is>
+      </c>
+      <c r="D73" s="0" t="inlineStr">
+        <is>
+          <t> M. Vijaya
+                                       </t>
+        </is>
+      </c>
+      <c r="E73" s="0" t="inlineStr">
+        <is>
+          <t> Chairman and Managing Director, Singareni Collieries Co., Ltd.,
+                                  Hyd. and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F73" s="0" t="inlineStr">
+        <is>
+          <t>Constitution - violation of fundamental right - Articles 21 and 226 of
+Constitution of India - writ petition filed praying for taking action against
+respondent-company for causing infectious disease and for direction to
+provide sufficient financial assistance - petitioner victim was infected with
+dreadful disease of Acquired Immune Deficiency Syndrome (AIDS) owing to
+negligence on part of hospital authorities under control of respondent-
+company - relevant precautionary blood tests before transfusion of blood at
+time of operation not conducted for detecting AIDS - no tests conducted on
+petitioner at subsequent stages also - directions given to respondent to take
+measures for rendering special treatment to HIV+ patients - held, petitioner
+entitled to some reasonable amount of compensation to meet cost incurred
+towards medical expenses by public law remedy in addition of civil remedy.
+                                     </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="B74" s="0" t="inlineStr">
+        <is>
+          <t> 26.04.2018
+                              </t>
+        </is>
+      </c>
+      <c r="C74" s="0" t="inlineStr">
+        <is>
+          <t>MANU/DE/1548/2018</t>
+        </is>
+      </c>
+      <c r="D74" s="0" t="inlineStr">
+        <is>
+          <t> Ravinder
+                                       </t>
+        </is>
+      </c>
+      <c r="E74" s="0" t="inlineStr">
+        <is>
+          <t> Govt. of NCT of Delhi and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F74" s="0" t="inlineStr">
+        <is>
+          <t>Constitution of India, 1950
+Article 21, 22 - Detention--Ground not stated--Fundamental right--Violation
+of--Respondent No. 4 or his family members were not informed of the grounds
+of his detention--Orders of the MM also make no reference to this fact--Not
+keeping the person detained and his family or relatives or friends informed of
+the grounds of his detention is serious violation of his right to life and liberty.
+[80]
+Mental Health Act, 1987
+Section 23, 24 and 28--Illegal detention--Non-consideration of provision--
+Violation of--Duty MM passed a reception order--This was done on an
+application by ASI without even looking at the MHA--Direction was that
+Respondent No. 4 should be kept under observation in IHBAS for 24 hours--
+'Series of violations by the police, the mental health professionals at IHBAS
+and the MM who ordered Respondent No. 4 to be detained at IHBAS--This
+resulted in the infraction of his fundamental rights--There was no lawyer
+representing Respondent No. 4--He was not informed by the MM that he had a
+right to be represented by a lawyer at state expense--This was violation of
+Article 21 of the Constitution--Orders passed against him on those dates were
+illegal--Court expresses its apology for the unlawful orders passed by the
+Rs. 2 lakhs shall be paid. [106], [134] and [135]r a token compensation of
+                                   </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="B75" s="0" t="inlineStr">
+        <is>
+          <t> 08.01.2020
+                    </t>
+        </is>
+      </c>
+      <c r="C75" s="0" t="inlineStr">
+        <is>
+          <t>MANU/KE/0056/2020</t>
+        </is>
+      </c>
+      <c r="D75" s="0" t="inlineStr">
+        <is>
+          <t> Kerala Prakthana Gotra Sangam
+                                           </t>
+        </is>
+      </c>
+      <c r="E75" s="0" t="inlineStr">
+        <is>
+          <t> Union of India and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F75" s="0" t="inlineStr">
+        <is>
+          <t>COULD NOT FIND CASE NOTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="B76" s="0" t="inlineStr">
+        <is>
+          <t> 06.04.2022
+                     </t>
+        </is>
+      </c>
+      <c r="C76" s="0" t="inlineStr">
+        <is>
+          <t>MANU/TN/3127/2022</t>
+        </is>
+      </c>
+      <c r="D76" s="0" t="inlineStr">
+        <is>
+          <t> S.P. Chockalingam and Ors.
+                                       </t>
+        </is>
+      </c>
+      <c r="E76" s="0" t="inlineStr">
+        <is>
+          <t> Principal Chief Conservator of Forests &amp; Chief Wildlife Warden,
+              Department of Forests, Govt. of Tamil Nadu and Ors.
+</t>
+        </is>
+      </c>
+      <c r="F76" s="0" t="inlineStr">
+        <is>
+          <t>Environment - Violation - Articles 19(1)(d), 19(1)(g) and 21 of Constitution of
+India - Petitioners challenged impugned notification issued by district
+collector whereby restrictions were imposed on vehicles while passing
+through ghat road - Whether impugned notification of district collector was
+violative of fundamental rights under Article 19(1)(d), Article 19(1)(g) and
+Article 21 of Constitution and whether was legal - Held, district collector in
+impugned orders have banned thoroughfare only during night and vehicles
+beyond particular height and weight which were totally unsuitable for road,
+considering 27 hairpin bends were banned throughout - Therefore, both
+restrictions vis-Ãƒ-vis, commercial trucks and other vehicles passing through
+ghat road, as thoroughfare were reasonable and court hold that same did not
+infringe Article 19(1)(d) or Article 19(1)(g) in any manner whatsoever -
+Accordingly, question no. 1 was answered. [8.17],[8.21]
+Environment - Collection of Toll - Articles 19(1)(d), 19(1)(g) and 21 of
+Constitution of India - Petitioners challenged impugned notification issued by
+through ghat road - Whether imposition and collection of toll pursuant tossing
+notifications of Respondent no.4 was in order - Held, it was clear that state
+had authority to install weighbridges and collect fee in-respect of services
+rendered by it - But however, instant Road was National Highway and power
+vests with National Highways Authority or any person authorised for it - Thus,
+on   face   of   it, collection   of  toll  from    local  villagers  or   forest
+dwellers/agriculturists was illegal - As matter of fact, forest department, was
+manning check-posts and weighing bridge, was entitled to collect entry fees
+only for commercial vehicles or such other vehicles which use Highway as
+     08-08-2022 (Page 1 of 42)  www.manupatra.com        OP Jindal Global Universitythoroughfare, after obtaining approval from appropriate authority, namely
+Ministry of Road Transport and Highways Department, Government of India, in
+consultation with National Highways Authority and detail directions in this
+regard would be issued in this judgment and accordingly court answer this
+question. [9.2]
+Environment - Relief - Motor Vehicles Act, 1988 - Petitioners challenged
+impugned notification issued by district collector whereby restrictions were
+imposed on vehicles while passing through ghat road - What reliefs were to
+be granted in instant case - Held, as rightly pointed out by government, this
+was not case were just reliefs which flow from conclusions alone could be
+granted, rather care had to be taken towards rights and hardship of all
+stakeholders - Even though it was stand of Respondents that they may be
+permitted to incorporate such amendments in their notification, which was
+issued under Act during hearing it was left to court to pass detailed directions
+taking care of interests of all concerned - In view of same and in view of court
+findings and conclusions, court was called upon and court issued detailed
+directions to be mandatorily followed in respect of ghat road - Petitions
+disposed of with said directions. [10.1],[10.2],[10.3]
+                                      </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
